--- a/Requerimientos funcionales/Requerimientos Funcionales.xlsx
+++ b/Requerimientos funcionales/Requerimientos Funcionales.xlsx
@@ -246,9 +246,6 @@
     <t>4.4.1. Antes de efectuar la venta, se debe validar que la compra sea en efectivo o con tarjeta, esto para efectos de descuentos</t>
   </si>
   <si>
-    <t>4.4.2. Si es con tarjeta, se debe guardar en una base de datos el tipo de tarjeta con la que se esté pagando, el banco y los ultimos 6 números para tener un control en posteriores ventas</t>
-  </si>
-  <si>
     <t>4.5. Verificación de tipo de factura (Mayoreo o Detalle)</t>
   </si>
   <si>
@@ -283,13 +280,36 @@
   </si>
   <si>
     <t>3.5.3. El transporte del pedido debe agregarse según el tipo de proveedor, ya sea por encomienda o personalmente</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.4.2. Si es con tarjeta, se debe guardar en una base de datos el tipo de tarjeta con la que se esté pagando, el banco y los ultimos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> números para tener un control en posteriores ventas</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +378,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -455,6 +481,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -472,20 +512,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -794,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:AF175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63:H63"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,16 +912,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="18" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="4"/>
@@ -928,10 +954,10 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1004,16 +1030,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I11" s="4"/>
@@ -1041,63 +1067,63 @@
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
     </row>
-    <row r="12" spans="1:32" s="18" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16" t="s">
+    <row r="12" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
     </row>
     <row r="13" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I13" s="4"/>
@@ -1125,89 +1151,89 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
     </row>
-    <row r="14" spans="1:32" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+    <row r="14" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-    </row>
-    <row r="15" spans="1:32" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16" t="s">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+    </row>
+    <row r="15" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="15"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
     </row>
     <row r="16" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
@@ -1256,16 +1282,16 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="14" t="s">
+      <c r="G17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I17" s="4"/>
@@ -1293,105 +1319,105 @@
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
     </row>
-    <row r="18" spans="1:32" s="18" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16" t="s">
+    <row r="18" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="17" t="s">
+      <c r="G18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="15"/>
-    </row>
-    <row r="19" spans="1:32" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16" t="s">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+    </row>
+    <row r="19" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="17" t="s">
+      <c r="G19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
     </row>
     <row r="20" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="14" t="s">
+      <c r="G20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I20" s="4"/>
@@ -1419,105 +1445,105 @@
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
     </row>
-    <row r="21" spans="1:32" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16" t="s">
+    <row r="21" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+    </row>
+    <row r="22" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="15"/>
-    </row>
-    <row r="22" spans="1:32" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
     </row>
     <row r="23" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I23" s="4"/>
@@ -1545,105 +1571,105 @@
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
     </row>
-    <row r="24" spans="1:32" s="18" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16" t="s">
+    <row r="24" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="17" t="s">
+      <c r="F24" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="15"/>
-      <c r="AF24" s="15"/>
-    </row>
-    <row r="25" spans="1:32" s="18" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16" t="s">
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+    </row>
+    <row r="25" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="15"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
     </row>
     <row r="26" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="14" t="s">
+      <c r="G26" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I26" s="4"/>
@@ -1671,257 +1697,257 @@
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
     </row>
-    <row r="27" spans="1:32" s="18" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16" t="s">
+    <row r="27" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
-      <c r="AF27" s="15"/>
-    </row>
-    <row r="28" spans="1:32" s="18" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16" t="s">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+    </row>
+    <row r="28" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="15"/>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="15"/>
-      <c r="AD28" s="15"/>
-      <c r="AE28" s="15"/>
-      <c r="AF28" s="15"/>
-    </row>
-    <row r="29" spans="1:32" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="19" t="s">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+    </row>
+    <row r="29" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H29" s="14" t="s">
+      <c r="G29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="15"/>
-      <c r="AD29" s="15"/>
-      <c r="AE29" s="15"/>
-      <c r="AF29" s="15"/>
-    </row>
-    <row r="30" spans="1:32" s="18" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="16" t="s">
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
+    </row>
+    <row r="30" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="17" t="s">
+      <c r="H30" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="15"/>
-      <c r="AF30" s="15"/>
-    </row>
-    <row r="31" spans="1:32" s="18" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="16" t="s">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
+    </row>
+    <row r="31" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="15"/>
-      <c r="AF31" s="15"/>
-    </row>
-    <row r="32" spans="1:32" s="18" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="16" t="s">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
+    </row>
+    <row r="32" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="15"/>
-      <c r="AB32" s="15"/>
-      <c r="AC32" s="15"/>
-      <c r="AD32" s="15"/>
-      <c r="AE32" s="15"/>
-      <c r="AF32" s="15"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="9"/>
     </row>
     <row r="33" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
@@ -1970,16 +1996,16 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G34" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H34" s="14" t="s">
+      <c r="G34" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I34" s="4"/>
@@ -2007,105 +2033,105 @@
       <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
     </row>
-    <row r="35" spans="1:32" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="16" t="s">
+    <row r="35" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" s="17" t="s">
+      <c r="G35" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="15"/>
-      <c r="X35" s="15"/>
-      <c r="Y35" s="15"/>
-      <c r="Z35" s="15"/>
-      <c r="AA35" s="15"/>
-      <c r="AB35" s="15"/>
-      <c r="AC35" s="15"/>
-      <c r="AD35" s="15"/>
-      <c r="AE35" s="15"/>
-      <c r="AF35" s="15"/>
-    </row>
-    <row r="36" spans="1:32" s="18" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="16" t="s">
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="9"/>
+    </row>
+    <row r="36" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H36" s="17" t="s">
+      <c r="G36" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="15"/>
-      <c r="X36" s="15"/>
-      <c r="Y36" s="15"/>
-      <c r="Z36" s="15"/>
-      <c r="AA36" s="15"/>
-      <c r="AB36" s="15"/>
-      <c r="AC36" s="15"/>
-      <c r="AD36" s="15"/>
-      <c r="AE36" s="15"/>
-      <c r="AF36" s="15"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9"/>
+      <c r="AC36" s="9"/>
+      <c r="AD36" s="9"/>
+      <c r="AE36" s="9"/>
+      <c r="AF36" s="9"/>
     </row>
     <row r="37" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H37" s="14" t="s">
+      <c r="G37" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I37" s="4"/>
@@ -2133,63 +2159,63 @@
       <c r="AE37" s="4"/>
       <c r="AF37" s="4"/>
     </row>
-    <row r="38" spans="1:32" s="18" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="16" t="s">
+    <row r="38" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G38" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H38" s="17" t="s">
+      <c r="G38" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="15"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="15"/>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="15"/>
-      <c r="Z38" s="15"/>
-      <c r="AA38" s="15"/>
-      <c r="AB38" s="15"/>
-      <c r="AC38" s="15"/>
-      <c r="AD38" s="15"/>
-      <c r="AE38" s="15"/>
-      <c r="AF38" s="15"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="9"/>
+      <c r="AC38" s="9"/>
+      <c r="AD38" s="9"/>
+      <c r="AE38" s="9"/>
+      <c r="AF38" s="9"/>
     </row>
     <row r="39" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="14" t="s">
+      <c r="H39" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I39" s="4"/>
@@ -2217,105 +2243,105 @@
       <c r="AE39" s="4"/>
       <c r="AF39" s="4"/>
     </row>
-    <row r="40" spans="1:32" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="16" t="s">
+    <row r="40" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G40" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="17" t="s">
+      <c r="H40" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="15"/>
-      <c r="AD40" s="15"/>
-      <c r="AE40" s="15"/>
-      <c r="AF40" s="15"/>
-    </row>
-    <row r="41" spans="1:32" s="18" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="16" t="s">
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="9"/>
+      <c r="AD40" s="9"/>
+      <c r="AE40" s="9"/>
+      <c r="AF40" s="9"/>
+    </row>
+    <row r="41" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="17" t="s">
+      <c r="H41" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="15"/>
-      <c r="W41" s="15"/>
-      <c r="X41" s="15"/>
-      <c r="Y41" s="15"/>
-      <c r="Z41" s="15"/>
-      <c r="AA41" s="15"/>
-      <c r="AB41" s="15"/>
-      <c r="AC41" s="15"/>
-      <c r="AD41" s="15"/>
-      <c r="AE41" s="15"/>
-      <c r="AF41" s="15"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="9"/>
+      <c r="AC41" s="9"/>
+      <c r="AD41" s="9"/>
+      <c r="AE41" s="9"/>
+      <c r="AF41" s="9"/>
     </row>
     <row r="42" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="14" t="s">
+      <c r="H42" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I42" s="4"/>
@@ -2343,105 +2369,105 @@
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
     </row>
-    <row r="43" spans="1:32" s="18" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="16" t="s">
+    <row r="43" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="G43" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="17" t="s">
+      <c r="H43" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="15"/>
-      <c r="X43" s="15"/>
-      <c r="Y43" s="15"/>
-      <c r="Z43" s="15"/>
-      <c r="AA43" s="15"/>
-      <c r="AB43" s="15"/>
-      <c r="AC43" s="15"/>
-      <c r="AD43" s="15"/>
-      <c r="AE43" s="15"/>
-      <c r="AF43" s="15"/>
-    </row>
-    <row r="44" spans="1:32" s="18" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="16" t="s">
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="9"/>
+      <c r="AC43" s="9"/>
+      <c r="AD43" s="9"/>
+      <c r="AE43" s="9"/>
+      <c r="AF43" s="9"/>
+    </row>
+    <row r="44" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="G44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="17" t="s">
+      <c r="H44" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="15"/>
-      <c r="X44" s="15"/>
-      <c r="Y44" s="15"/>
-      <c r="Z44" s="15"/>
-      <c r="AA44" s="15"/>
-      <c r="AB44" s="15"/>
-      <c r="AC44" s="15"/>
-      <c r="AD44" s="15"/>
-      <c r="AE44" s="15"/>
-      <c r="AF44" s="15"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="9"/>
+      <c r="AC44" s="9"/>
+      <c r="AD44" s="9"/>
+      <c r="AE44" s="9"/>
+      <c r="AF44" s="9"/>
     </row>
     <row r="45" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F45" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G45" s="14" t="s">
+      <c r="F45" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="14" t="s">
+      <c r="H45" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I45" s="4"/>
@@ -2469,131 +2495,131 @@
       <c r="AE45" s="4"/>
       <c r="AF45" s="4"/>
     </row>
-    <row r="46" spans="1:32" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="16" t="s">
+    <row r="46" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="9"/>
+      <c r="AD46" s="9"/>
+      <c r="AE46" s="9"/>
+      <c r="AF46" s="9"/>
+    </row>
+    <row r="47" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="G47" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="17" t="s">
+      <c r="H47" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="15"/>
-      <c r="T46" s="15"/>
-      <c r="U46" s="15"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="15"/>
-      <c r="X46" s="15"/>
-      <c r="Y46" s="15"/>
-      <c r="Z46" s="15"/>
-      <c r="AA46" s="15"/>
-      <c r="AB46" s="15"/>
-      <c r="AC46" s="15"/>
-      <c r="AD46" s="15"/>
-      <c r="AE46" s="15"/>
-      <c r="AF46" s="15"/>
-    </row>
-    <row r="47" spans="1:32" s="18" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="16" t="s">
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="9"/>
+      <c r="AC47" s="9"/>
+      <c r="AD47" s="9"/>
+      <c r="AE47" s="9"/>
+      <c r="AF47" s="9"/>
+    </row>
+    <row r="48" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F48" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G47" s="17" t="s">
+      <c r="G48" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="17" t="s">
+      <c r="H48" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="15"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="15"/>
-      <c r="Y47" s="15"/>
-      <c r="Z47" s="15"/>
-      <c r="AA47" s="15"/>
-      <c r="AB47" s="15"/>
-      <c r="AC47" s="15"/>
-      <c r="AD47" s="15"/>
-      <c r="AE47" s="15"/>
-      <c r="AF47" s="15"/>
-    </row>
-    <row r="48" spans="1:32" s="18" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="15"/>
-      <c r="T48" s="15"/>
-      <c r="U48" s="15"/>
-      <c r="V48" s="15"/>
-      <c r="W48" s="15"/>
-      <c r="X48" s="15"/>
-      <c r="Y48" s="15"/>
-      <c r="Z48" s="15"/>
-      <c r="AA48" s="15"/>
-      <c r="AB48" s="15"/>
-      <c r="AC48" s="15"/>
-      <c r="AD48" s="15"/>
-      <c r="AE48" s="15"/>
-      <c r="AF48" s="15"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="9"/>
+      <c r="AB48" s="9"/>
+      <c r="AC48" s="9"/>
+      <c r="AD48" s="9"/>
+      <c r="AE48" s="9"/>
+      <c r="AF48" s="9"/>
     </row>
     <row r="49" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
@@ -2642,16 +2668,16 @@
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G50" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H50" s="14" t="s">
+      <c r="G50" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H50" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I50" s="4"/>
@@ -2679,63 +2705,63 @@
       <c r="AE50" s="4"/>
       <c r="AF50" s="4"/>
     </row>
-    <row r="51" spans="1:32" s="18" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="16" t="s">
+    <row r="51" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F51" s="17" t="s">
+      <c r="F51" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H51" s="17" t="s">
+      <c r="G51" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H51" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="15"/>
-      <c r="U51" s="15"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="15"/>
-      <c r="X51" s="15"/>
-      <c r="Y51" s="15"/>
-      <c r="Z51" s="15"/>
-      <c r="AA51" s="15"/>
-      <c r="AB51" s="15"/>
-      <c r="AC51" s="15"/>
-      <c r="AD51" s="15"/>
-      <c r="AE51" s="15"/>
-      <c r="AF51" s="15"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="9"/>
+      <c r="AC51" s="9"/>
+      <c r="AD51" s="9"/>
+      <c r="AE51" s="9"/>
+      <c r="AF51" s="9"/>
     </row>
     <row r="52" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F52" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="G52" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H52" s="14" t="s">
+      <c r="H52" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I52" s="4"/>
@@ -2763,147 +2789,147 @@
       <c r="AE52" s="4"/>
       <c r="AF52" s="4"/>
     </row>
-    <row r="53" spans="1:32" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="16" t="s">
+    <row r="53" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F53" s="17" t="s">
+      <c r="F53" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G53" s="17" t="s">
+      <c r="G53" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="17" t="s">
+      <c r="H53" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="15"/>
-      <c r="S53" s="15"/>
-      <c r="T53" s="15"/>
-      <c r="U53" s="15"/>
-      <c r="V53" s="15"/>
-      <c r="W53" s="15"/>
-      <c r="X53" s="15"/>
-      <c r="Y53" s="15"/>
-      <c r="Z53" s="15"/>
-      <c r="AA53" s="15"/>
-      <c r="AB53" s="15"/>
-      <c r="AC53" s="15"/>
-      <c r="AD53" s="15"/>
-      <c r="AE53" s="15"/>
-      <c r="AF53" s="15"/>
-    </row>
-    <row r="54" spans="1:32" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="16" t="s">
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
+      <c r="AB53" s="9"/>
+      <c r="AC53" s="9"/>
+      <c r="AD53" s="9"/>
+      <c r="AE53" s="9"/>
+      <c r="AF53" s="9"/>
+    </row>
+    <row r="54" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F54" s="17" t="s">
+      <c r="F54" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G54" s="17" t="s">
+      <c r="G54" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="17" t="s">
+      <c r="H54" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="15"/>
-      <c r="T54" s="15"/>
-      <c r="U54" s="15"/>
-      <c r="V54" s="15"/>
-      <c r="W54" s="15"/>
-      <c r="X54" s="15"/>
-      <c r="Y54" s="15"/>
-      <c r="Z54" s="15"/>
-      <c r="AA54" s="15"/>
-      <c r="AB54" s="15"/>
-      <c r="AC54" s="15"/>
-      <c r="AD54" s="15"/>
-      <c r="AE54" s="15"/>
-      <c r="AF54" s="15"/>
-    </row>
-    <row r="55" spans="1:32" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="16" t="s">
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="9"/>
+      <c r="AB54" s="9"/>
+      <c r="AC54" s="9"/>
+      <c r="AD54" s="9"/>
+      <c r="AE54" s="9"/>
+      <c r="AF54" s="9"/>
+    </row>
+    <row r="55" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F55" s="17" t="s">
+      <c r="F55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G55" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H55" s="17" t="s">
+      <c r="G55" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H55" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="15"/>
-      <c r="S55" s="15"/>
-      <c r="T55" s="15"/>
-      <c r="U55" s="15"/>
-      <c r="V55" s="15"/>
-      <c r="W55" s="15"/>
-      <c r="X55" s="15"/>
-      <c r="Y55" s="15"/>
-      <c r="Z55" s="15"/>
-      <c r="AA55" s="15"/>
-      <c r="AB55" s="15"/>
-      <c r="AC55" s="15"/>
-      <c r="AD55" s="15"/>
-      <c r="AE55" s="15"/>
-      <c r="AF55" s="15"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="9"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9"/>
+      <c r="AA55" s="9"/>
+      <c r="AB55" s="9"/>
+      <c r="AC55" s="9"/>
+      <c r="AD55" s="9"/>
+      <c r="AE55" s="9"/>
+      <c r="AF55" s="9"/>
     </row>
     <row r="56" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F56" s="14" t="s">
+      <c r="F56" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="G56" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H56" s="14" t="s">
+      <c r="H56" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I56" s="4"/>
@@ -2931,63 +2957,63 @@
       <c r="AE56" s="4"/>
       <c r="AF56" s="4"/>
     </row>
-    <row r="57" spans="1:32" s="18" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="16" t="s">
+    <row r="57" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F57" s="17" t="s">
+      <c r="F57" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G57" s="17" t="s">
+      <c r="G57" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H57" s="17" t="s">
+      <c r="H57" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="15"/>
-      <c r="S57" s="15"/>
-      <c r="T57" s="15"/>
-      <c r="U57" s="15"/>
-      <c r="V57" s="15"/>
-      <c r="W57" s="15"/>
-      <c r="X57" s="15"/>
-      <c r="Y57" s="15"/>
-      <c r="Z57" s="15"/>
-      <c r="AA57" s="15"/>
-      <c r="AB57" s="15"/>
-      <c r="AC57" s="15"/>
-      <c r="AD57" s="15"/>
-      <c r="AE57" s="15"/>
-      <c r="AF57" s="15"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
+      <c r="AA57" s="9"/>
+      <c r="AB57" s="9"/>
+      <c r="AC57" s="9"/>
+      <c r="AD57" s="9"/>
+      <c r="AE57" s="9"/>
+      <c r="AF57" s="9"/>
     </row>
     <row r="58" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F58" s="14" t="s">
+      <c r="F58" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G58" s="14" t="s">
+      <c r="G58" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H58" s="14" t="s">
+      <c r="H58" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I58" s="4"/>
@@ -3015,105 +3041,105 @@
       <c r="AE58" s="4"/>
       <c r="AF58" s="4"/>
     </row>
-    <row r="59" spans="1:32" s="18" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="16" t="s">
+    <row r="59" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F59" s="17" t="s">
+      <c r="F59" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G59" s="17" t="s">
+      <c r="G59" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H59" s="17" t="s">
+      <c r="H59" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="15"/>
-      <c r="S59" s="15"/>
-      <c r="T59" s="15"/>
-      <c r="U59" s="15"/>
-      <c r="V59" s="15"/>
-      <c r="W59" s="15"/>
-      <c r="X59" s="15"/>
-      <c r="Y59" s="15"/>
-      <c r="Z59" s="15"/>
-      <c r="AA59" s="15"/>
-      <c r="AB59" s="15"/>
-      <c r="AC59" s="15"/>
-      <c r="AD59" s="15"/>
-      <c r="AE59" s="15"/>
-      <c r="AF59" s="15"/>
-    </row>
-    <row r="60" spans="1:32" s="18" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="16" t="s">
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="9"/>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
+      <c r="AA59" s="9"/>
+      <c r="AB59" s="9"/>
+      <c r="AC59" s="9"/>
+      <c r="AD59" s="9"/>
+      <c r="AE59" s="9"/>
+      <c r="AF59" s="9"/>
+    </row>
+    <row r="60" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F60" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G60" s="17" t="s">
+      <c r="F60" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G60" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H60" s="17" t="s">
+      <c r="H60" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="15"/>
-      <c r="S60" s="15"/>
-      <c r="T60" s="15"/>
-      <c r="U60" s="15"/>
-      <c r="V60" s="15"/>
-      <c r="W60" s="15"/>
-      <c r="X60" s="15"/>
-      <c r="Y60" s="15"/>
-      <c r="Z60" s="15"/>
-      <c r="AA60" s="15"/>
-      <c r="AB60" s="15"/>
-      <c r="AC60" s="15"/>
-      <c r="AD60" s="15"/>
-      <c r="AE60" s="15"/>
-      <c r="AF60" s="15"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
+      <c r="AA60" s="9"/>
+      <c r="AB60" s="9"/>
+      <c r="AC60" s="9"/>
+      <c r="AD60" s="9"/>
+      <c r="AE60" s="9"/>
+      <c r="AF60" s="9"/>
     </row>
     <row r="61" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F61" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G61" s="14" t="s">
+      <c r="F61" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G61" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H61" s="14" t="s">
+      <c r="H61" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I61" s="4"/>
@@ -3141,63 +3167,63 @@
       <c r="AE61" s="4"/>
       <c r="AF61" s="4"/>
     </row>
-    <row r="62" spans="1:32" s="18" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="16" t="s">
+    <row r="62" spans="1:32" s="12" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F62" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G62" s="17" t="s">
+      <c r="F62" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G62" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H62" s="17" t="s">
+      <c r="H62" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="15"/>
-      <c r="S62" s="15"/>
-      <c r="T62" s="15"/>
-      <c r="U62" s="15"/>
-      <c r="V62" s="15"/>
-      <c r="W62" s="15"/>
-      <c r="X62" s="15"/>
-      <c r="Y62" s="15"/>
-      <c r="Z62" s="15"/>
-      <c r="AA62" s="15"/>
-      <c r="AB62" s="15"/>
-      <c r="AC62" s="15"/>
-      <c r="AD62" s="15"/>
-      <c r="AE62" s="15"/>
-      <c r="AF62" s="15"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
+      <c r="AA62" s="9"/>
+      <c r="AB62" s="9"/>
+      <c r="AC62" s="9"/>
+      <c r="AD62" s="9"/>
+      <c r="AE62" s="9"/>
+      <c r="AF62" s="9"/>
     </row>
     <row r="63" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="19" t="s">
+      <c r="E63" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F63" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G63" s="14" t="s">
+      <c r="F63" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H63" s="14" t="s">
+      <c r="H63" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I63" s="4"/>
@@ -3225,89 +3251,89 @@
       <c r="AE63" s="4"/>
       <c r="AF63" s="4"/>
     </row>
-    <row r="64" spans="1:32" s="18" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="16" t="s">
+    <row r="64" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F64" s="17" t="s">
+      <c r="F64" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="9"/>
+      <c r="Y64" s="9"/>
+      <c r="Z64" s="9"/>
+      <c r="AA64" s="9"/>
+      <c r="AB64" s="9"/>
+      <c r="AC64" s="9"/>
+      <c r="AD64" s="9"/>
+      <c r="AE64" s="9"/>
+      <c r="AF64" s="9"/>
+    </row>
+    <row r="65" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G64" s="17" t="s">
+      <c r="G65" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H64" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="15"/>
-      <c r="S64" s="15"/>
-      <c r="T64" s="15"/>
-      <c r="U64" s="15"/>
-      <c r="V64" s="15"/>
-      <c r="W64" s="15"/>
-      <c r="X64" s="15"/>
-      <c r="Y64" s="15"/>
-      <c r="Z64" s="15"/>
-      <c r="AA64" s="15"/>
-      <c r="AB64" s="15"/>
-      <c r="AC64" s="15"/>
-      <c r="AD64" s="15"/>
-      <c r="AE64" s="15"/>
-      <c r="AF64" s="15"/>
-    </row>
-    <row r="65" spans="1:32" s="18" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F65" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G65" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H65" s="17" t="s">
+      <c r="H65" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="15"/>
-      <c r="R65" s="15"/>
-      <c r="S65" s="15"/>
-      <c r="T65" s="15"/>
-      <c r="U65" s="15"/>
-      <c r="V65" s="15"/>
-      <c r="W65" s="15"/>
-      <c r="X65" s="15"/>
-      <c r="Y65" s="15"/>
-      <c r="Z65" s="15"/>
-      <c r="AA65" s="15"/>
-      <c r="AB65" s="15"/>
-      <c r="AC65" s="15"/>
-      <c r="AD65" s="15"/>
-      <c r="AE65" s="15"/>
-      <c r="AF65" s="15"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="9"/>
+      <c r="Y65" s="9"/>
+      <c r="Z65" s="9"/>
+      <c r="AA65" s="9"/>
+      <c r="AB65" s="9"/>
+      <c r="AC65" s="9"/>
+      <c r="AD65" s="9"/>
+      <c r="AE65" s="9"/>
+      <c r="AF65" s="9"/>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
@@ -7073,6 +7099,6 @@
     <hyperlink ref="E70" location="_ftnref4" display="_ftnref4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Requerimientos funcionales/Requerimientos Funcionales.xlsx
+++ b/Requerimientos funcionales/Requerimientos Funcionales.xlsx
@@ -820,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:AF175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Requerimientos funcionales/Requerimientos Funcionales.xlsx
+++ b/Requerimientos funcionales/Requerimientos Funcionales.xlsx
@@ -10,10 +10,10 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_ftn1" localSheetId="0">Hoja1!$B$126</definedName>
-    <definedName name="_ftn2" localSheetId="0">Hoja1!$B$127</definedName>
-    <definedName name="_ftn3" localSheetId="0">Hoja1!$B$134</definedName>
-    <definedName name="_ftn4" localSheetId="0">Hoja1!$B$135</definedName>
+    <definedName name="_ftn1" localSheetId="0">Hoja1!$B$125</definedName>
+    <definedName name="_ftn2" localSheetId="0">Hoja1!$B$126</definedName>
+    <definedName name="_ftn3" localSheetId="0">Hoja1!$B$133</definedName>
+    <definedName name="_ftn4" localSheetId="0">Hoja1!$B$134</definedName>
     <definedName name="_ftnref1" localSheetId="0">Hoja1!$B$7</definedName>
     <definedName name="_ftnref2" localSheetId="0">Hoja1!$C$7</definedName>
   </definedNames>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="271">
   <si>
     <t>Especificación de Requerimientos Funcionales</t>
   </si>
@@ -144,12 +144,6 @@
     <t>RF-GU 1.7</t>
   </si>
   <si>
-    <t>Ingresar Contraseña:  debe contener al menos 6 caracteres, mayúsculas, minúsculas y al menos un número o carácter especial</t>
-  </si>
-  <si>
-    <t>Ingresar Usuario en el formulario : nombre de usuario unico escrito solo en letras minúsculas</t>
-  </si>
-  <si>
     <t>Ingresar Cedula: se debe ingresar un numero de 9 digitos</t>
   </si>
   <si>
@@ -249,9 +243,6 @@
     <t>RF- CP 5.2</t>
   </si>
   <si>
-    <t>El precio se calcula sobre el precio costo, una vez ingresado el producto en el inventario</t>
-  </si>
-  <si>
     <t>El porcentaje añadido al precio por producto varía según la categoría</t>
   </si>
   <si>
@@ -297,9 +288,6 @@
     <t>RF-CP 6.2</t>
   </si>
   <si>
-    <t>Cada categoría de descuento tiene un codigo que la identifica</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Envío de pedidos</t>
   </si>
   <si>
@@ -708,15 +696,6 @@
     <t>RF- GC 20.1</t>
   </si>
   <si>
-    <t>Ingresar el nombre completo del cliente</t>
-  </si>
-  <si>
-    <t>Ingresar apellidos del cliente</t>
-  </si>
-  <si>
-    <t>Ingresar la cédula del cliente con un formato de 8 dígitos</t>
-  </si>
-  <si>
     <t>Ingresar el email o sitio web del proveedor, si éste cuenta con eso</t>
   </si>
   <si>
@@ -756,33 +735,15 @@
     <t>RF- GC 20.7</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingresar el Nombre completo </t>
-  </si>
-  <si>
-    <t>Ingresar los dos Apellidos</t>
-  </si>
-  <si>
     <t>RF-GU 1.8</t>
   </si>
   <si>
     <t>RF-GU 1.9</t>
   </si>
   <si>
-    <t xml:space="preserve">El sistema no puede guardar ninguna contraseña, para mayor seguridad </t>
-  </si>
-  <si>
     <t>Una vez que se cierre el navegador o se apaga el equipo, la sesión se debe cerrar</t>
   </si>
   <si>
-    <t>RF-GU 2.4</t>
-  </si>
-  <si>
-    <t>RF-GU 2.5</t>
-  </si>
-  <si>
-    <t>Validacion del Rol de usuarios (Vendedor o Administrador): se debe indicar qué tipo de usuario</t>
-  </si>
-  <si>
     <t>Si el usuario es Vendedor: solo tiene permiso de vender productos, generar facturas y registrar clientes</t>
   </si>
   <si>
@@ -801,9 +762,6 @@
     <t>RF-CP 3.1.4</t>
   </si>
   <si>
-    <t>Se debe ingresar el nombre de la categoría</t>
-  </si>
-  <si>
     <t>Ingresar la descripción del producto</t>
   </si>
   <si>
@@ -828,9 +786,6 @@
     <t>Indicar el método de pago, si será en efectivo, en línea, etc</t>
   </si>
   <si>
-    <t>OE</t>
-  </si>
-  <si>
     <t>Control Clientes Frecuentes</t>
   </si>
   <si>
@@ -877,6 +832,45 @@
   </si>
   <si>
     <t>Tener registrado las fechas de compras generadas por estos clientes para futuros pedidos en ciertas épocas</t>
+  </si>
+  <si>
+    <t>Ingresar el Nombre completo: se permiten caracteres del alfabeto</t>
+  </si>
+  <si>
+    <t>Ingresar los dos Apellidos: se permiten caracteres del alfabeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar Usuario en el formulario : nombre de usuario unico escrito con caracteres alfanumericos </t>
+  </si>
+  <si>
+    <t>Ingresar Contraseña:  debe contener al menos 6 caracteres, mayúsculas, minúsculas y al menos un número o signo especial</t>
+  </si>
+  <si>
+    <t>El campo para la contraseña debe estar oculta al usuario, con un formato de máscara (*******)</t>
+  </si>
+  <si>
+    <t>RF-GU 2.1 .1</t>
+  </si>
+  <si>
+    <t>RF-GU 2.1.2</t>
+  </si>
+  <si>
+    <t>Se debe ingresar el nombre de la categoría: con caracteres alfanumericos</t>
+  </si>
+  <si>
+    <t>El precio de venta se calcula sobre el precio costo, una vez ingresado el producto en el inventario</t>
+  </si>
+  <si>
+    <t>Cada categoría de descuento tiene un codigo numérico que la identifica</t>
+  </si>
+  <si>
+    <t>Ingresar el nombre completo del cliente con caracteres alfabeticos</t>
+  </si>
+  <si>
+    <t>Ingresar apellidos del cliente con caracteres alfabeticos</t>
+  </si>
+  <si>
+    <t>Ingresar la cédula del cliente con un formato de 9 dígitos</t>
   </si>
 </sst>
 </file>
@@ -1389,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF244"/>
+  <dimension ref="A1:AF243"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,7 +1641,7 @@
         <v>21</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>9</v>
@@ -1689,7 +1683,7 @@
         <v>22</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>16</v>
@@ -1731,7 +1725,7 @@
         <v>23</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>29</v>
+        <v>260</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>9</v>
@@ -1773,7 +1767,7 @@
         <v>24</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>28</v>
+        <v>261</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>9</v>
@@ -1815,7 +1809,7 @@
         <v>25</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>9</v>
@@ -1857,7 +1851,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>16</v>
@@ -1899,7 +1893,7 @@
         <v>27</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>17</v>
@@ -1938,10 +1932,10 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="10" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>16</v>
@@ -1980,10 +1974,10 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="10" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>17</v>
@@ -2022,10 +2016,10 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>9</v>
@@ -2064,10 +2058,10 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>9</v>
@@ -2100,19 +2094,23 @@
       <c r="AE22" s="9"/>
       <c r="AF22" s="9"/>
     </row>
-    <row r="23" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="10" t="s">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+        <v>229</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -2144,16 +2142,16 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="10" t="s">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2186,16 +2184,16 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="10" t="s">
-        <v>238</v>
+        <v>35</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2222,22 +2220,22 @@
       <c r="AE25" s="9"/>
       <c r="AF25" s="9"/>
     </row>
-    <row r="26" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="10" t="s">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2264,61 +2262,57 @@
       <c r="AE26" s="9"/>
       <c r="AF26" s="9"/>
     </row>
-    <row r="27" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="9"/>
+    <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
     </row>
     <row r="28" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="E28" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="F28" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -2349,14 +2343,18 @@
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="13" t="s">
+      <c r="E29" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="F29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -2391,13 +2389,13 @@
         <v>44</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -2424,22 +2422,22 @@
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
     </row>
-    <row r="31" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>247</v>
+        <v>43</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -2466,7 +2464,7 @@
       <c r="AE31" s="4"/>
       <c r="AF31" s="4"/>
     </row>
-    <row r="32" spans="1:32" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2475,7 +2473,7 @@
         <v>45</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>9</v>
@@ -2508,16 +2506,16 @@
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
     </row>
-    <row r="33" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>245</v>
+        <v>45</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>230</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>9</v>
@@ -2550,21 +2548,21 @@
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
     </row>
-    <row r="34" spans="1:32" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="10" t="s">
-        <v>47</v>
+        <v>233</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G34" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="11" t="s">
         <v>11</v>
       </c>
       <c r="I34" s="4"/>
@@ -2598,7 +2596,7 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="10" t="s">
-        <v>246</v>
+        <v>47</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>48</v>
@@ -2607,7 +2605,7 @@
         <v>9</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -2643,10 +2641,10 @@
         <v>49</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>50</v>
+        <v>234</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>10</v>
@@ -2682,10 +2680,10 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>16</v>
@@ -2724,13 +2722,13 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="10" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>249</v>
+        <v>67</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H38" s="11" t="s">
         <v>10</v>
@@ -2766,15 +2764,15 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G39" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I39" s="4"/>
@@ -2808,17 +2806,13 @@
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>10</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -2844,19 +2838,23 @@
       <c r="AE40" s="4"/>
       <c r="AF40" s="4"/>
     </row>
-    <row r="41" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="10" t="s">
-        <v>71</v>
+        <v>256</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
+        <v>255</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -2882,21 +2880,21 @@
       <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
     </row>
-    <row r="42" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="G42" s="11" t="s">
+      <c r="E42" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I42" s="4"/>
@@ -2924,49 +2922,49 @@
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
     </row>
-    <row r="43" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="13" t="s">
+    <row r="43" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="4"/>
-      <c r="AE43" s="4"/>
-      <c r="AF43" s="4"/>
-    </row>
-    <row r="44" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="9"/>
+      <c r="AC43" s="9"/>
+      <c r="AD43" s="9"/>
+      <c r="AE43" s="9"/>
+      <c r="AF43" s="9"/>
+    </row>
+    <row r="44" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -3014,10 +3012,10 @@
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="10" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>9</v>
@@ -3050,100 +3048,100 @@
       <c r="AE45" s="9"/>
       <c r="AF45" s="9"/>
     </row>
-    <row r="46" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="G46" s="11" t="s">
+    <row r="46" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="4"/>
+    </row>
+    <row r="47" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="G47" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="9"/>
-      <c r="AC46" s="9"/>
-      <c r="AD46" s="9"/>
-      <c r="AE46" s="9"/>
-      <c r="AF46" s="9"/>
-    </row>
-    <row r="47" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4"/>
-      <c r="AA47" s="4"/>
-      <c r="AB47" s="4"/>
-      <c r="AC47" s="4"/>
-      <c r="AD47" s="4"/>
-      <c r="AE47" s="4"/>
-      <c r="AF47" s="4"/>
-    </row>
-    <row r="48" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H47" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="9"/>
+      <c r="AC47" s="9"/>
+      <c r="AD47" s="9"/>
+      <c r="AE47" s="9"/>
+      <c r="AF47" s="9"/>
+    </row>
+    <row r="48" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>9</v>
@@ -3176,16 +3174,16 @@
       <c r="AE48" s="9"/>
       <c r="AF48" s="9"/>
     </row>
-    <row r="49" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="10" t="s">
-        <v>62</v>
+        <v>239</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>9</v>
@@ -3218,22 +3216,22 @@
       <c r="AE49" s="9"/>
       <c r="AF49" s="9"/>
     </row>
-    <row r="50" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="G50" s="11" t="s">
+      <c r="E50" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H50" s="11" t="s">
-        <v>11</v>
+      <c r="H50" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3265,17 +3263,17 @@
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G51" s="8" t="s">
+      <c r="E51" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="8" t="s">
-        <v>10</v>
+      <c r="H51" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3302,22 +3300,22 @@
       <c r="AE51" s="9"/>
       <c r="AF51" s="9"/>
     </row>
-    <row r="52" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G52" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H52" s="10" t="s">
-        <v>11</v>
+      <c r="H52" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3350,10 +3348,10 @@
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>9</v>
@@ -3386,16 +3384,16 @@
       <c r="AE53" s="9"/>
       <c r="AF53" s="9"/>
     </row>
-    <row r="54" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G54" s="11" t="s">
         <v>9</v>
@@ -3428,22 +3426,22 @@
       <c r="AE54" s="9"/>
       <c r="AF54" s="9"/>
     </row>
-    <row r="55" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>68</v>
+        <v>267</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3470,61 +3468,61 @@
       <c r="AE55" s="9"/>
       <c r="AF55" s="9"/>
     </row>
-    <row r="56" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="9"/>
-      <c r="AA56" s="9"/>
-      <c r="AB56" s="9"/>
-      <c r="AC56" s="9"/>
-      <c r="AD56" s="9"/>
-      <c r="AE56" s="9"/>
-      <c r="AF56" s="9"/>
+    <row r="56" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="4"/>
+      <c r="AE56" s="4"/>
+      <c r="AF56" s="4"/>
     </row>
     <row r="57" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="E57" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -3550,21 +3548,21 @@
       <c r="AE57" s="4"/>
       <c r="AF57" s="4"/>
     </row>
-    <row r="58" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F58" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F58" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G58" s="8" t="s">
+      <c r="G58" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H58" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I58" s="4"/>
@@ -3592,16 +3590,16 @@
       <c r="AE58" s="4"/>
       <c r="AF58" s="4"/>
     </row>
-    <row r="59" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G59" s="11" t="s">
         <v>9</v>
@@ -3634,19 +3632,19 @@
       <c r="AE59" s="4"/>
       <c r="AF59" s="4"/>
     </row>
-    <row r="60" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H60" s="11" t="s">
         <v>10</v>
@@ -3676,19 +3674,19 @@
       <c r="AE60" s="4"/>
       <c r="AF60" s="4"/>
     </row>
-    <row r="61" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H61" s="11" t="s">
         <v>10</v>
@@ -3724,7 +3722,7 @@
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F62" s="11" t="s">
         <v>89</v>
@@ -3766,10 +3764,10 @@
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>93</v>
+        <v>241</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>9</v>
@@ -3807,17 +3805,17 @@
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="10" t="s">
+      <c r="E64" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F64" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>10</v>
+      <c r="F64" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -3844,58 +3842,58 @@
       <c r="AE64" s="4"/>
       <c r="AF64" s="4"/>
     </row>
-    <row r="65" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G65" s="8" t="s">
+    <row r="65" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G65" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H65" s="8" t="s">
+      <c r="H65" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
-      <c r="T65" s="4"/>
-      <c r="U65" s="4"/>
-      <c r="V65" s="4"/>
-      <c r="W65" s="4"/>
-      <c r="X65" s="4"/>
-      <c r="Y65" s="4"/>
-      <c r="Z65" s="4"/>
-      <c r="AA65" s="4"/>
-      <c r="AB65" s="4"/>
-      <c r="AC65" s="4"/>
-      <c r="AD65" s="4"/>
-      <c r="AE65" s="4"/>
-      <c r="AF65" s="4"/>
-    </row>
-    <row r="66" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="9"/>
+      <c r="Y65" s="9"/>
+      <c r="Z65" s="9"/>
+      <c r="AA65" s="9"/>
+      <c r="AB65" s="9"/>
+      <c r="AC65" s="9"/>
+      <c r="AD65" s="9"/>
+      <c r="AE65" s="9"/>
+      <c r="AF65" s="9"/>
+    </row>
+    <row r="66" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>16</v>
@@ -3928,184 +3926,184 @@
       <c r="AE66" s="9"/>
       <c r="AF66" s="9"/>
     </row>
-    <row r="67" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="10" t="s">
+    <row r="67" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4"/>
+      <c r="AA67" s="4"/>
+      <c r="AB67" s="4"/>
+      <c r="AC67" s="4"/>
+      <c r="AD67" s="4"/>
+      <c r="AE67" s="4"/>
+      <c r="AF67" s="4"/>
+    </row>
+    <row r="68" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F68" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F67" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G67" s="11" t="s">
+      <c r="G68" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H67" s="11" t="s">
+      <c r="H68" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
-      <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
-      <c r="W67" s="9"/>
-      <c r="X67" s="9"/>
-      <c r="Y67" s="9"/>
-      <c r="Z67" s="9"/>
-      <c r="AA67" s="9"/>
-      <c r="AB67" s="9"/>
-      <c r="AC67" s="9"/>
-      <c r="AD67" s="9"/>
-      <c r="AE67" s="9"/>
-      <c r="AF67" s="9"/>
-    </row>
-    <row r="68" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="13" t="s">
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
+      <c r="AA68" s="9"/>
+      <c r="AB68" s="9"/>
+      <c r="AC68" s="9"/>
+      <c r="AD68" s="9"/>
+      <c r="AE68" s="9"/>
+      <c r="AF68" s="9"/>
+    </row>
+    <row r="69" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F69" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="4"/>
+      <c r="AA69" s="4"/>
+      <c r="AB69" s="4"/>
+      <c r="AC69" s="4"/>
+      <c r="AD69" s="4"/>
+      <c r="AE69" s="4"/>
+      <c r="AF69" s="4"/>
+    </row>
+    <row r="70" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G68" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
-      <c r="T68" s="4"/>
-      <c r="U68" s="4"/>
-      <c r="V68" s="4"/>
-      <c r="W68" s="4"/>
-      <c r="X68" s="4"/>
-      <c r="Y68" s="4"/>
-      <c r="Z68" s="4"/>
-      <c r="AA68" s="4"/>
-      <c r="AB68" s="4"/>
-      <c r="AC68" s="4"/>
-      <c r="AD68" s="4"/>
-      <c r="AE68" s="4"/>
-      <c r="AF68" s="4"/>
-    </row>
-    <row r="69" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="9"/>
-      <c r="Z69" s="9"/>
-      <c r="AA69" s="9"/>
-      <c r="AB69" s="9"/>
-      <c r="AC69" s="9"/>
-      <c r="AD69" s="9"/>
-      <c r="AE69" s="9"/>
-      <c r="AF69" s="9"/>
-    </row>
-    <row r="70" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="13" t="s">
+      <c r="F70" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F70" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G70" s="8" t="s">
+      <c r="G70" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H70" s="8" t="s">
+      <c r="H70" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
-      <c r="S70" s="4"/>
-      <c r="T70" s="4"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
-      <c r="W70" s="4"/>
-      <c r="X70" s="4"/>
-      <c r="Y70" s="4"/>
-      <c r="Z70" s="4"/>
-      <c r="AA70" s="4"/>
-      <c r="AB70" s="4"/>
-      <c r="AC70" s="4"/>
-      <c r="AD70" s="4"/>
-      <c r="AE70" s="4"/>
-      <c r="AF70" s="4"/>
-    </row>
-    <row r="71" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="9"/>
+      <c r="Y70" s="9"/>
+      <c r="Z70" s="9"/>
+      <c r="AA70" s="9"/>
+      <c r="AB70" s="9"/>
+      <c r="AC70" s="9"/>
+      <c r="AD70" s="9"/>
+      <c r="AE70" s="9"/>
+      <c r="AF70" s="9"/>
+    </row>
+    <row r="71" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>9</v>
@@ -4138,89 +4136,89 @@
       <c r="AE71" s="9"/>
       <c r="AF71" s="9"/>
     </row>
-    <row r="72" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="10" t="s">
+    <row r="72" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
+      <c r="AA72" s="4"/>
+      <c r="AB72" s="4"/>
+      <c r="AC72" s="4"/>
+      <c r="AD72" s="4"/>
+      <c r="AE72" s="4"/>
+      <c r="AF72" s="4"/>
+    </row>
+    <row r="73" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F72" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G72" s="11" t="s">
+      <c r="F73" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G73" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H72" s="11" t="s">
+      <c r="H73" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="9"/>
-      <c r="S72" s="9"/>
-      <c r="T72" s="9"/>
-      <c r="U72" s="9"/>
-      <c r="V72" s="9"/>
-      <c r="W72" s="9"/>
-      <c r="X72" s="9"/>
-      <c r="Y72" s="9"/>
-      <c r="Z72" s="9"/>
-      <c r="AA72" s="9"/>
-      <c r="AB72" s="9"/>
-      <c r="AC72" s="9"/>
-      <c r="AD72" s="9"/>
-      <c r="AE72" s="9"/>
-      <c r="AF72" s="9"/>
-    </row>
-    <row r="73" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
-      <c r="S73" s="4"/>
-      <c r="T73" s="4"/>
-      <c r="U73" s="4"/>
-      <c r="V73" s="4"/>
-      <c r="W73" s="4"/>
-      <c r="X73" s="4"/>
-      <c r="Y73" s="4"/>
-      <c r="Z73" s="4"/>
-      <c r="AA73" s="4"/>
-      <c r="AB73" s="4"/>
-      <c r="AC73" s="4"/>
-      <c r="AD73" s="4"/>
-      <c r="AE73" s="4"/>
-      <c r="AF73" s="4"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="9"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="9"/>
+      <c r="Y73" s="9"/>
+      <c r="Z73" s="9"/>
+      <c r="AA73" s="9"/>
+      <c r="AB73" s="9"/>
+      <c r="AC73" s="9"/>
+      <c r="AD73" s="9"/>
+      <c r="AE73" s="9"/>
+      <c r="AF73" s="9"/>
     </row>
     <row r="74" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
@@ -4228,10 +4226,10 @@
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F74" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>9</v>
@@ -4264,16 +4262,16 @@
       <c r="AE74" s="9"/>
       <c r="AF74" s="9"/>
     </row>
-    <row r="75" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="10" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G75" s="11" t="s">
         <v>9</v>
@@ -4306,16 +4304,16 @@
       <c r="AE75" s="9"/>
       <c r="AF75" s="9"/>
     </row>
-    <row r="76" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>9</v>
@@ -4348,63 +4346,63 @@
       <c r="AE76" s="9"/>
       <c r="AF76" s="9"/>
     </row>
-    <row r="77" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="G77" s="11" t="s">
+    <row r="77" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G77" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H77" s="11" t="s">
+      <c r="H77" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="9"/>
-      <c r="S77" s="9"/>
-      <c r="T77" s="9"/>
-      <c r="U77" s="9"/>
-      <c r="V77" s="9"/>
-      <c r="W77" s="9"/>
-      <c r="X77" s="9"/>
-      <c r="Y77" s="9"/>
-      <c r="Z77" s="9"/>
-      <c r="AA77" s="9"/>
-      <c r="AB77" s="9"/>
-      <c r="AC77" s="9"/>
-      <c r="AD77" s="9"/>
-      <c r="AE77" s="9"/>
-      <c r="AF77" s="9"/>
-    </row>
-    <row r="78" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="4"/>
+      <c r="AB77" s="4"/>
+      <c r="AC77" s="4"/>
+      <c r="AD77" s="4"/>
+      <c r="AE77" s="4"/>
+      <c r="AF77" s="4"/>
+    </row>
+    <row r="78" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G78" s="8" t="s">
+      <c r="E78" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G78" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H78" s="8" t="s">
+      <c r="H78" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I78" s="4"/>
@@ -4438,10 +4436,10 @@
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>9</v>
@@ -4480,10 +4478,10 @@
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G80" s="11" t="s">
         <v>9</v>
@@ -4516,16 +4514,16 @@
       <c r="AE80" s="4"/>
       <c r="AF80" s="4"/>
     </row>
-    <row r="81" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>9</v>
@@ -4564,13 +4562,13 @@
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="10" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H82" s="11" t="s">
         <v>10</v>
@@ -4605,18 +4603,14 @@
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="E83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
@@ -4647,14 +4641,18 @@
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F84" s="2" t="s">
+      <c r="E84" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
+      <c r="G84" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
@@ -4685,16 +4683,16 @@
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="13" t="s">
+      <c r="E85" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F85" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="F85" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H85" s="8" t="s">
+      <c r="G85" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" s="11" t="s">
         <v>11</v>
       </c>
       <c r="I85" s="4"/>
@@ -4722,131 +4720,131 @@
       <c r="AE85" s="4"/>
       <c r="AF85" s="4"/>
     </row>
-    <row r="86" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
+    <row r="86" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
       <c r="E86" s="10" t="s">
         <v>133</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H86" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
-      <c r="S86" s="4"/>
-      <c r="T86" s="4"/>
-      <c r="U86" s="4"/>
-      <c r="V86" s="4"/>
-      <c r="W86" s="4"/>
-      <c r="X86" s="4"/>
-      <c r="Y86" s="4"/>
-      <c r="Z86" s="4"/>
-      <c r="AA86" s="4"/>
-      <c r="AB86" s="4"/>
-      <c r="AC86" s="4"/>
-      <c r="AD86" s="4"/>
-      <c r="AE86" s="4"/>
-      <c r="AF86" s="4"/>
-    </row>
-    <row r="87" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F87" s="11" t="s">
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="9"/>
+      <c r="U86" s="9"/>
+      <c r="V86" s="9"/>
+      <c r="W86" s="9"/>
+      <c r="X86" s="9"/>
+      <c r="Y86" s="9"/>
+      <c r="Z86" s="9"/>
+      <c r="AA86" s="9"/>
+      <c r="AB86" s="9"/>
+      <c r="AC86" s="9"/>
+      <c r="AD86" s="9"/>
+      <c r="AE86" s="9"/>
+      <c r="AF86" s="9"/>
+    </row>
+    <row r="87" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="G87" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H87" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
-      <c r="M87" s="9"/>
-      <c r="N87" s="9"/>
-      <c r="O87" s="9"/>
-      <c r="P87" s="9"/>
-      <c r="Q87" s="9"/>
-      <c r="R87" s="9"/>
-      <c r="S87" s="9"/>
-      <c r="T87" s="9"/>
-      <c r="U87" s="9"/>
-      <c r="V87" s="9"/>
-      <c r="W87" s="9"/>
-      <c r="X87" s="9"/>
-      <c r="Y87" s="9"/>
-      <c r="Z87" s="9"/>
-      <c r="AA87" s="9"/>
-      <c r="AB87" s="9"/>
-      <c r="AC87" s="9"/>
-      <c r="AD87" s="9"/>
-      <c r="AE87" s="9"/>
-      <c r="AF87" s="9"/>
-    </row>
-    <row r="88" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F88" s="8" t="s">
+      <c r="F87" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+      <c r="S87" s="4"/>
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+      <c r="V87" s="4"/>
+      <c r="W87" s="4"/>
+      <c r="X87" s="4"/>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="4"/>
+      <c r="AA87" s="4"/>
+      <c r="AB87" s="4"/>
+      <c r="AC87" s="4"/>
+      <c r="AD87" s="4"/>
+      <c r="AE87" s="4"/>
+      <c r="AF87" s="4"/>
+    </row>
+    <row r="88" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F88" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="G88" s="8" t="s">
+      <c r="G88" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H88" s="8" t="s">
+      <c r="H88" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
-      <c r="S88" s="4"/>
-      <c r="T88" s="4"/>
-      <c r="U88" s="4"/>
-      <c r="V88" s="4"/>
-      <c r="W88" s="4"/>
-      <c r="X88" s="4"/>
-      <c r="Y88" s="4"/>
-      <c r="Z88" s="4"/>
-      <c r="AA88" s="4"/>
-      <c r="AB88" s="4"/>
-      <c r="AC88" s="4"/>
-      <c r="AD88" s="4"/>
-      <c r="AE88" s="4"/>
-      <c r="AF88" s="4"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="9"/>
+      <c r="R88" s="9"/>
+      <c r="S88" s="9"/>
+      <c r="T88" s="9"/>
+      <c r="U88" s="9"/>
+      <c r="V88" s="9"/>
+      <c r="W88" s="9"/>
+      <c r="X88" s="9"/>
+      <c r="Y88" s="9"/>
+      <c r="Z88" s="9"/>
+      <c r="AA88" s="9"/>
+      <c r="AB88" s="9"/>
+      <c r="AC88" s="9"/>
+      <c r="AD88" s="9"/>
+      <c r="AE88" s="9"/>
+      <c r="AF88" s="9"/>
     </row>
     <row r="89" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9"/>
@@ -4854,10 +4852,10 @@
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F89" s="11" t="s">
         <v>140</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="G89" s="11" t="s">
         <v>9</v>
@@ -4896,13 +4894,13 @@
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F90" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F90" s="11" t="s">
-        <v>144</v>
-      </c>
       <c r="G90" s="11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H90" s="11" t="s">
         <v>10</v>
@@ -4932,100 +4930,100 @@
       <c r="AE90" s="9"/>
       <c r="AF90" s="9"/>
     </row>
-    <row r="91" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="10" t="s">
+    <row r="91" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F91" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F91" s="11" t="s">
+      <c r="G91" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+      <c r="S91" s="4"/>
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+      <c r="V91" s="4"/>
+      <c r="W91" s="4"/>
+      <c r="X91" s="4"/>
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="4"/>
+      <c r="AA91" s="4"/>
+      <c r="AB91" s="4"/>
+      <c r="AC91" s="4"/>
+      <c r="AD91" s="4"/>
+      <c r="AE91" s="4"/>
+      <c r="AF91" s="4"/>
+    </row>
+    <row r="92" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="G91" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H91" s="11" t="s">
+      <c r="F92" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="9"/>
-      <c r="O91" s="9"/>
-      <c r="P91" s="9"/>
-      <c r="Q91" s="9"/>
-      <c r="R91" s="9"/>
-      <c r="S91" s="9"/>
-      <c r="T91" s="9"/>
-      <c r="U91" s="9"/>
-      <c r="V91" s="9"/>
-      <c r="W91" s="9"/>
-      <c r="X91" s="9"/>
-      <c r="Y91" s="9"/>
-      <c r="Z91" s="9"/>
-      <c r="AA91" s="9"/>
-      <c r="AB91" s="9"/>
-      <c r="AC91" s="9"/>
-      <c r="AD91" s="9"/>
-      <c r="AE91" s="9"/>
-      <c r="AF91" s="9"/>
-    </row>
-    <row r="92" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H92" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
-      <c r="S92" s="4"/>
-      <c r="T92" s="4"/>
-      <c r="U92" s="4"/>
-      <c r="V92" s="4"/>
-      <c r="W92" s="4"/>
-      <c r="X92" s="4"/>
-      <c r="Y92" s="4"/>
-      <c r="Z92" s="4"/>
-      <c r="AA92" s="4"/>
-      <c r="AB92" s="4"/>
-      <c r="AC92" s="4"/>
-      <c r="AD92" s="4"/>
-      <c r="AE92" s="4"/>
-      <c r="AF92" s="4"/>
-    </row>
-    <row r="93" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="9"/>
+      <c r="Q92" s="9"/>
+      <c r="R92" s="9"/>
+      <c r="S92" s="9"/>
+      <c r="T92" s="9"/>
+      <c r="U92" s="9"/>
+      <c r="V92" s="9"/>
+      <c r="W92" s="9"/>
+      <c r="X92" s="9"/>
+      <c r="Y92" s="9"/>
+      <c r="Z92" s="9"/>
+      <c r="AA92" s="9"/>
+      <c r="AB92" s="9"/>
+      <c r="AC92" s="9"/>
+      <c r="AD92" s="9"/>
+      <c r="AE92" s="9"/>
+      <c r="AF92" s="9"/>
+    </row>
+    <row r="93" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F93" s="11" t="s">
         <v>149</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>148</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>9</v>
@@ -5058,19 +5056,19 @@
       <c r="AE93" s="9"/>
       <c r="AF93" s="9"/>
     </row>
-    <row r="94" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H94" s="11" t="s">
         <v>10</v>
@@ -5100,7 +5098,7 @@
       <c r="AE94" s="9"/>
       <c r="AF94" s="9"/>
     </row>
-    <row r="95" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -5112,7 +5110,7 @@
         <v>155</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H95" s="11" t="s">
         <v>10</v>
@@ -5148,10 +5146,10 @@
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>16</v>
@@ -5184,19 +5182,19 @@
       <c r="AE96" s="9"/>
       <c r="AF96" s="9"/>
     </row>
-    <row r="97" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H97" s="11" t="s">
         <v>10</v>
@@ -5226,100 +5224,100 @@
       <c r="AE97" s="9"/>
       <c r="AF97" s="9"/>
     </row>
-    <row r="98" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="G98" s="11" t="s">
+    <row r="98" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G98" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H98" s="11" t="s">
+      <c r="H98" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-      <c r="M98" s="9"/>
-      <c r="N98" s="9"/>
-      <c r="O98" s="9"/>
-      <c r="P98" s="9"/>
-      <c r="Q98" s="9"/>
-      <c r="R98" s="9"/>
-      <c r="S98" s="9"/>
-      <c r="T98" s="9"/>
-      <c r="U98" s="9"/>
-      <c r="V98" s="9"/>
-      <c r="W98" s="9"/>
-      <c r="X98" s="9"/>
-      <c r="Y98" s="9"/>
-      <c r="Z98" s="9"/>
-      <c r="AA98" s="9"/>
-      <c r="AB98" s="9"/>
-      <c r="AC98" s="9"/>
-      <c r="AD98" s="9"/>
-      <c r="AE98" s="9"/>
-      <c r="AF98" s="9"/>
-    </row>
-    <row r="99" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G99" s="8" t="s">
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+      <c r="V98" s="4"/>
+      <c r="W98" s="4"/>
+      <c r="X98" s="4"/>
+      <c r="Y98" s="4"/>
+      <c r="Z98" s="4"/>
+      <c r="AA98" s="4"/>
+      <c r="AB98" s="4"/>
+      <c r="AC98" s="4"/>
+      <c r="AD98" s="4"/>
+      <c r="AE98" s="4"/>
+      <c r="AF98" s="4"/>
+    </row>
+    <row r="99" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G99" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H99" s="8" t="s">
+      <c r="H99" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
-      <c r="P99" s="4"/>
-      <c r="Q99" s="4"/>
-      <c r="R99" s="4"/>
-      <c r="S99" s="4"/>
-      <c r="T99" s="4"/>
-      <c r="U99" s="4"/>
-      <c r="V99" s="4"/>
-      <c r="W99" s="4"/>
-      <c r="X99" s="4"/>
-      <c r="Y99" s="4"/>
-      <c r="Z99" s="4"/>
-      <c r="AA99" s="4"/>
-      <c r="AB99" s="4"/>
-      <c r="AC99" s="4"/>
-      <c r="AD99" s="4"/>
-      <c r="AE99" s="4"/>
-      <c r="AF99" s="4"/>
-    </row>
-    <row r="100" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="9"/>
+      <c r="S99" s="9"/>
+      <c r="T99" s="9"/>
+      <c r="U99" s="9"/>
+      <c r="V99" s="9"/>
+      <c r="W99" s="9"/>
+      <c r="X99" s="9"/>
+      <c r="Y99" s="9"/>
+      <c r="Z99" s="9"/>
+      <c r="AA99" s="9"/>
+      <c r="AB99" s="9"/>
+      <c r="AC99" s="9"/>
+      <c r="AD99" s="9"/>
+      <c r="AE99" s="9"/>
+      <c r="AF99" s="9"/>
+    </row>
+    <row r="100" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G100" s="11" t="s">
         <v>9</v>
@@ -5352,16 +5350,16 @@
       <c r="AE100" s="9"/>
       <c r="AF100" s="9"/>
     </row>
-    <row r="101" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>9</v>
@@ -5394,89 +5392,89 @@
       <c r="AE101" s="9"/>
       <c r="AF101" s="9"/>
     </row>
-    <row r="102" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="9"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="10" t="s">
+    <row r="102" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="4"/>
+      <c r="S102" s="4"/>
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="4"/>
+      <c r="W102" s="4"/>
+      <c r="X102" s="4"/>
+      <c r="Y102" s="4"/>
+      <c r="Z102" s="4"/>
+      <c r="AA102" s="4"/>
+      <c r="AB102" s="4"/>
+      <c r="AC102" s="4"/>
+      <c r="AD102" s="4"/>
+      <c r="AE102" s="4"/>
+      <c r="AF102" s="4"/>
+    </row>
+    <row r="103" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F103" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F102" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="G102" s="11" t="s">
+      <c r="G103" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H102" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I102" s="9"/>
-      <c r="J102" s="9"/>
-      <c r="K102" s="9"/>
-      <c r="L102" s="9"/>
-      <c r="M102" s="9"/>
-      <c r="N102" s="9"/>
-      <c r="O102" s="9"/>
-      <c r="P102" s="9"/>
-      <c r="Q102" s="9"/>
-      <c r="R102" s="9"/>
-      <c r="S102" s="9"/>
-      <c r="T102" s="9"/>
-      <c r="U102" s="9"/>
-      <c r="V102" s="9"/>
-      <c r="W102" s="9"/>
-      <c r="X102" s="9"/>
-      <c r="Y102" s="9"/>
-      <c r="Z102" s="9"/>
-      <c r="AA102" s="9"/>
-      <c r="AB102" s="9"/>
-      <c r="AC102" s="9"/>
-      <c r="AD102" s="9"/>
-      <c r="AE102" s="9"/>
-      <c r="AF102" s="9"/>
-    </row>
-    <row r="103" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H103" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
-      <c r="M103" s="4"/>
-      <c r="N103" s="4"/>
-      <c r="O103" s="4"/>
-      <c r="P103" s="4"/>
-      <c r="Q103" s="4"/>
-      <c r="R103" s="4"/>
-      <c r="S103" s="4"/>
-      <c r="T103" s="4"/>
-      <c r="U103" s="4"/>
-      <c r="V103" s="4"/>
-      <c r="W103" s="4"/>
-      <c r="X103" s="4"/>
-      <c r="Y103" s="4"/>
-      <c r="Z103" s="4"/>
-      <c r="AA103" s="4"/>
-      <c r="AB103" s="4"/>
-      <c r="AC103" s="4"/>
-      <c r="AD103" s="4"/>
-      <c r="AE103" s="4"/>
-      <c r="AF103" s="4"/>
+      <c r="H103" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="9"/>
+      <c r="S103" s="9"/>
+      <c r="T103" s="9"/>
+      <c r="U103" s="9"/>
+      <c r="V103" s="9"/>
+      <c r="W103" s="9"/>
+      <c r="X103" s="9"/>
+      <c r="Y103" s="9"/>
+      <c r="Z103" s="9"/>
+      <c r="AA103" s="9"/>
+      <c r="AB103" s="9"/>
+      <c r="AC103" s="9"/>
+      <c r="AD103" s="9"/>
+      <c r="AE103" s="9"/>
+      <c r="AF103" s="9"/>
     </row>
     <row r="104" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
@@ -5484,16 +5482,16 @@
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5525,16 +5523,16 @@
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
-      <c r="E105" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G105" s="11" t="s">
+      <c r="E105" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G105" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H105" s="11" t="s">
+      <c r="H105" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I105" s="9"/>
@@ -5567,16 +5565,16 @@
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
-      <c r="E106" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G106" s="8" t="s">
+      <c r="E106" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G106" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H106" s="8" t="s">
+      <c r="H106" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I106" s="9"/>
@@ -5610,10 +5608,10 @@
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>9</v>
@@ -5652,10 +5650,10 @@
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>9</v>
@@ -5694,13 +5692,13 @@
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H109" s="11" t="s">
         <v>10</v>
@@ -5736,13 +5734,13 @@
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H110" s="11" t="s">
         <v>10</v>
@@ -5778,10 +5776,10 @@
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>16</v>
@@ -5820,13 +5818,13 @@
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H112" s="11" t="s">
         <v>10</v>
@@ -5862,10 +5860,10 @@
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>9</v>
@@ -5904,10 +5902,10 @@
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F114" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="F114" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>9</v>
@@ -5946,10 +5944,10 @@
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="G115" s="11" t="s">
         <v>9</v>
@@ -5988,10 +5986,10 @@
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>9</v>
@@ -6030,10 +6028,10 @@
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>9</v>
@@ -6072,10 +6070,10 @@
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>9</v>
@@ -6114,13 +6112,13 @@
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H119" s="11" t="s">
         <v>10</v>
@@ -6155,16 +6153,16 @@
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
-      <c r="E120" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="F120" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="G120" s="11" t="s">
+      <c r="E120" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G120" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H120" s="11" t="s">
+      <c r="H120" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I120" s="9"/>
@@ -6192,22 +6190,22 @@
       <c r="AE120" s="9"/>
       <c r="AF120" s="9"/>
     </row>
-    <row r="121" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
-      <c r="E121" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="G121" s="8" t="s">
+      <c r="E121" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="G121" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H121" s="8" t="s">
-        <v>256</v>
+      <c r="H121" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -6240,16 +6238,16 @@
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F122" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="F122" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -6276,16 +6274,16 @@
       <c r="AE122" s="9"/>
       <c r="AF122" s="9"/>
     </row>
-    <row r="123" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>16</v>
@@ -6318,16 +6316,16 @@
       <c r="AE123" s="9"/>
       <c r="AF123" s="9"/>
     </row>
-    <row r="124" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G124" s="11" t="s">
         <v>16</v>
@@ -6360,61 +6358,61 @@
       <c r="AE124" s="9"/>
       <c r="AF124" s="9"/>
     </row>
-    <row r="125" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="9"/>
-      <c r="B125" s="9"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="F125" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="G125" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H125" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I125" s="9"/>
-      <c r="J125" s="9"/>
-      <c r="K125" s="9"/>
-      <c r="L125" s="9"/>
-      <c r="M125" s="9"/>
-      <c r="N125" s="9"/>
-      <c r="O125" s="9"/>
-      <c r="P125" s="9"/>
-      <c r="Q125" s="9"/>
-      <c r="R125" s="9"/>
-      <c r="S125" s="9"/>
-      <c r="T125" s="9"/>
-      <c r="U125" s="9"/>
-      <c r="V125" s="9"/>
-      <c r="W125" s="9"/>
-      <c r="X125" s="9"/>
-      <c r="Y125" s="9"/>
-      <c r="Z125" s="9"/>
-      <c r="AA125" s="9"/>
-      <c r="AB125" s="9"/>
-      <c r="AC125" s="9"/>
-      <c r="AD125" s="9"/>
-      <c r="AE125" s="9"/>
-      <c r="AF125" s="9"/>
+    <row r="125" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
+      <c r="Q125" s="4"/>
+      <c r="R125" s="4"/>
+      <c r="S125" s="4"/>
+      <c r="T125" s="4"/>
+      <c r="U125" s="4"/>
+      <c r="V125" s="4"/>
+      <c r="W125" s="4"/>
+      <c r="X125" s="4"/>
+      <c r="Y125" s="4"/>
+      <c r="Z125" s="4"/>
+      <c r="AA125" s="4"/>
+      <c r="AB125" s="4"/>
+      <c r="AC125" s="4"/>
+      <c r="AD125" s="4"/>
+      <c r="AE125" s="4"/>
+      <c r="AF125" s="4"/>
     </row>
     <row r="126" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
-      <c r="E126" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
+      <c r="E126" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
@@ -6445,16 +6443,16 @@
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
-      <c r="E127" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G127" s="8" t="s">
+      <c r="E127" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G127" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H127" s="8" t="s">
+      <c r="H127" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I127" s="4"/>
@@ -6488,10 +6486,10 @@
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="10" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>16</v>
@@ -6530,10 +6528,10 @@
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>217</v>
+        <v>270</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>16</v>
@@ -6572,13 +6570,13 @@
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H130" s="11" t="s">
         <v>10</v>
@@ -6614,10 +6612,10 @@
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="10" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>17</v>
@@ -6656,10 +6654,10 @@
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="10" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>17</v>
@@ -6692,19 +6690,19 @@
       <c r="AE132" s="4"/>
       <c r="AF132" s="4"/>
     </row>
-    <row r="133" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="10" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H133" s="11" t="s">
         <v>10</v>
@@ -6734,21 +6732,21 @@
       <c r="AE133" s="4"/>
       <c r="AF133" s="4"/>
     </row>
-    <row r="134" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
-      <c r="E134" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F134" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="G134" s="11" t="s">
+      <c r="E134" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G134" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H134" s="11" t="s">
+      <c r="H134" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I134" s="4"/>
@@ -6776,21 +6774,21 @@
       <c r="AE134" s="4"/>
       <c r="AF134" s="4"/>
     </row>
-    <row r="135" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
-      <c r="E135" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="F135" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="G135" s="8" t="s">
+      <c r="E135" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G135" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H135" s="8" t="s">
+      <c r="H135" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I135" s="4"/>
@@ -6824,10 +6822,10 @@
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="10" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G136" s="11" t="s">
         <v>16</v>
@@ -6860,16 +6858,16 @@
       <c r="AE136" s="4"/>
       <c r="AF136" s="4"/>
     </row>
-    <row r="137" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="10" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>16</v>
@@ -6902,16 +6900,16 @@
       <c r="AE137" s="4"/>
       <c r="AF137" s="4"/>
     </row>
-    <row r="138" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="10" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F138" s="11" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="G138" s="11" t="s">
         <v>16</v>
@@ -6944,16 +6942,16 @@
       <c r="AE138" s="4"/>
       <c r="AF138" s="4"/>
     </row>
-    <row r="139" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="10" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>16</v>
@@ -6992,10 +6990,10 @@
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="10" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="G140" s="11" t="s">
         <v>16</v>
@@ -7028,16 +7026,16 @@
       <c r="AE140" s="4"/>
       <c r="AF140" s="4"/>
     </row>
-    <row r="141" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="10" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G141" s="11" t="s">
         <v>16</v>
@@ -7070,23 +7068,15 @@
       <c r="AE141" s="4"/>
       <c r="AF141" s="4"/>
     </row>
-    <row r="142" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
-      <c r="E142" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="F142" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="G142" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H142" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
@@ -7146,13 +7136,15 @@
       <c r="AE143" s="4"/>
       <c r="AF143" s="4"/>
     </row>
-    <row r="144" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
+      <c r="E144" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F144" s="7"/>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
@@ -7186,7 +7178,7 @@
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F145" s="7"/>
       <c r="G145" s="4"/>
@@ -7222,7 +7214,7 @@
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F146" s="7"/>
       <c r="G146" s="4"/>
@@ -7258,7 +7250,7 @@
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F147" s="7"/>
       <c r="G147" s="4"/>
@@ -7288,15 +7280,13 @@
       <c r="AE147" s="4"/>
       <c r="AF147" s="4"/>
     </row>
-    <row r="148" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F148" s="7"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
@@ -10554,40 +10544,6 @@
       <c r="AE243" s="4"/>
       <c r="AF243" s="4"/>
     </row>
-    <row r="244" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A244" s="4"/>
-      <c r="B244" s="4"/>
-      <c r="C244" s="4"/>
-      <c r="D244" s="4"/>
-      <c r="E244" s="4"/>
-      <c r="F244" s="4"/>
-      <c r="G244" s="4"/>
-      <c r="H244" s="4"/>
-      <c r="I244" s="4"/>
-      <c r="J244" s="4"/>
-      <c r="K244" s="4"/>
-      <c r="L244" s="4"/>
-      <c r="M244" s="4"/>
-      <c r="N244" s="4"/>
-      <c r="O244" s="4"/>
-      <c r="P244" s="4"/>
-      <c r="Q244" s="4"/>
-      <c r="R244" s="4"/>
-      <c r="S244" s="4"/>
-      <c r="T244" s="4"/>
-      <c r="U244" s="4"/>
-      <c r="V244" s="4"/>
-      <c r="W244" s="4"/>
-      <c r="X244" s="4"/>
-      <c r="Y244" s="4"/>
-      <c r="Z244" s="4"/>
-      <c r="AA244" s="4"/>
-      <c r="AB244" s="4"/>
-      <c r="AC244" s="4"/>
-      <c r="AD244" s="4"/>
-      <c r="AE244" s="4"/>
-      <c r="AF244" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E8:E9"/>
@@ -10598,10 +10554,10 @@
   <hyperlinks>
     <hyperlink ref="E8" location="_ftn1" display="_ftn1"/>
     <hyperlink ref="F8" location="_ftn2" display="_ftn2"/>
-    <hyperlink ref="E148" location="_ftnref4" display="_ftnref4"/>
-    <hyperlink ref="E147" location="_ftnref3" display="_ftnref3"/>
-    <hyperlink ref="E146" location="_ftnref2" display="_ftnref2"/>
-    <hyperlink ref="E145" location="_ftnref1" display="_ftnref1"/>
+    <hyperlink ref="E147" location="_ftnref4" display="_ftnref4"/>
+    <hyperlink ref="E146" location="_ftnref3" display="_ftnref3"/>
+    <hyperlink ref="E145" location="_ftnref2" display="_ftnref2"/>
+    <hyperlink ref="E144" location="_ftnref1" display="_ftnref1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>

--- a/Requerimientos funcionales/Requerimientos Funcionales.xlsx
+++ b/Requerimientos funcionales/Requerimientos Funcionales.xlsx
@@ -10,10 +10,10 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_ftn1" localSheetId="0">Hoja1!$B$125</definedName>
-    <definedName name="_ftn2" localSheetId="0">Hoja1!$B$126</definedName>
-    <definedName name="_ftn3" localSheetId="0">Hoja1!$B$133</definedName>
-    <definedName name="_ftn4" localSheetId="0">Hoja1!$B$134</definedName>
+    <definedName name="_ftn1" localSheetId="0">Hoja1!$B$147</definedName>
+    <definedName name="_ftn2" localSheetId="0">Hoja1!$B$148</definedName>
+    <definedName name="_ftn3" localSheetId="0">Hoja1!$B$155</definedName>
+    <definedName name="_ftn4" localSheetId="0">Hoja1!$B$157</definedName>
     <definedName name="_ftnref1" localSheetId="0">Hoja1!$B$7</definedName>
     <definedName name="_ftnref2" localSheetId="0">Hoja1!$C$7</definedName>
   </definedNames>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="317">
   <si>
     <t>Especificación de Requerimientos Funcionales</t>
   </si>
@@ -210,9 +210,6 @@
     <t>RF-CP 3.3</t>
   </si>
   <si>
-    <t>RF-CP 3.4</t>
-  </si>
-  <si>
     <t>RF- CP 4</t>
   </si>
   <si>
@@ -264,9 +261,6 @@
     <t>Ingresar la cantidad del producto</t>
   </si>
   <si>
-    <t>RF-CP 3.5</t>
-  </si>
-  <si>
     <t>Ingresar el precio unitario del costo del producto</t>
   </si>
   <si>
@@ -315,9 +309,6 @@
     <t>RF- EP 7.4</t>
   </si>
   <si>
-    <t>Interesa saber la cantidad de producto pedido y el precio de este</t>
-  </si>
-  <si>
     <t>RF- EP 7.5</t>
   </si>
   <si>
@@ -429,9 +420,6 @@
     <t>El transporte del pedido debe agregarse según el tipo de proveedor, ya sea por encomienda o personalmente</t>
   </si>
   <si>
-    <t xml:space="preserve"> Se debe hacer un recordatorio de pago, para realizarlo en el respectivo banco</t>
-  </si>
-  <si>
     <t>RF- EP 11.3</t>
   </si>
   <si>
@@ -486,9 +474,6 @@
     <t xml:space="preserve">Se debe agregar el nombre del cliente </t>
   </si>
   <si>
-    <t>Validación descuento de la compra</t>
-  </si>
-  <si>
     <t>RF- VF 15</t>
   </si>
   <si>
@@ -501,9 +486,6 @@
     <t>Verificación de tipo de pago (Efectivo o Tarjeta)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Antes de efectuar la venta, se debe validar que la compra sea en efectivo o con tarjeta, esto para efectos de descuentos</t>
-  </si>
-  <si>
     <t>RF- VF 15.2</t>
   </si>
   <si>
@@ -519,9 +501,6 @@
     <t>RF- VF 15.4</t>
   </si>
   <si>
-    <t>Mostrar cuál es la cantidad límite de las ofertas de un producto</t>
-  </si>
-  <si>
     <t>RF- VF 15.5</t>
   </si>
   <si>
@@ -546,9 +525,6 @@
     <t>Si es con tarjeta no se le aplicará descuento si se trata de una oferta</t>
   </si>
   <si>
-    <t>Si la factura es al mayoreo automáticamente se le asigna el descuento al total de la compra</t>
-  </si>
-  <si>
     <t>Control de productos vendidos por factura</t>
   </si>
   <si>
@@ -774,9 +750,6 @@
     <t>RF- CP 4.3</t>
   </si>
   <si>
-    <t>Se debe generar una notificación cuando haya faltante de algún producto, la cantidad mínima varía por producto</t>
-  </si>
-  <si>
     <t>RF- CP 5.2.1</t>
   </si>
   <si>
@@ -828,9 +801,6 @@
     <t>Especificar si el producto se encuentra en fase de prueba en caso de que sea nuevo en el mercado</t>
   </si>
   <si>
-    <t>RF-CP 3.6</t>
-  </si>
-  <si>
     <t>Tener registrado las fechas de compras generadas por estos clientes para futuros pedidos en ciertas épocas</t>
   </si>
   <si>
@@ -871,6 +841,174 @@
   </si>
   <si>
     <t>Ingresar la cédula del cliente con un formato de 9 dígitos</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar un mensaje que indique que los datos se han ingresado correctamente</t>
+  </si>
+  <si>
+    <t>RF-GU 1.10</t>
+  </si>
+  <si>
+    <t>El sistema debe indicar que la sesión ha expirado</t>
+  </si>
+  <si>
+    <t>El sistema debe indicar que se ha iniciado sesión correctamente</t>
+  </si>
+  <si>
+    <t>RF-GU 2.4</t>
+  </si>
+  <si>
+    <t>RF-GU 2.4.1</t>
+  </si>
+  <si>
+    <t>El sistema debe indicar que se han insertado los datos del producto de manera correcta</t>
+  </si>
+  <si>
+    <t>RF-CP 3.2.2</t>
+  </si>
+  <si>
+    <t>RF-CP 3.2.1</t>
+  </si>
+  <si>
+    <t>RF-CP 3.2.3</t>
+  </si>
+  <si>
+    <t>RF-CP 3.2.4</t>
+  </si>
+  <si>
+    <t>RF-CP 3.2.5</t>
+  </si>
+  <si>
+    <t>RF-CP 3.2.6</t>
+  </si>
+  <si>
+    <t>RF-CP 3.2.7</t>
+  </si>
+  <si>
+    <t>El sistema debe indicar que se han insertado los datos de la categoría de manera correcta</t>
+  </si>
+  <si>
+    <t>RF-CP 3.2.8</t>
+  </si>
+  <si>
+    <t>El sistema debe generar una notificación cuando haya faltante de algún producto, la cantidad mínima varía por producto</t>
+  </si>
+  <si>
+    <t>RF- CP 5.2.2</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar un mensaje indicando el monto que se le asigna al producto por categoría</t>
+  </si>
+  <si>
+    <t>RF- CP 5.1.1</t>
+  </si>
+  <si>
+    <t>El sistema hace el cálculo automáticamente</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar el monto del descuento asignado.</t>
+  </si>
+  <si>
+    <t>Se debe registrar en el sistema la cantidad de producto pedido y el precio de este</t>
+  </si>
+  <si>
+    <t>RF- EP 7.5.1</t>
+  </si>
+  <si>
+    <t>El sistema muestra un mensaje con el estimado del monto total</t>
+  </si>
+  <si>
+    <t>RF- EP 8.3</t>
+  </si>
+  <si>
+    <t>El sistema debe verificar que los datos del proveedor coinciden con los del pedido.</t>
+  </si>
+  <si>
+    <t>RF- EP 9.2</t>
+  </si>
+  <si>
+    <t>El sistema registra la fecha de los pedidos para un mayor control</t>
+  </si>
+  <si>
+    <t>RF- EP 10.1.1</t>
+  </si>
+  <si>
+    <t>El sistema muestra un mensaje indicando que se ha seleccionado la cantidad de productos correcta</t>
+  </si>
+  <si>
+    <t>RF- EP 10.2.1</t>
+  </si>
+  <si>
+    <t>El sistema controla los datos del productos y muestra al usuario cuándo éstos lo son</t>
+  </si>
+  <si>
+    <t>RF- EP 11.1.1</t>
+  </si>
+  <si>
+    <t>El sistema muestra el monto total del pedido.</t>
+  </si>
+  <si>
+    <t>El sistema debe hacer un recordatorio de pago, para realizarlo en el respectivo banco</t>
+  </si>
+  <si>
+    <t>RF- EP 12.6</t>
+  </si>
+  <si>
+    <t>RF- VF 13.3</t>
+  </si>
+  <si>
+    <t>El sistema verifica que los datos sean correctos</t>
+  </si>
+  <si>
+    <t>RF- VF 14.4</t>
+  </si>
+  <si>
+    <t>RF- VF 15.1.1</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar que se ha validado correctamente el tipo de descuento que se le aplica a la factura</t>
+  </si>
+  <si>
+    <t>Validación descuento de la venta</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar cuál es la cantidad límite de las ofertas de un producto</t>
+  </si>
+  <si>
+    <t>RF- VF 15.5.1</t>
+  </si>
+  <si>
+    <t>Si la factura es al mayoreo automáticamente se le asigna el descuento al total de la venta</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar el monto del descuento asignado al total de la venta</t>
+  </si>
+  <si>
+    <t>Antes de efectuar la venta, se debe validar que la compra sea en efectivo o con tarjeta, esto para efectos de descuentos</t>
+  </si>
+  <si>
+    <t>RF- VF 16.4</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar un mensaje indicando el monto del descuento o de lo contrario, si no se le ha aplicado ningún tipo de descuento a la venta</t>
+  </si>
+  <si>
+    <t>RF- VF 17.1.1</t>
+  </si>
+  <si>
+    <t>Mostrar un mensaje de error, si hay productos con código repetido</t>
+  </si>
+  <si>
+    <t>RF- VF 17.2.1</t>
+  </si>
+  <si>
+    <t>En caso de faltante, el sistema debe indicar mediante un mensaje que el producto no se encuentra en stock</t>
+  </si>
+  <si>
+    <t>RF- GC 20.8</t>
+  </si>
+  <si>
+    <t>El sistema debe indicar que los datos se han ingresado correctamente</t>
   </si>
 </sst>
 </file>
@@ -1383,10 +1521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF243"/>
+  <dimension ref="A1:AF266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F141" sqref="F141"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F159" sqref="F159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,7 +1541,7 @@
     <row r="2" spans="1:32" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:32" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:32" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1641,7 +1779,7 @@
         <v>21</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>9</v>
@@ -1683,7 +1821,7 @@
         <v>22</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>16</v>
@@ -1725,7 +1863,7 @@
         <v>23</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>9</v>
@@ -1767,7 +1905,7 @@
         <v>24</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>9</v>
@@ -1932,7 +2070,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="10" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>30</v>
@@ -1974,10 +2112,10 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="10" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>17</v>
@@ -2010,100 +2148,100 @@
       <c r="AE20" s="9"/>
       <c r="AF20" s="9"/>
     </row>
-    <row r="21" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="13" t="s">
+    <row r="21" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+    </row>
+    <row r="22" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-    </row>
-    <row r="22" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-    </row>
-    <row r="23" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+    </row>
+    <row r="23" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="10" t="s">
-        <v>263</v>
+        <v>33</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>229</v>
+        <v>34</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>9</v>
@@ -2136,16 +2274,16 @@
       <c r="AE23" s="9"/>
       <c r="AF23" s="9"/>
     </row>
-    <row r="24" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="10" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>9</v>
@@ -2184,10 +2322,10 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="10" t="s">
-        <v>35</v>
+        <v>254</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>9</v>
@@ -2226,16 +2364,16 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2262,141 +2400,145 @@
       <c r="AE26" s="9"/>
       <c r="AF26" s="9"/>
     </row>
-    <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-    </row>
-    <row r="28" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-    </row>
-    <row r="29" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+    <row r="27" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+    </row>
+    <row r="28" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+    </row>
+    <row r="29" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="10" t="s">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
+      <c r="H29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
     </row>
     <row r="30" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -2422,22 +2564,22 @@
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
     </row>
-    <row r="31" spans="1:32" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G31" s="10" t="s">
+      <c r="E31" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="10" t="s">
-        <v>11</v>
+      <c r="H31" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -2470,10 +2612,10 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>232</v>
+        <v>42</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>9</v>
@@ -2506,22 +2648,22 @@
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
     </row>
-    <row r="33" spans="1:32" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -2548,21 +2690,21 @@
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
     </row>
-    <row r="34" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="10" t="s">
         <v>11</v>
       </c>
       <c r="I34" s="4"/>
@@ -2596,16 +2738,16 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>10</v>
+      <c r="H35" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -2632,21 +2774,21 @@
       <c r="AE35" s="4"/>
       <c r="AF35" s="4"/>
     </row>
-    <row r="36" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="10" t="s">
-        <v>49</v>
+        <v>225</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="G36" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I36" s="4"/>
@@ -2674,22 +2816,22 @@
       <c r="AE36" s="4"/>
       <c r="AF36" s="4"/>
     </row>
-    <row r="37" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>10</v>
+        <v>222</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -2722,16 +2864,16 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="10" t="s">
-        <v>68</v>
+        <v>269</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -2764,15 +2906,15 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="10" t="s">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="G39" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I39" s="4"/>
@@ -2806,13 +2948,17 @@
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="10" t="s">
-        <v>68</v>
+        <v>270</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+        <v>226</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -2838,19 +2984,19 @@
       <c r="AE40" s="4"/>
       <c r="AF40" s="4"/>
     </row>
-    <row r="41" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="10" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H41" s="11" t="s">
         <v>10</v>
@@ -2885,16 +3031,16 @@
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G42" s="8" t="s">
+      <c r="E42" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I42" s="4"/>
@@ -2922,100 +3068,96 @@
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
     </row>
-    <row r="43" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+    <row r="43" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
       <c r="E43" s="10" t="s">
-        <v>53</v>
+        <v>273</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="9"/>
-      <c r="AC43" s="9"/>
-      <c r="AD43" s="9"/>
-      <c r="AE43" s="9"/>
-      <c r="AF43" s="9"/>
-    </row>
-    <row r="44" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
+    </row>
+    <row r="44" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
       <c r="E44" s="10" t="s">
-        <v>55</v>
+        <v>274</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9"/>
-      <c r="AA44" s="9"/>
-      <c r="AB44" s="9"/>
-      <c r="AC44" s="9"/>
-      <c r="AD44" s="9"/>
-      <c r="AE44" s="9"/>
-      <c r="AF44" s="9"/>
-    </row>
-    <row r="45" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+    </row>
+    <row r="45" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="10" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>9</v>
@@ -3023,46 +3165,46 @@
       <c r="H45" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="9"/>
-      <c r="AB45" s="9"/>
-      <c r="AC45" s="9"/>
-      <c r="AD45" s="9"/>
-      <c r="AE45" s="9"/>
-      <c r="AF45" s="9"/>
-    </row>
-    <row r="46" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+    </row>
+    <row r="46" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="8" t="s">
+      <c r="E46" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I46" s="4"/>
@@ -3090,47 +3232,47 @@
       <c r="AE46" s="4"/>
       <c r="AF46" s="4"/>
     </row>
-    <row r="47" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="G47" s="11" t="s">
+    <row r="47" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H47" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="9"/>
-      <c r="AA47" s="9"/>
-      <c r="AB47" s="9"/>
-      <c r="AC47" s="9"/>
-      <c r="AD47" s="9"/>
-      <c r="AE47" s="9"/>
-      <c r="AF47" s="9"/>
+      <c r="H47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="4"/>
+      <c r="AF47" s="4"/>
     </row>
     <row r="48" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
@@ -3138,16 +3280,16 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3174,22 +3316,22 @@
       <c r="AE48" s="9"/>
       <c r="AF48" s="9"/>
     </row>
-    <row r="49" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="10" t="s">
-        <v>239</v>
+        <v>54</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3216,21 +3358,21 @@
       <c r="AE49" s="9"/>
       <c r="AF49" s="9"/>
     </row>
-    <row r="50" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G50" s="8" t="s">
+      <c r="E50" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G50" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H50" s="8" t="s">
+      <c r="H50" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I50" s="9"/>
@@ -3258,64 +3400,64 @@
       <c r="AE50" s="9"/>
       <c r="AF50" s="9"/>
     </row>
-    <row r="51" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="9"/>
-      <c r="AA51" s="9"/>
-      <c r="AB51" s="9"/>
-      <c r="AC51" s="9"/>
-      <c r="AD51" s="9"/>
-      <c r="AE51" s="9"/>
-      <c r="AF51" s="9"/>
+    <row r="51" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4"/>
+      <c r="AE51" s="4"/>
+      <c r="AF51" s="4"/>
     </row>
     <row r="52" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
-      <c r="E52" s="14" t="s">
-        <v>72</v>
+      <c r="E52" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>63</v>
+        <v>256</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3342,22 +3484,22 @@
       <c r="AE52" s="9"/>
       <c r="AF52" s="9"/>
     </row>
-    <row r="53" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
-      <c r="E53" s="14" t="s">
-        <v>73</v>
+      <c r="E53" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>64</v>
+        <v>281</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3384,22 +3526,22 @@
       <c r="AE53" s="9"/>
       <c r="AF53" s="9"/>
     </row>
-    <row r="54" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
-      <c r="E54" s="14" t="s">
-        <v>74</v>
+      <c r="E54" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G54" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3426,16 +3568,16 @@
       <c r="AE54" s="9"/>
       <c r="AF54" s="9"/>
     </row>
-    <row r="55" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
-      <c r="E55" s="14" t="s">
-        <v>75</v>
+      <c r="E55" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>9</v>
@@ -3468,54 +3610,58 @@
       <c r="AE55" s="9"/>
       <c r="AF55" s="9"/>
     </row>
-    <row r="56" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
-      <c r="AA56" s="4"/>
-      <c r="AB56" s="4"/>
-      <c r="AC56" s="4"/>
-      <c r="AD56" s="4"/>
-      <c r="AE56" s="4"/>
-      <c r="AF56" s="4"/>
-    </row>
-    <row r="57" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+    <row r="56" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
+      <c r="AA56" s="9"/>
+      <c r="AB56" s="9"/>
+      <c r="AC56" s="9"/>
+      <c r="AD56" s="9"/>
+      <c r="AE56" s="9"/>
+      <c r="AF56" s="9"/>
+    </row>
+    <row r="57" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
       <c r="E57" s="13" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>9</v>
@@ -3523,83 +3669,83 @@
       <c r="H57" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
-      <c r="AA57" s="4"/>
-      <c r="AB57" s="4"/>
-      <c r="AC57" s="4"/>
-      <c r="AD57" s="4"/>
-      <c r="AE57" s="4"/>
-      <c r="AF57" s="4"/>
-    </row>
-    <row r="58" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G58" s="11" t="s">
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
+      <c r="AA57" s="9"/>
+      <c r="AB57" s="9"/>
+      <c r="AC57" s="9"/>
+      <c r="AD57" s="9"/>
+      <c r="AE57" s="9"/>
+      <c r="AF57" s="9"/>
+    </row>
+    <row r="58" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H58" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4"/>
-      <c r="AA58" s="4"/>
-      <c r="AB58" s="4"/>
-      <c r="AC58" s="4"/>
-      <c r="AD58" s="4"/>
-      <c r="AE58" s="4"/>
-      <c r="AF58" s="4"/>
-    </row>
-    <row r="59" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="10" t="s">
-        <v>82</v>
+      <c r="H58" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
+      <c r="AA58" s="9"/>
+      <c r="AB58" s="9"/>
+      <c r="AC58" s="9"/>
+      <c r="AD58" s="9"/>
+      <c r="AE58" s="9"/>
+      <c r="AF58" s="9"/>
+    </row>
+    <row r="59" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="G59" s="11" t="s">
         <v>9</v>
@@ -3607,83 +3753,83 @@
       <c r="H59" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
-      <c r="AA59" s="4"/>
-      <c r="AB59" s="4"/>
-      <c r="AC59" s="4"/>
-      <c r="AD59" s="4"/>
-      <c r="AE59" s="4"/>
-      <c r="AF59" s="4"/>
-    </row>
-    <row r="60" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="10" t="s">
-        <v>83</v>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="9"/>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
+      <c r="AA59" s="9"/>
+      <c r="AB59" s="9"/>
+      <c r="AC59" s="9"/>
+      <c r="AD59" s="9"/>
+      <c r="AE59" s="9"/>
+      <c r="AF59" s="9"/>
+    </row>
+    <row r="60" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H60" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4"/>
-      <c r="AA60" s="4"/>
-      <c r="AB60" s="4"/>
-      <c r="AC60" s="4"/>
-      <c r="AD60" s="4"/>
-      <c r="AE60" s="4"/>
-      <c r="AF60" s="4"/>
-    </row>
-    <row r="61" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="10" t="s">
-        <v>84</v>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
+      <c r="AA60" s="9"/>
+      <c r="AB60" s="9"/>
+      <c r="AC60" s="9"/>
+      <c r="AD60" s="9"/>
+      <c r="AE60" s="9"/>
+      <c r="AF60" s="9"/>
+    </row>
+    <row r="61" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="G61" s="11" t="s">
         <v>9</v>
@@ -3691,83 +3837,83 @@
       <c r="H61" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="4"/>
-      <c r="AA61" s="4"/>
-      <c r="AB61" s="4"/>
-      <c r="AC61" s="4"/>
-      <c r="AD61" s="4"/>
-      <c r="AE61" s="4"/>
-      <c r="AF61" s="4"/>
-    </row>
-    <row r="62" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="10" t="s">
-        <v>86</v>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
+      <c r="AA61" s="9"/>
+      <c r="AB61" s="9"/>
+      <c r="AC61" s="9"/>
+      <c r="AD61" s="9"/>
+      <c r="AE61" s="9"/>
+      <c r="AF61" s="9"/>
+    </row>
+    <row r="62" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>89</v>
+        <v>257</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
-      <c r="T62" s="4"/>
-      <c r="U62" s="4"/>
-      <c r="V62" s="4"/>
-      <c r="W62" s="4"/>
-      <c r="X62" s="4"/>
-      <c r="Y62" s="4"/>
-      <c r="Z62" s="4"/>
-      <c r="AA62" s="4"/>
-      <c r="AB62" s="4"/>
-      <c r="AC62" s="4"/>
-      <c r="AD62" s="4"/>
-      <c r="AE62" s="4"/>
-      <c r="AF62" s="4"/>
-    </row>
-    <row r="63" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="10" t="s">
-        <v>87</v>
+        <v>11</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
+      <c r="AA62" s="9"/>
+      <c r="AB62" s="9"/>
+      <c r="AC62" s="9"/>
+      <c r="AD62" s="9"/>
+      <c r="AE62" s="9"/>
+      <c r="AF62" s="9"/>
+    </row>
+    <row r="63" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>9</v>
@@ -3775,48 +3921,44 @@
       <c r="H63" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
-      <c r="W63" s="4"/>
-      <c r="X63" s="4"/>
-      <c r="Y63" s="4"/>
-      <c r="Z63" s="4"/>
-      <c r="AA63" s="4"/>
-      <c r="AB63" s="4"/>
-      <c r="AC63" s="4"/>
-      <c r="AD63" s="4"/>
-      <c r="AE63" s="4"/>
-      <c r="AF63" s="4"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="9"/>
+      <c r="AA63" s="9"/>
+      <c r="AB63" s="9"/>
+      <c r="AC63" s="9"/>
+      <c r="AD63" s="9"/>
+      <c r="AE63" s="9"/>
+      <c r="AF63" s="9"/>
     </row>
     <row r="64" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="E64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -3842,106 +3984,106 @@
       <c r="AE64" s="4"/>
       <c r="AF64" s="4"/>
     </row>
-    <row r="65" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
-      <c r="X65" s="9"/>
-      <c r="Y65" s="9"/>
-      <c r="Z65" s="9"/>
-      <c r="AA65" s="9"/>
-      <c r="AB65" s="9"/>
-      <c r="AC65" s="9"/>
-      <c r="AD65" s="9"/>
-      <c r="AE65" s="9"/>
-      <c r="AF65" s="9"/>
-    </row>
-    <row r="66" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
+    <row r="65" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+      <c r="AA65" s="4"/>
+      <c r="AB65" s="4"/>
+      <c r="AC65" s="4"/>
+      <c r="AD65" s="4"/>
+      <c r="AE65" s="4"/>
+      <c r="AF65" s="4"/>
+    </row>
+    <row r="66" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
       <c r="E66" s="10" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
-      <c r="W66" s="9"/>
-      <c r="X66" s="9"/>
-      <c r="Y66" s="9"/>
-      <c r="Z66" s="9"/>
-      <c r="AA66" s="9"/>
-      <c r="AB66" s="9"/>
-      <c r="AC66" s="9"/>
-      <c r="AD66" s="9"/>
-      <c r="AE66" s="9"/>
-      <c r="AF66" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
+      <c r="AA66" s="4"/>
+      <c r="AB66" s="4"/>
+      <c r="AC66" s="4"/>
+      <c r="AD66" s="4"/>
+      <c r="AE66" s="4"/>
+      <c r="AF66" s="4"/>
     </row>
     <row r="67" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>11</v>
+      <c r="E67" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -3968,63 +4110,63 @@
       <c r="AE67" s="4"/>
       <c r="AF67" s="4"/>
     </row>
-    <row r="68" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
+    <row r="68" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
       <c r="E68" s="10" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="9"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
-      <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="9"/>
-      <c r="Y68" s="9"/>
-      <c r="Z68" s="9"/>
-      <c r="AA68" s="9"/>
-      <c r="AB68" s="9"/>
-      <c r="AC68" s="9"/>
-      <c r="AD68" s="9"/>
-      <c r="AE68" s="9"/>
-      <c r="AF68" s="9"/>
-    </row>
-    <row r="69" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4"/>
+      <c r="AA68" s="4"/>
+      <c r="AB68" s="4"/>
+      <c r="AC68" s="4"/>
+      <c r="AD68" s="4"/>
+      <c r="AE68" s="4"/>
+      <c r="AF68" s="4"/>
+    </row>
+    <row r="69" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G69" s="8" t="s">
+      <c r="E69" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G69" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H69" s="8" t="s">
+      <c r="H69" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I69" s="4"/>
@@ -4052,16 +4194,16 @@
       <c r="AE69" s="4"/>
       <c r="AF69" s="4"/>
     </row>
-    <row r="70" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
+    <row r="70" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
       <c r="E70" s="10" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>9</v>
@@ -4069,88 +4211,88 @@
       <c r="H70" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="9"/>
-      <c r="S70" s="9"/>
-      <c r="T70" s="9"/>
-      <c r="U70" s="9"/>
-      <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
-      <c r="X70" s="9"/>
-      <c r="Y70" s="9"/>
-      <c r="Z70" s="9"/>
-      <c r="AA70" s="9"/>
-      <c r="AB70" s="9"/>
-      <c r="AC70" s="9"/>
-      <c r="AD70" s="9"/>
-      <c r="AE70" s="9"/>
-      <c r="AF70" s="9"/>
-    </row>
-    <row r="71" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+      <c r="AA70" s="4"/>
+      <c r="AB70" s="4"/>
+      <c r="AC70" s="4"/>
+      <c r="AD70" s="4"/>
+      <c r="AE70" s="4"/>
+      <c r="AF70" s="4"/>
+    </row>
+    <row r="71" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
       <c r="E71" s="10" t="s">
-        <v>103</v>
+        <v>284</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>105</v>
+        <v>285</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H71" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
-      <c r="W71" s="9"/>
-      <c r="X71" s="9"/>
-      <c r="Y71" s="9"/>
-      <c r="Z71" s="9"/>
-      <c r="AA71" s="9"/>
-      <c r="AB71" s="9"/>
-      <c r="AC71" s="9"/>
-      <c r="AD71" s="9"/>
-      <c r="AE71" s="9"/>
-      <c r="AF71" s="9"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+      <c r="AA71" s="4"/>
+      <c r="AB71" s="4"/>
+      <c r="AC71" s="4"/>
+      <c r="AD71" s="4"/>
+      <c r="AE71" s="4"/>
+      <c r="AF71" s="4"/>
     </row>
     <row r="72" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G72" s="8" t="s">
+      <c r="E72" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="G72" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H72" s="8" t="s">
+      <c r="H72" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I72" s="4"/>
@@ -4178,64 +4320,64 @@
       <c r="AE72" s="4"/>
       <c r="AF72" s="4"/>
     </row>
-    <row r="73" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="9"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="9"/>
-      <c r="S73" s="9"/>
-      <c r="T73" s="9"/>
-      <c r="U73" s="9"/>
-      <c r="V73" s="9"/>
-      <c r="W73" s="9"/>
-      <c r="X73" s="9"/>
-      <c r="Y73" s="9"/>
-      <c r="Z73" s="9"/>
-      <c r="AA73" s="9"/>
-      <c r="AB73" s="9"/>
-      <c r="AC73" s="9"/>
-      <c r="AD73" s="9"/>
-      <c r="AE73" s="9"/>
-      <c r="AF73" s="9"/>
-    </row>
-    <row r="74" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4"/>
+      <c r="AA73" s="4"/>
+      <c r="AB73" s="4"/>
+      <c r="AC73" s="4"/>
+      <c r="AD73" s="4"/>
+      <c r="AE73" s="4"/>
+      <c r="AF73" s="4"/>
+    </row>
+    <row r="74" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="10" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4262,22 +4404,22 @@
       <c r="AE74" s="9"/>
       <c r="AF74" s="9"/>
     </row>
-    <row r="75" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="10" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4310,16 +4452,16 @@
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="10" t="s">
-        <v>125</v>
+        <v>286</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>122</v>
+        <v>287</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4352,16 +4494,16 @@
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="13" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
@@ -4388,105 +4530,105 @@
       <c r="AE77" s="4"/>
       <c r="AF77" s="4"/>
     </row>
-    <row r="78" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
+    <row r="78" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
       <c r="E78" s="10" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
-      <c r="S78" s="4"/>
-      <c r="T78" s="4"/>
-      <c r="U78" s="4"/>
-      <c r="V78" s="4"/>
-      <c r="W78" s="4"/>
-      <c r="X78" s="4"/>
-      <c r="Y78" s="4"/>
-      <c r="Z78" s="4"/>
-      <c r="AA78" s="4"/>
-      <c r="AB78" s="4"/>
-      <c r="AC78" s="4"/>
-      <c r="AD78" s="4"/>
-      <c r="AE78" s="4"/>
-      <c r="AF78" s="4"/>
-    </row>
-    <row r="79" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
+      <c r="U78" s="9"/>
+      <c r="V78" s="9"/>
+      <c r="W78" s="9"/>
+      <c r="X78" s="9"/>
+      <c r="Y78" s="9"/>
+      <c r="Z78" s="9"/>
+      <c r="AA78" s="9"/>
+      <c r="AB78" s="9"/>
+      <c r="AC78" s="9"/>
+      <c r="AD78" s="9"/>
+      <c r="AE78" s="9"/>
+      <c r="AF78" s="9"/>
+    </row>
+    <row r="79" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
       <c r="E79" s="10" t="s">
-        <v>116</v>
+        <v>288</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>117</v>
+        <v>289</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
-      <c r="S79" s="4"/>
-      <c r="T79" s="4"/>
-      <c r="U79" s="4"/>
-      <c r="V79" s="4"/>
-      <c r="W79" s="4"/>
-      <c r="X79" s="4"/>
-      <c r="Y79" s="4"/>
-      <c r="Z79" s="4"/>
-      <c r="AA79" s="4"/>
-      <c r="AB79" s="4"/>
-      <c r="AC79" s="4"/>
-      <c r="AD79" s="4"/>
-      <c r="AE79" s="4"/>
-      <c r="AF79" s="4"/>
-    </row>
-    <row r="80" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
+      <c r="W79" s="9"/>
+      <c r="X79" s="9"/>
+      <c r="Y79" s="9"/>
+      <c r="Z79" s="9"/>
+      <c r="AA79" s="9"/>
+      <c r="AB79" s="9"/>
+      <c r="AC79" s="9"/>
+      <c r="AD79" s="9"/>
+      <c r="AE79" s="9"/>
+      <c r="AF79" s="9"/>
+    </row>
+    <row r="80" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G80" s="11" t="s">
+      <c r="E80" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G80" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H80" s="11" t="s">
+      <c r="H80" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I80" s="4"/>
@@ -4514,186 +4656,190 @@
       <c r="AE80" s="4"/>
       <c r="AF80" s="4"/>
     </row>
-    <row r="81" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
+    <row r="81" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
       <c r="E81" s="10" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
-      <c r="S81" s="4"/>
-      <c r="T81" s="4"/>
-      <c r="U81" s="4"/>
-      <c r="V81" s="4"/>
-      <c r="W81" s="4"/>
-      <c r="X81" s="4"/>
-      <c r="Y81" s="4"/>
-      <c r="Z81" s="4"/>
-      <c r="AA81" s="4"/>
-      <c r="AB81" s="4"/>
-      <c r="AC81" s="4"/>
-      <c r="AD81" s="4"/>
-      <c r="AE81" s="4"/>
-      <c r="AF81" s="4"/>
-    </row>
-    <row r="82" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
+      <c r="W81" s="9"/>
+      <c r="X81" s="9"/>
+      <c r="Y81" s="9"/>
+      <c r="Z81" s="9"/>
+      <c r="AA81" s="9"/>
+      <c r="AB81" s="9"/>
+      <c r="AC81" s="9"/>
+      <c r="AD81" s="9"/>
+      <c r="AE81" s="9"/>
+      <c r="AF81" s="9"/>
+    </row>
+    <row r="82" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
       <c r="E82" s="10" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>212</v>
+        <v>291</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H82" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-      <c r="S82" s="4"/>
-      <c r="T82" s="4"/>
-      <c r="U82" s="4"/>
-      <c r="V82" s="4"/>
-      <c r="W82" s="4"/>
-      <c r="X82" s="4"/>
-      <c r="Y82" s="4"/>
-      <c r="Z82" s="4"/>
-      <c r="AA82" s="4"/>
-      <c r="AB82" s="4"/>
-      <c r="AC82" s="4"/>
-      <c r="AD82" s="4"/>
-      <c r="AE82" s="4"/>
-      <c r="AF82" s="4"/>
-    </row>
-    <row r="83" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
-      <c r="S83" s="4"/>
-      <c r="T83" s="4"/>
-      <c r="U83" s="4"/>
-      <c r="V83" s="4"/>
-      <c r="W83" s="4"/>
-      <c r="X83" s="4"/>
-      <c r="Y83" s="4"/>
-      <c r="Z83" s="4"/>
-      <c r="AA83" s="4"/>
-      <c r="AB83" s="4"/>
-      <c r="AC83" s="4"/>
-      <c r="AD83" s="4"/>
-      <c r="AE83" s="4"/>
-      <c r="AF83" s="4"/>
-    </row>
-    <row r="84" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H84" s="8" t="s">
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
+      <c r="U82" s="9"/>
+      <c r="V82" s="9"/>
+      <c r="W82" s="9"/>
+      <c r="X82" s="9"/>
+      <c r="Y82" s="9"/>
+      <c r="Z82" s="9"/>
+      <c r="AA82" s="9"/>
+      <c r="AB82" s="9"/>
+      <c r="AC82" s="9"/>
+      <c r="AD82" s="9"/>
+      <c r="AE82" s="9"/>
+      <c r="AF82" s="9"/>
+    </row>
+    <row r="83" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
-      <c r="R84" s="4"/>
-      <c r="S84" s="4"/>
-      <c r="T84" s="4"/>
-      <c r="U84" s="4"/>
-      <c r="V84" s="4"/>
-      <c r="W84" s="4"/>
-      <c r="X84" s="4"/>
-      <c r="Y84" s="4"/>
-      <c r="Z84" s="4"/>
-      <c r="AA84" s="4"/>
-      <c r="AB84" s="4"/>
-      <c r="AC84" s="4"/>
-      <c r="AD84" s="4"/>
-      <c r="AE84" s="4"/>
-      <c r="AF84" s="4"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
+      <c r="U83" s="9"/>
+      <c r="V83" s="9"/>
+      <c r="W83" s="9"/>
+      <c r="X83" s="9"/>
+      <c r="Y83" s="9"/>
+      <c r="Z83" s="9"/>
+      <c r="AA83" s="9"/>
+      <c r="AB83" s="9"/>
+      <c r="AC83" s="9"/>
+      <c r="AD83" s="9"/>
+      <c r="AE83" s="9"/>
+      <c r="AF83" s="9"/>
+    </row>
+    <row r="84" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
+      <c r="U84" s="9"/>
+      <c r="V84" s="9"/>
+      <c r="W84" s="9"/>
+      <c r="X84" s="9"/>
+      <c r="Y84" s="9"/>
+      <c r="Z84" s="9"/>
+      <c r="AA84" s="9"/>
+      <c r="AB84" s="9"/>
+      <c r="AC84" s="9"/>
+      <c r="AD84" s="9"/>
+      <c r="AE84" s="9"/>
+      <c r="AF84" s="9"/>
     </row>
     <row r="85" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="G85" s="11" t="s">
+      <c r="E85" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G85" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H85" s="11" t="s">
-        <v>11</v>
+      <c r="H85" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
@@ -4726,13 +4872,13 @@
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="10" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H86" s="11" t="s">
         <v>11</v>
@@ -4762,58 +4908,58 @@
       <c r="AE86" s="9"/>
       <c r="AF86" s="9"/>
     </row>
-    <row r="87" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G87" s="8" t="s">
+    <row r="87" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="G87" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H87" s="8" t="s">
+      <c r="H87" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
-      <c r="S87" s="4"/>
-      <c r="T87" s="4"/>
-      <c r="U87" s="4"/>
-      <c r="V87" s="4"/>
-      <c r="W87" s="4"/>
-      <c r="X87" s="4"/>
-      <c r="Y87" s="4"/>
-      <c r="Z87" s="4"/>
-      <c r="AA87" s="4"/>
-      <c r="AB87" s="4"/>
-      <c r="AC87" s="4"/>
-      <c r="AD87" s="4"/>
-      <c r="AE87" s="4"/>
-      <c r="AF87" s="4"/>
-    </row>
-    <row r="88" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="9"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="9"/>
+      <c r="U87" s="9"/>
+      <c r="V87" s="9"/>
+      <c r="W87" s="9"/>
+      <c r="X87" s="9"/>
+      <c r="Y87" s="9"/>
+      <c r="Z87" s="9"/>
+      <c r="AA87" s="9"/>
+      <c r="AB87" s="9"/>
+      <c r="AC87" s="9"/>
+      <c r="AD87" s="9"/>
+      <c r="AE87" s="9"/>
+      <c r="AF87" s="9"/>
+    </row>
+    <row r="88" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="10" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="G88" s="11" t="s">
         <v>9</v>
@@ -4846,16 +4992,16 @@
       <c r="AE88" s="9"/>
       <c r="AF88" s="9"/>
     </row>
-    <row r="89" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="10" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>140</v>
+        <v>296</v>
       </c>
       <c r="G89" s="11" t="s">
         <v>9</v>
@@ -4888,19 +5034,19 @@
       <c r="AE89" s="9"/>
       <c r="AF89" s="9"/>
     </row>
-    <row r="90" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="10" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H90" s="11" t="s">
         <v>10</v>
@@ -4936,10 +5082,10 @@
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="13" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>9</v>
@@ -4972,16 +5118,16 @@
       <c r="AE91" s="4"/>
       <c r="AF91" s="4"/>
     </row>
-    <row r="92" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
+    <row r="92" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
       <c r="E92" s="10" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>9</v>
@@ -4989,41 +5135,41 @@
       <c r="H92" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="9"/>
-      <c r="O92" s="9"/>
-      <c r="P92" s="9"/>
-      <c r="Q92" s="9"/>
-      <c r="R92" s="9"/>
-      <c r="S92" s="9"/>
-      <c r="T92" s="9"/>
-      <c r="U92" s="9"/>
-      <c r="V92" s="9"/>
-      <c r="W92" s="9"/>
-      <c r="X92" s="9"/>
-      <c r="Y92" s="9"/>
-      <c r="Z92" s="9"/>
-      <c r="AA92" s="9"/>
-      <c r="AB92" s="9"/>
-      <c r="AC92" s="9"/>
-      <c r="AD92" s="9"/>
-      <c r="AE92" s="9"/>
-      <c r="AF92" s="9"/>
-    </row>
-    <row r="93" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4"/>
+      <c r="AA92" s="4"/>
+      <c r="AB92" s="4"/>
+      <c r="AC92" s="4"/>
+      <c r="AD92" s="4"/>
+      <c r="AE92" s="4"/>
+      <c r="AF92" s="4"/>
+    </row>
+    <row r="93" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
       <c r="E93" s="10" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>9</v>
@@ -5031,125 +5177,125 @@
       <c r="H93" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
-      <c r="M93" s="9"/>
-      <c r="N93" s="9"/>
-      <c r="O93" s="9"/>
-      <c r="P93" s="9"/>
-      <c r="Q93" s="9"/>
-      <c r="R93" s="9"/>
-      <c r="S93" s="9"/>
-      <c r="T93" s="9"/>
-      <c r="U93" s="9"/>
-      <c r="V93" s="9"/>
-      <c r="W93" s="9"/>
-      <c r="X93" s="9"/>
-      <c r="Y93" s="9"/>
-      <c r="Z93" s="9"/>
-      <c r="AA93" s="9"/>
-      <c r="AB93" s="9"/>
-      <c r="AC93" s="9"/>
-      <c r="AD93" s="9"/>
-      <c r="AE93" s="9"/>
-      <c r="AF93" s="9"/>
-    </row>
-    <row r="94" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="4"/>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="4"/>
+      <c r="AA93" s="4"/>
+      <c r="AB93" s="4"/>
+      <c r="AC93" s="4"/>
+      <c r="AD93" s="4"/>
+      <c r="AE93" s="4"/>
+      <c r="AF93" s="4"/>
+    </row>
+    <row r="94" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
       <c r="E94" s="10" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H94" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
-      <c r="K94" s="9"/>
-      <c r="L94" s="9"/>
-      <c r="M94" s="9"/>
-      <c r="N94" s="9"/>
-      <c r="O94" s="9"/>
-      <c r="P94" s="9"/>
-      <c r="Q94" s="9"/>
-      <c r="R94" s="9"/>
-      <c r="S94" s="9"/>
-      <c r="T94" s="9"/>
-      <c r="U94" s="9"/>
-      <c r="V94" s="9"/>
-      <c r="W94" s="9"/>
-      <c r="X94" s="9"/>
-      <c r="Y94" s="9"/>
-      <c r="Z94" s="9"/>
-      <c r="AA94" s="9"/>
-      <c r="AB94" s="9"/>
-      <c r="AC94" s="9"/>
-      <c r="AD94" s="9"/>
-      <c r="AE94" s="9"/>
-      <c r="AF94" s="9"/>
-    </row>
-    <row r="95" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="4"/>
+      <c r="W94" s="4"/>
+      <c r="X94" s="4"/>
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="4"/>
+      <c r="AA94" s="4"/>
+      <c r="AB94" s="4"/>
+      <c r="AC94" s="4"/>
+      <c r="AD94" s="4"/>
+      <c r="AE94" s="4"/>
+      <c r="AF94" s="4"/>
+    </row>
+    <row r="95" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
       <c r="E95" s="10" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H95" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
-      <c r="N95" s="9"/>
-      <c r="O95" s="9"/>
-      <c r="P95" s="9"/>
-      <c r="Q95" s="9"/>
-      <c r="R95" s="9"/>
-      <c r="S95" s="9"/>
-      <c r="T95" s="9"/>
-      <c r="U95" s="9"/>
-      <c r="V95" s="9"/>
-      <c r="W95" s="9"/>
-      <c r="X95" s="9"/>
-      <c r="Y95" s="9"/>
-      <c r="Z95" s="9"/>
-      <c r="AA95" s="9"/>
-      <c r="AB95" s="9"/>
-      <c r="AC95" s="9"/>
-      <c r="AD95" s="9"/>
-      <c r="AE95" s="9"/>
-      <c r="AF95" s="9"/>
-    </row>
-    <row r="96" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="4"/>
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="4"/>
+      <c r="AA95" s="4"/>
+      <c r="AB95" s="4"/>
+      <c r="AC95" s="4"/>
+      <c r="AD95" s="4"/>
+      <c r="AE95" s="4"/>
+      <c r="AF95" s="4"/>
+    </row>
+    <row r="96" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
       <c r="E96" s="10" t="s">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>16</v>
@@ -5157,41 +5303,41 @@
       <c r="H96" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
-      <c r="K96" s="9"/>
-      <c r="L96" s="9"/>
-      <c r="M96" s="9"/>
-      <c r="N96" s="9"/>
-      <c r="O96" s="9"/>
-      <c r="P96" s="9"/>
-      <c r="Q96" s="9"/>
-      <c r="R96" s="9"/>
-      <c r="S96" s="9"/>
-      <c r="T96" s="9"/>
-      <c r="U96" s="9"/>
-      <c r="V96" s="9"/>
-      <c r="W96" s="9"/>
-      <c r="X96" s="9"/>
-      <c r="Y96" s="9"/>
-      <c r="Z96" s="9"/>
-      <c r="AA96" s="9"/>
-      <c r="AB96" s="9"/>
-      <c r="AC96" s="9"/>
-      <c r="AD96" s="9"/>
-      <c r="AE96" s="9"/>
-      <c r="AF96" s="9"/>
-    </row>
-    <row r="97" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="4"/>
+      <c r="W96" s="4"/>
+      <c r="X96" s="4"/>
+      <c r="Y96" s="4"/>
+      <c r="Z96" s="4"/>
+      <c r="AA96" s="4"/>
+      <c r="AB96" s="4"/>
+      <c r="AC96" s="4"/>
+      <c r="AD96" s="4"/>
+      <c r="AE96" s="4"/>
+      <c r="AF96" s="4"/>
+    </row>
+    <row r="97" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
       <c r="E97" s="10" t="s">
-        <v>154</v>
+        <v>297</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="G97" s="11" t="s">
         <v>9</v>
@@ -5199,48 +5345,44 @@
       <c r="H97" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I97" s="9"/>
-      <c r="J97" s="9"/>
-      <c r="K97" s="9"/>
-      <c r="L97" s="9"/>
-      <c r="M97" s="9"/>
-      <c r="N97" s="9"/>
-      <c r="O97" s="9"/>
-      <c r="P97" s="9"/>
-      <c r="Q97" s="9"/>
-      <c r="R97" s="9"/>
-      <c r="S97" s="9"/>
-      <c r="T97" s="9"/>
-      <c r="U97" s="9"/>
-      <c r="V97" s="9"/>
-      <c r="W97" s="9"/>
-      <c r="X97" s="9"/>
-      <c r="Y97" s="9"/>
-      <c r="Z97" s="9"/>
-      <c r="AA97" s="9"/>
-      <c r="AB97" s="9"/>
-      <c r="AC97" s="9"/>
-      <c r="AD97" s="9"/>
-      <c r="AE97" s="9"/>
-      <c r="AF97" s="9"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="4"/>
+      <c r="X97" s="4"/>
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="4"/>
+      <c r="AA97" s="4"/>
+      <c r="AB97" s="4"/>
+      <c r="AC97" s="4"/>
+      <c r="AD97" s="4"/>
+      <c r="AE97" s="4"/>
+      <c r="AF97" s="4"/>
     </row>
     <row r="98" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H98" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="E98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
@@ -5266,106 +5408,106 @@
       <c r="AE98" s="4"/>
       <c r="AF98" s="4"/>
     </row>
-    <row r="99" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H99" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I99" s="9"/>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
-      <c r="L99" s="9"/>
-      <c r="M99" s="9"/>
-      <c r="N99" s="9"/>
-      <c r="O99" s="9"/>
-      <c r="P99" s="9"/>
-      <c r="Q99" s="9"/>
-      <c r="R99" s="9"/>
-      <c r="S99" s="9"/>
-      <c r="T99" s="9"/>
-      <c r="U99" s="9"/>
-      <c r="V99" s="9"/>
-      <c r="W99" s="9"/>
-      <c r="X99" s="9"/>
-      <c r="Y99" s="9"/>
-      <c r="Z99" s="9"/>
-      <c r="AA99" s="9"/>
-      <c r="AB99" s="9"/>
-      <c r="AC99" s="9"/>
-      <c r="AD99" s="9"/>
-      <c r="AE99" s="9"/>
-      <c r="AF99" s="9"/>
-    </row>
-    <row r="100" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
+    <row r="99" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="4"/>
+      <c r="W99" s="4"/>
+      <c r="X99" s="4"/>
+      <c r="Y99" s="4"/>
+      <c r="Z99" s="4"/>
+      <c r="AA99" s="4"/>
+      <c r="AB99" s="4"/>
+      <c r="AC99" s="4"/>
+      <c r="AD99" s="4"/>
+      <c r="AE99" s="4"/>
+      <c r="AF99" s="4"/>
+    </row>
+    <row r="100" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
       <c r="E100" s="10" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="G100" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I100" s="9"/>
-      <c r="J100" s="9"/>
-      <c r="K100" s="9"/>
-      <c r="L100" s="9"/>
-      <c r="M100" s="9"/>
-      <c r="N100" s="9"/>
-      <c r="O100" s="9"/>
-      <c r="P100" s="9"/>
-      <c r="Q100" s="9"/>
-      <c r="R100" s="9"/>
-      <c r="S100" s="9"/>
-      <c r="T100" s="9"/>
-      <c r="U100" s="9"/>
-      <c r="V100" s="9"/>
-      <c r="W100" s="9"/>
-      <c r="X100" s="9"/>
-      <c r="Y100" s="9"/>
-      <c r="Z100" s="9"/>
-      <c r="AA100" s="9"/>
-      <c r="AB100" s="9"/>
-      <c r="AC100" s="9"/>
-      <c r="AD100" s="9"/>
-      <c r="AE100" s="9"/>
-      <c r="AF100" s="9"/>
-    </row>
-    <row r="101" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
+      <c r="S100" s="4"/>
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+      <c r="V100" s="4"/>
+      <c r="W100" s="4"/>
+      <c r="X100" s="4"/>
+      <c r="Y100" s="4"/>
+      <c r="Z100" s="4"/>
+      <c r="AA100" s="4"/>
+      <c r="AB100" s="4"/>
+      <c r="AC100" s="4"/>
+      <c r="AD100" s="4"/>
+      <c r="AE100" s="4"/>
+      <c r="AF100" s="4"/>
+    </row>
+    <row r="101" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="10" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -5392,89 +5534,89 @@
       <c r="AE101" s="9"/>
       <c r="AF101" s="9"/>
     </row>
-    <row r="102" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G102" s="8" t="s">
+    <row r="102" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="G102" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H102" s="8" t="s">
+      <c r="H102" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="9"/>
+      <c r="Q102" s="9"/>
+      <c r="R102" s="9"/>
+      <c r="S102" s="9"/>
+      <c r="T102" s="9"/>
+      <c r="U102" s="9"/>
+      <c r="V102" s="9"/>
+      <c r="W102" s="9"/>
+      <c r="X102" s="9"/>
+      <c r="Y102" s="9"/>
+      <c r="Z102" s="9"/>
+      <c r="AA102" s="9"/>
+      <c r="AB102" s="9"/>
+      <c r="AC102" s="9"/>
+      <c r="AD102" s="9"/>
+      <c r="AE102" s="9"/>
+      <c r="AF102" s="9"/>
+    </row>
+    <row r="103" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H103" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4"/>
-      <c r="O102" s="4"/>
-      <c r="P102" s="4"/>
-      <c r="Q102" s="4"/>
-      <c r="R102" s="4"/>
-      <c r="S102" s="4"/>
-      <c r="T102" s="4"/>
-      <c r="U102" s="4"/>
-      <c r="V102" s="4"/>
-      <c r="W102" s="4"/>
-      <c r="X102" s="4"/>
-      <c r="Y102" s="4"/>
-      <c r="Z102" s="4"/>
-      <c r="AA102" s="4"/>
-      <c r="AB102" s="4"/>
-      <c r="AC102" s="4"/>
-      <c r="AD102" s="4"/>
-      <c r="AE102" s="4"/>
-      <c r="AF102" s="4"/>
-    </row>
-    <row r="103" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="9"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="G103" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H103" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I103" s="9"/>
-      <c r="J103" s="9"/>
-      <c r="K103" s="9"/>
-      <c r="L103" s="9"/>
-      <c r="M103" s="9"/>
-      <c r="N103" s="9"/>
-      <c r="O103" s="9"/>
-      <c r="P103" s="9"/>
-      <c r="Q103" s="9"/>
-      <c r="R103" s="9"/>
-      <c r="S103" s="9"/>
-      <c r="T103" s="9"/>
-      <c r="U103" s="9"/>
-      <c r="V103" s="9"/>
-      <c r="W103" s="9"/>
-      <c r="X103" s="9"/>
-      <c r="Y103" s="9"/>
-      <c r="Z103" s="9"/>
-      <c r="AA103" s="9"/>
-      <c r="AB103" s="9"/>
-      <c r="AC103" s="9"/>
-      <c r="AD103" s="9"/>
-      <c r="AE103" s="9"/>
-      <c r="AF103" s="9"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="4"/>
+      <c r="S103" s="4"/>
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="4"/>
+      <c r="W103" s="4"/>
+      <c r="X103" s="4"/>
+      <c r="Y103" s="4"/>
+      <c r="Z103" s="4"/>
+      <c r="AA103" s="4"/>
+      <c r="AB103" s="4"/>
+      <c r="AC103" s="4"/>
+      <c r="AD103" s="4"/>
+      <c r="AE103" s="4"/>
+      <c r="AF103" s="4"/>
     </row>
     <row r="104" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
@@ -5482,10 +5624,10 @@
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="10" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>9</v>
@@ -5523,16 +5665,16 @@
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
-      <c r="E105" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G105" s="8" t="s">
+      <c r="E105" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G105" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H105" s="8" t="s">
+      <c r="H105" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I105" s="9"/>
@@ -5566,13 +5708,13 @@
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="10" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H106" s="11" t="s">
         <v>10</v>
@@ -5602,16 +5744,16 @@
       <c r="AE106" s="9"/>
       <c r="AF106" s="9"/>
     </row>
-    <row r="107" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="10" t="s">
-        <v>174</v>
+        <v>300</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>9</v>
@@ -5644,64 +5786,64 @@
       <c r="AE107" s="9"/>
       <c r="AF107" s="9"/>
     </row>
-    <row r="108" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="9"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="F108" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="G108" s="11" t="s">
+    <row r="108" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="G108" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H108" s="11" t="s">
+      <c r="H108" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I108" s="9"/>
-      <c r="J108" s="9"/>
-      <c r="K108" s="9"/>
-      <c r="L108" s="9"/>
-      <c r="M108" s="9"/>
-      <c r="N108" s="9"/>
-      <c r="O108" s="9"/>
-      <c r="P108" s="9"/>
-      <c r="Q108" s="9"/>
-      <c r="R108" s="9"/>
-      <c r="S108" s="9"/>
-      <c r="T108" s="9"/>
-      <c r="U108" s="9"/>
-      <c r="V108" s="9"/>
-      <c r="W108" s="9"/>
-      <c r="X108" s="9"/>
-      <c r="Y108" s="9"/>
-      <c r="Z108" s="9"/>
-      <c r="AA108" s="9"/>
-      <c r="AB108" s="9"/>
-      <c r="AC108" s="9"/>
-      <c r="AD108" s="9"/>
-      <c r="AE108" s="9"/>
-      <c r="AF108" s="9"/>
-    </row>
-    <row r="109" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="4"/>
+      <c r="S108" s="4"/>
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
+      <c r="V108" s="4"/>
+      <c r="W108" s="4"/>
+      <c r="X108" s="4"/>
+      <c r="Y108" s="4"/>
+      <c r="Z108" s="4"/>
+      <c r="AA108" s="4"/>
+      <c r="AB108" s="4"/>
+      <c r="AC108" s="4"/>
+      <c r="AD108" s="4"/>
+      <c r="AE108" s="4"/>
+      <c r="AF108" s="4"/>
+    </row>
+    <row r="109" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="10" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5728,19 +5870,19 @@
       <c r="AE109" s="9"/>
       <c r="AF109" s="9"/>
     </row>
-    <row r="110" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="10" t="s">
-        <v>182</v>
+        <v>301</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>176</v>
+        <v>302</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H110" s="11" t="s">
         <v>10</v>
@@ -5776,13 +5918,13 @@
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="10" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H111" s="11" t="s">
         <v>10</v>
@@ -5812,19 +5954,19 @@
       <c r="AE111" s="9"/>
       <c r="AF111" s="9"/>
     </row>
-    <row r="112" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="10" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H112" s="11" t="s">
         <v>10</v>
@@ -5860,13 +6002,13 @@
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="10" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H113" s="11" t="s">
         <v>10</v>
@@ -5902,13 +6044,13 @@
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="10" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H114" s="11" t="s">
         <v>10</v>
@@ -5938,22 +6080,22 @@
       <c r="AE114" s="9"/>
       <c r="AF114" s="9"/>
     </row>
-    <row r="115" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="10" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>179</v>
+        <v>306</v>
       </c>
       <c r="G115" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5986,10 +6128,10 @@
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="10" t="s">
-        <v>193</v>
+        <v>305</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>188</v>
+        <v>307</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>9</v>
@@ -6022,58 +6164,58 @@
       <c r="AE116" s="9"/>
       <c r="AF116" s="9"/>
     </row>
-    <row r="117" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="9"/>
-      <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="F117" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="G117" s="11" t="s">
+    <row r="117" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G117" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H117" s="11" t="s">
+      <c r="H117" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I117" s="9"/>
-      <c r="J117" s="9"/>
-      <c r="K117" s="9"/>
-      <c r="L117" s="9"/>
-      <c r="M117" s="9"/>
-      <c r="N117" s="9"/>
-      <c r="O117" s="9"/>
-      <c r="P117" s="9"/>
-      <c r="Q117" s="9"/>
-      <c r="R117" s="9"/>
-      <c r="S117" s="9"/>
-      <c r="T117" s="9"/>
-      <c r="U117" s="9"/>
-      <c r="V117" s="9"/>
-      <c r="W117" s="9"/>
-      <c r="X117" s="9"/>
-      <c r="Y117" s="9"/>
-      <c r="Z117" s="9"/>
-      <c r="AA117" s="9"/>
-      <c r="AB117" s="9"/>
-      <c r="AC117" s="9"/>
-      <c r="AD117" s="9"/>
-      <c r="AE117" s="9"/>
-      <c r="AF117" s="9"/>
-    </row>
-    <row r="118" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4"/>
+      <c r="R117" s="4"/>
+      <c r="S117" s="4"/>
+      <c r="T117" s="4"/>
+      <c r="U117" s="4"/>
+      <c r="V117" s="4"/>
+      <c r="W117" s="4"/>
+      <c r="X117" s="4"/>
+      <c r="Y117" s="4"/>
+      <c r="Z117" s="4"/>
+      <c r="AA117" s="4"/>
+      <c r="AB117" s="4"/>
+      <c r="AC117" s="4"/>
+      <c r="AD117" s="4"/>
+      <c r="AE117" s="4"/>
+      <c r="AF117" s="4"/>
+    </row>
+    <row r="118" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="10" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>191</v>
+        <v>308</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>9</v>
@@ -6106,19 +6248,19 @@
       <c r="AE118" s="9"/>
       <c r="AF118" s="9"/>
     </row>
-    <row r="119" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="10" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H119" s="11" t="s">
         <v>10</v>
@@ -6153,16 +6295,16 @@
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
-      <c r="E120" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H120" s="8" t="s">
+      <c r="E120" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H120" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I120" s="9"/>
@@ -6196,13 +6338,13 @@
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="10" t="s">
-        <v>202</v>
+        <v>309</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>203</v>
+        <v>310</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H121" s="11" t="s">
         <v>10</v>
@@ -6232,61 +6374,61 @@
       <c r="AE121" s="9"/>
       <c r="AF121" s="9"/>
     </row>
-    <row r="122" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="9"/>
-      <c r="B122" s="9"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F122" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="G122" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H122" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I122" s="9"/>
-      <c r="J122" s="9"/>
-      <c r="K122" s="9"/>
-      <c r="L122" s="9"/>
-      <c r="M122" s="9"/>
-      <c r="N122" s="9"/>
-      <c r="O122" s="9"/>
-      <c r="P122" s="9"/>
-      <c r="Q122" s="9"/>
-      <c r="R122" s="9"/>
-      <c r="S122" s="9"/>
-      <c r="T122" s="9"/>
-      <c r="U122" s="9"/>
-      <c r="V122" s="9"/>
-      <c r="W122" s="9"/>
-      <c r="X122" s="9"/>
-      <c r="Y122" s="9"/>
-      <c r="Z122" s="9"/>
-      <c r="AA122" s="9"/>
-      <c r="AB122" s="9"/>
-      <c r="AC122" s="9"/>
-      <c r="AD122" s="9"/>
-      <c r="AE122" s="9"/>
-      <c r="AF122" s="9"/>
-    </row>
-    <row r="123" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+      <c r="R122" s="4"/>
+      <c r="S122" s="4"/>
+      <c r="T122" s="4"/>
+      <c r="U122" s="4"/>
+      <c r="V122" s="4"/>
+      <c r="W122" s="4"/>
+      <c r="X122" s="4"/>
+      <c r="Y122" s="4"/>
+      <c r="Z122" s="4"/>
+      <c r="AA122" s="4"/>
+      <c r="AB122" s="4"/>
+      <c r="AC122" s="4"/>
+      <c r="AD122" s="4"/>
+      <c r="AE122" s="4"/>
+      <c r="AF122" s="4"/>
+    </row>
+    <row r="123" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="10" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H123" s="11" t="s">
         <v>11</v>
@@ -6316,22 +6458,22 @@
       <c r="AE123" s="9"/>
       <c r="AF123" s="9"/>
     </row>
-    <row r="124" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="10" t="s">
-        <v>205</v>
+        <v>311</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>208</v>
+        <v>312</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -6358,264 +6500,268 @@
       <c r="AE124" s="9"/>
       <c r="AF124" s="9"/>
     </row>
-    <row r="125" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="4"/>
-      <c r="P125" s="4"/>
-      <c r="Q125" s="4"/>
-      <c r="R125" s="4"/>
-      <c r="S125" s="4"/>
-      <c r="T125" s="4"/>
-      <c r="U125" s="4"/>
-      <c r="V125" s="4"/>
-      <c r="W125" s="4"/>
-      <c r="X125" s="4"/>
-      <c r="Y125" s="4"/>
-      <c r="Z125" s="4"/>
-      <c r="AA125" s="4"/>
-      <c r="AB125" s="4"/>
-      <c r="AC125" s="4"/>
-      <c r="AD125" s="4"/>
-      <c r="AE125" s="4"/>
-      <c r="AF125" s="4"/>
-    </row>
-    <row r="126" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H126" s="8" t="s">
+    <row r="125" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="9"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H125" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="9"/>
+      <c r="O125" s="9"/>
+      <c r="P125" s="9"/>
+      <c r="Q125" s="9"/>
+      <c r="R125" s="9"/>
+      <c r="S125" s="9"/>
+      <c r="T125" s="9"/>
+      <c r="U125" s="9"/>
+      <c r="V125" s="9"/>
+      <c r="W125" s="9"/>
+      <c r="X125" s="9"/>
+      <c r="Y125" s="9"/>
+      <c r="Z125" s="9"/>
+      <c r="AA125" s="9"/>
+      <c r="AB125" s="9"/>
+      <c r="AC125" s="9"/>
+      <c r="AD125" s="9"/>
+      <c r="AE125" s="9"/>
+      <c r="AF125" s="9"/>
+    </row>
+    <row r="126" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="9"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H126" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
-      <c r="M126" s="4"/>
-      <c r="N126" s="4"/>
-      <c r="O126" s="4"/>
-      <c r="P126" s="4"/>
-      <c r="Q126" s="4"/>
-      <c r="R126" s="4"/>
-      <c r="S126" s="4"/>
-      <c r="T126" s="4"/>
-      <c r="U126" s="4"/>
-      <c r="V126" s="4"/>
-      <c r="W126" s="4"/>
-      <c r="X126" s="4"/>
-      <c r="Y126" s="4"/>
-      <c r="Z126" s="4"/>
-      <c r="AA126" s="4"/>
-      <c r="AB126" s="4"/>
-      <c r="AC126" s="4"/>
-      <c r="AD126" s="4"/>
-      <c r="AE126" s="4"/>
-      <c r="AF126" s="4"/>
-    </row>
-    <row r="127" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="F127" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="G127" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H127" s="11" t="s">
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="9"/>
+      <c r="O126" s="9"/>
+      <c r="P126" s="9"/>
+      <c r="Q126" s="9"/>
+      <c r="R126" s="9"/>
+      <c r="S126" s="9"/>
+      <c r="T126" s="9"/>
+      <c r="U126" s="9"/>
+      <c r="V126" s="9"/>
+      <c r="W126" s="9"/>
+      <c r="X126" s="9"/>
+      <c r="Y126" s="9"/>
+      <c r="Z126" s="9"/>
+      <c r="AA126" s="9"/>
+      <c r="AB126" s="9"/>
+      <c r="AC126" s="9"/>
+      <c r="AD126" s="9"/>
+      <c r="AE126" s="9"/>
+      <c r="AF126" s="9"/>
+    </row>
+    <row r="127" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="9"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H127" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-      <c r="M127" s="4"/>
-      <c r="N127" s="4"/>
-      <c r="O127" s="4"/>
-      <c r="P127" s="4"/>
-      <c r="Q127" s="4"/>
-      <c r="R127" s="4"/>
-      <c r="S127" s="4"/>
-      <c r="T127" s="4"/>
-      <c r="U127" s="4"/>
-      <c r="V127" s="4"/>
-      <c r="W127" s="4"/>
-      <c r="X127" s="4"/>
-      <c r="Y127" s="4"/>
-      <c r="Z127" s="4"/>
-      <c r="AA127" s="4"/>
-      <c r="AB127" s="4"/>
-      <c r="AC127" s="4"/>
-      <c r="AD127" s="4"/>
-      <c r="AE127" s="4"/>
-      <c r="AF127" s="4"/>
-    </row>
-    <row r="128" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="9"/>
+      <c r="O127" s="9"/>
+      <c r="P127" s="9"/>
+      <c r="Q127" s="9"/>
+      <c r="R127" s="9"/>
+      <c r="S127" s="9"/>
+      <c r="T127" s="9"/>
+      <c r="U127" s="9"/>
+      <c r="V127" s="9"/>
+      <c r="W127" s="9"/>
+      <c r="X127" s="9"/>
+      <c r="Y127" s="9"/>
+      <c r="Z127" s="9"/>
+      <c r="AA127" s="9"/>
+      <c r="AB127" s="9"/>
+      <c r="AC127" s="9"/>
+      <c r="AD127" s="9"/>
+      <c r="AE127" s="9"/>
+      <c r="AF127" s="9"/>
+    </row>
+    <row r="128" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="9"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
       <c r="E128" s="10" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>269</v>
+        <v>190</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H128" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
-      <c r="M128" s="4"/>
-      <c r="N128" s="4"/>
-      <c r="O128" s="4"/>
-      <c r="P128" s="4"/>
-      <c r="Q128" s="4"/>
-      <c r="R128" s="4"/>
-      <c r="S128" s="4"/>
-      <c r="T128" s="4"/>
-      <c r="U128" s="4"/>
-      <c r="V128" s="4"/>
-      <c r="W128" s="4"/>
-      <c r="X128" s="4"/>
-      <c r="Y128" s="4"/>
-      <c r="Z128" s="4"/>
-      <c r="AA128" s="4"/>
-      <c r="AB128" s="4"/>
-      <c r="AC128" s="4"/>
-      <c r="AD128" s="4"/>
-      <c r="AE128" s="4"/>
-      <c r="AF128" s="4"/>
-    </row>
-    <row r="129" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="9"/>
+      <c r="O128" s="9"/>
+      <c r="P128" s="9"/>
+      <c r="Q128" s="9"/>
+      <c r="R128" s="9"/>
+      <c r="S128" s="9"/>
+      <c r="T128" s="9"/>
+      <c r="U128" s="9"/>
+      <c r="V128" s="9"/>
+      <c r="W128" s="9"/>
+      <c r="X128" s="9"/>
+      <c r="Y128" s="9"/>
+      <c r="Z128" s="9"/>
+      <c r="AA128" s="9"/>
+      <c r="AB128" s="9"/>
+      <c r="AC128" s="9"/>
+      <c r="AD128" s="9"/>
+      <c r="AE128" s="9"/>
+      <c r="AF128" s="9"/>
+    </row>
+    <row r="129" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="9"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
       <c r="E129" s="10" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>270</v>
+        <v>191</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H129" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
-      <c r="M129" s="4"/>
-      <c r="N129" s="4"/>
-      <c r="O129" s="4"/>
-      <c r="P129" s="4"/>
-      <c r="Q129" s="4"/>
-      <c r="R129" s="4"/>
-      <c r="S129" s="4"/>
-      <c r="T129" s="4"/>
-      <c r="U129" s="4"/>
-      <c r="V129" s="4"/>
-      <c r="W129" s="4"/>
-      <c r="X129" s="4"/>
-      <c r="Y129" s="4"/>
-      <c r="Z129" s="4"/>
-      <c r="AA129" s="4"/>
-      <c r="AB129" s="4"/>
-      <c r="AC129" s="4"/>
-      <c r="AD129" s="4"/>
-      <c r="AE129" s="4"/>
-      <c r="AF129" s="4"/>
-    </row>
-    <row r="130" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="9"/>
+      <c r="O129" s="9"/>
+      <c r="P129" s="9"/>
+      <c r="Q129" s="9"/>
+      <c r="R129" s="9"/>
+      <c r="S129" s="9"/>
+      <c r="T129" s="9"/>
+      <c r="U129" s="9"/>
+      <c r="V129" s="9"/>
+      <c r="W129" s="9"/>
+      <c r="X129" s="9"/>
+      <c r="Y129" s="9"/>
+      <c r="Z129" s="9"/>
+      <c r="AA129" s="9"/>
+      <c r="AB129" s="9"/>
+      <c r="AC129" s="9"/>
+      <c r="AD129" s="9"/>
+      <c r="AE129" s="9"/>
+      <c r="AF129" s="9"/>
+    </row>
+    <row r="130" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="9"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
       <c r="E130" s="10" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H130" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
-      <c r="M130" s="4"/>
-      <c r="N130" s="4"/>
-      <c r="O130" s="4"/>
-      <c r="P130" s="4"/>
-      <c r="Q130" s="4"/>
-      <c r="R130" s="4"/>
-      <c r="S130" s="4"/>
-      <c r="T130" s="4"/>
-      <c r="U130" s="4"/>
-      <c r="V130" s="4"/>
-      <c r="W130" s="4"/>
-      <c r="X130" s="4"/>
-      <c r="Y130" s="4"/>
-      <c r="Z130" s="4"/>
-      <c r="AA130" s="4"/>
-      <c r="AB130" s="4"/>
-      <c r="AC130" s="4"/>
-      <c r="AD130" s="4"/>
-      <c r="AE130" s="4"/>
-      <c r="AF130" s="4"/>
-    </row>
-    <row r="131" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="9"/>
+      <c r="M130" s="9"/>
+      <c r="N130" s="9"/>
+      <c r="O130" s="9"/>
+      <c r="P130" s="9"/>
+      <c r="Q130" s="9"/>
+      <c r="R130" s="9"/>
+      <c r="S130" s="9"/>
+      <c r="T130" s="9"/>
+      <c r="U130" s="9"/>
+      <c r="V130" s="9"/>
+      <c r="W130" s="9"/>
+      <c r="X130" s="9"/>
+      <c r="Y130" s="9"/>
+      <c r="Z130" s="9"/>
+      <c r="AA130" s="9"/>
+      <c r="AB130" s="9"/>
+      <c r="AC130" s="9"/>
+      <c r="AD130" s="9"/>
+      <c r="AE130" s="9"/>
+      <c r="AF130" s="9"/>
+    </row>
+    <row r="131" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="9"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
       <c r="E131" s="10" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>17</v>
@@ -6623,83 +6769,83 @@
       <c r="H131" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
-      <c r="M131" s="4"/>
-      <c r="N131" s="4"/>
-      <c r="O131" s="4"/>
-      <c r="P131" s="4"/>
-      <c r="Q131" s="4"/>
-      <c r="R131" s="4"/>
-      <c r="S131" s="4"/>
-      <c r="T131" s="4"/>
-      <c r="U131" s="4"/>
-      <c r="V131" s="4"/>
-      <c r="W131" s="4"/>
-      <c r="X131" s="4"/>
-      <c r="Y131" s="4"/>
-      <c r="Z131" s="4"/>
-      <c r="AA131" s="4"/>
-      <c r="AB131" s="4"/>
-      <c r="AC131" s="4"/>
-      <c r="AD131" s="4"/>
-      <c r="AE131" s="4"/>
-      <c r="AF131" s="4"/>
-    </row>
-    <row r="132" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="9"/>
+      <c r="O131" s="9"/>
+      <c r="P131" s="9"/>
+      <c r="Q131" s="9"/>
+      <c r="R131" s="9"/>
+      <c r="S131" s="9"/>
+      <c r="T131" s="9"/>
+      <c r="U131" s="9"/>
+      <c r="V131" s="9"/>
+      <c r="W131" s="9"/>
+      <c r="X131" s="9"/>
+      <c r="Y131" s="9"/>
+      <c r="Z131" s="9"/>
+      <c r="AA131" s="9"/>
+      <c r="AB131" s="9"/>
+      <c r="AC131" s="9"/>
+      <c r="AD131" s="9"/>
+      <c r="AE131" s="9"/>
+      <c r="AF131" s="9"/>
+    </row>
+    <row r="132" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="9"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
       <c r="E132" s="10" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H132" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
-      <c r="M132" s="4"/>
-      <c r="N132" s="4"/>
-      <c r="O132" s="4"/>
-      <c r="P132" s="4"/>
-      <c r="Q132" s="4"/>
-      <c r="R132" s="4"/>
-      <c r="S132" s="4"/>
-      <c r="T132" s="4"/>
-      <c r="U132" s="4"/>
-      <c r="V132" s="4"/>
-      <c r="W132" s="4"/>
-      <c r="X132" s="4"/>
-      <c r="Y132" s="4"/>
-      <c r="Z132" s="4"/>
-      <c r="AA132" s="4"/>
-      <c r="AB132" s="4"/>
-      <c r="AC132" s="4"/>
-      <c r="AD132" s="4"/>
-      <c r="AE132" s="4"/>
-      <c r="AF132" s="4"/>
-    </row>
-    <row r="133" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="9"/>
+      <c r="O132" s="9"/>
+      <c r="P132" s="9"/>
+      <c r="Q132" s="9"/>
+      <c r="R132" s="9"/>
+      <c r="S132" s="9"/>
+      <c r="T132" s="9"/>
+      <c r="U132" s="9"/>
+      <c r="V132" s="9"/>
+      <c r="W132" s="9"/>
+      <c r="X132" s="9"/>
+      <c r="Y132" s="9"/>
+      <c r="Z132" s="9"/>
+      <c r="AA132" s="9"/>
+      <c r="AB132" s="9"/>
+      <c r="AC132" s="9"/>
+      <c r="AD132" s="9"/>
+      <c r="AE132" s="9"/>
+      <c r="AF132" s="9"/>
+    </row>
+    <row r="133" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="9"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
       <c r="E133" s="10" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>16</v>
@@ -6707,335 +6853,335 @@
       <c r="H133" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
-      <c r="M133" s="4"/>
-      <c r="N133" s="4"/>
-      <c r="O133" s="4"/>
-      <c r="P133" s="4"/>
-      <c r="Q133" s="4"/>
-      <c r="R133" s="4"/>
-      <c r="S133" s="4"/>
-      <c r="T133" s="4"/>
-      <c r="U133" s="4"/>
-      <c r="V133" s="4"/>
-      <c r="W133" s="4"/>
-      <c r="X133" s="4"/>
-      <c r="Y133" s="4"/>
-      <c r="Z133" s="4"/>
-      <c r="AA133" s="4"/>
-      <c r="AB133" s="4"/>
-      <c r="AC133" s="4"/>
-      <c r="AD133" s="4"/>
-      <c r="AE133" s="4"/>
-      <c r="AF133" s="4"/>
-    </row>
-    <row r="134" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="G134" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H134" s="8" t="s">
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="9"/>
+      <c r="O133" s="9"/>
+      <c r="P133" s="9"/>
+      <c r="Q133" s="9"/>
+      <c r="R133" s="9"/>
+      <c r="S133" s="9"/>
+      <c r="T133" s="9"/>
+      <c r="U133" s="9"/>
+      <c r="V133" s="9"/>
+      <c r="W133" s="9"/>
+      <c r="X133" s="9"/>
+      <c r="Y133" s="9"/>
+      <c r="Z133" s="9"/>
+      <c r="AA133" s="9"/>
+      <c r="AB133" s="9"/>
+      <c r="AC133" s="9"/>
+      <c r="AD133" s="9"/>
+      <c r="AE133" s="9"/>
+      <c r="AF133" s="9"/>
+    </row>
+    <row r="134" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="9"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H134" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
-      <c r="M134" s="4"/>
-      <c r="N134" s="4"/>
-      <c r="O134" s="4"/>
-      <c r="P134" s="4"/>
-      <c r="Q134" s="4"/>
-      <c r="R134" s="4"/>
-      <c r="S134" s="4"/>
-      <c r="T134" s="4"/>
-      <c r="U134" s="4"/>
-      <c r="V134" s="4"/>
-      <c r="W134" s="4"/>
-      <c r="X134" s="4"/>
-      <c r="Y134" s="4"/>
-      <c r="Z134" s="4"/>
-      <c r="AA134" s="4"/>
-      <c r="AB134" s="4"/>
-      <c r="AC134" s="4"/>
-      <c r="AD134" s="4"/>
-      <c r="AE134" s="4"/>
-      <c r="AF134" s="4"/>
-    </row>
-    <row r="135" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="9"/>
+      <c r="O134" s="9"/>
+      <c r="P134" s="9"/>
+      <c r="Q134" s="9"/>
+      <c r="R134" s="9"/>
+      <c r="S134" s="9"/>
+      <c r="T134" s="9"/>
+      <c r="U134" s="9"/>
+      <c r="V134" s="9"/>
+      <c r="W134" s="9"/>
+      <c r="X134" s="9"/>
+      <c r="Y134" s="9"/>
+      <c r="Z134" s="9"/>
+      <c r="AA134" s="9"/>
+      <c r="AB134" s="9"/>
+      <c r="AC134" s="9"/>
+      <c r="AD134" s="9"/>
+      <c r="AE134" s="9"/>
+      <c r="AF134" s="9"/>
+    </row>
+    <row r="135" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="9"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
       <c r="E135" s="10" t="s">
-        <v>244</v>
+        <v>177</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>245</v>
+        <v>170</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H135" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
-      <c r="O135" s="4"/>
-      <c r="P135" s="4"/>
-      <c r="Q135" s="4"/>
-      <c r="R135" s="4"/>
-      <c r="S135" s="4"/>
-      <c r="T135" s="4"/>
-      <c r="U135" s="4"/>
-      <c r="V135" s="4"/>
-      <c r="W135" s="4"/>
-      <c r="X135" s="4"/>
-      <c r="Y135" s="4"/>
-      <c r="Z135" s="4"/>
-      <c r="AA135" s="4"/>
-      <c r="AB135" s="4"/>
-      <c r="AC135" s="4"/>
-      <c r="AD135" s="4"/>
-      <c r="AE135" s="4"/>
-      <c r="AF135" s="4"/>
-    </row>
-    <row r="136" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="9"/>
+      <c r="M135" s="9"/>
+      <c r="N135" s="9"/>
+      <c r="O135" s="9"/>
+      <c r="P135" s="9"/>
+      <c r="Q135" s="9"/>
+      <c r="R135" s="9"/>
+      <c r="S135" s="9"/>
+      <c r="T135" s="9"/>
+      <c r="U135" s="9"/>
+      <c r="V135" s="9"/>
+      <c r="W135" s="9"/>
+      <c r="X135" s="9"/>
+      <c r="Y135" s="9"/>
+      <c r="Z135" s="9"/>
+      <c r="AA135" s="9"/>
+      <c r="AB135" s="9"/>
+      <c r="AC135" s="9"/>
+      <c r="AD135" s="9"/>
+      <c r="AE135" s="9"/>
+      <c r="AF135" s="9"/>
+    </row>
+    <row r="136" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="9"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
       <c r="E136" s="10" t="s">
-        <v>246</v>
+        <v>178</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H136" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
-      <c r="M136" s="4"/>
-      <c r="N136" s="4"/>
-      <c r="O136" s="4"/>
-      <c r="P136" s="4"/>
-      <c r="Q136" s="4"/>
-      <c r="R136" s="4"/>
-      <c r="S136" s="4"/>
-      <c r="T136" s="4"/>
-      <c r="U136" s="4"/>
-      <c r="V136" s="4"/>
-      <c r="W136" s="4"/>
-      <c r="X136" s="4"/>
-      <c r="Y136" s="4"/>
-      <c r="Z136" s="4"/>
-      <c r="AA136" s="4"/>
-      <c r="AB136" s="4"/>
-      <c r="AC136" s="4"/>
-      <c r="AD136" s="4"/>
-      <c r="AE136" s="4"/>
-      <c r="AF136" s="4"/>
-    </row>
-    <row r="137" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="9"/>
+      <c r="M136" s="9"/>
+      <c r="N136" s="9"/>
+      <c r="O136" s="9"/>
+      <c r="P136" s="9"/>
+      <c r="Q136" s="9"/>
+      <c r="R136" s="9"/>
+      <c r="S136" s="9"/>
+      <c r="T136" s="9"/>
+      <c r="U136" s="9"/>
+      <c r="V136" s="9"/>
+      <c r="W136" s="9"/>
+      <c r="X136" s="9"/>
+      <c r="Y136" s="9"/>
+      <c r="Z136" s="9"/>
+      <c r="AA136" s="9"/>
+      <c r="AB136" s="9"/>
+      <c r="AC136" s="9"/>
+      <c r="AD136" s="9"/>
+      <c r="AE136" s="9"/>
+      <c r="AF136" s="9"/>
+    </row>
+    <row r="137" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="9"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
       <c r="E137" s="10" t="s">
-        <v>247</v>
+        <v>179</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>249</v>
+        <v>171</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H137" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
-      <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
-      <c r="M137" s="4"/>
-      <c r="N137" s="4"/>
-      <c r="O137" s="4"/>
-      <c r="P137" s="4"/>
-      <c r="Q137" s="4"/>
-      <c r="R137" s="4"/>
-      <c r="S137" s="4"/>
-      <c r="T137" s="4"/>
-      <c r="U137" s="4"/>
-      <c r="V137" s="4"/>
-      <c r="W137" s="4"/>
-      <c r="X137" s="4"/>
-      <c r="Y137" s="4"/>
-      <c r="Z137" s="4"/>
-      <c r="AA137" s="4"/>
-      <c r="AB137" s="4"/>
-      <c r="AC137" s="4"/>
-      <c r="AD137" s="4"/>
-      <c r="AE137" s="4"/>
-      <c r="AF137" s="4"/>
-    </row>
-    <row r="138" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="9"/>
+      <c r="M137" s="9"/>
+      <c r="N137" s="9"/>
+      <c r="O137" s="9"/>
+      <c r="P137" s="9"/>
+      <c r="Q137" s="9"/>
+      <c r="R137" s="9"/>
+      <c r="S137" s="9"/>
+      <c r="T137" s="9"/>
+      <c r="U137" s="9"/>
+      <c r="V137" s="9"/>
+      <c r="W137" s="9"/>
+      <c r="X137" s="9"/>
+      <c r="Y137" s="9"/>
+      <c r="Z137" s="9"/>
+      <c r="AA137" s="9"/>
+      <c r="AB137" s="9"/>
+      <c r="AC137" s="9"/>
+      <c r="AD137" s="9"/>
+      <c r="AE137" s="9"/>
+      <c r="AF137" s="9"/>
+    </row>
+    <row r="138" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="9"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
       <c r="E138" s="10" t="s">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="F138" s="11" t="s">
-        <v>253</v>
+        <v>180</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H138" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I138" s="4"/>
-      <c r="J138" s="4"/>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
-      <c r="M138" s="4"/>
-      <c r="N138" s="4"/>
-      <c r="O138" s="4"/>
-      <c r="P138" s="4"/>
-      <c r="Q138" s="4"/>
-      <c r="R138" s="4"/>
-      <c r="S138" s="4"/>
-      <c r="T138" s="4"/>
-      <c r="U138" s="4"/>
-      <c r="V138" s="4"/>
-      <c r="W138" s="4"/>
-      <c r="X138" s="4"/>
-      <c r="Y138" s="4"/>
-      <c r="Z138" s="4"/>
-      <c r="AA138" s="4"/>
-      <c r="AB138" s="4"/>
-      <c r="AC138" s="4"/>
-      <c r="AD138" s="4"/>
-      <c r="AE138" s="4"/>
-      <c r="AF138" s="4"/>
-    </row>
-    <row r="139" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="9"/>
+      <c r="M138" s="9"/>
+      <c r="N138" s="9"/>
+      <c r="O138" s="9"/>
+      <c r="P138" s="9"/>
+      <c r="Q138" s="9"/>
+      <c r="R138" s="9"/>
+      <c r="S138" s="9"/>
+      <c r="T138" s="9"/>
+      <c r="U138" s="9"/>
+      <c r="V138" s="9"/>
+      <c r="W138" s="9"/>
+      <c r="X138" s="9"/>
+      <c r="Y138" s="9"/>
+      <c r="Z138" s="9"/>
+      <c r="AA138" s="9"/>
+      <c r="AB138" s="9"/>
+      <c r="AC138" s="9"/>
+      <c r="AD138" s="9"/>
+      <c r="AE138" s="9"/>
+      <c r="AF138" s="9"/>
+    </row>
+    <row r="139" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="9"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
       <c r="E139" s="10" t="s">
-        <v>251</v>
+        <v>186</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H139" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I139" s="4"/>
-      <c r="J139" s="4"/>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
-      <c r="M139" s="4"/>
-      <c r="N139" s="4"/>
-      <c r="O139" s="4"/>
-      <c r="P139" s="4"/>
-      <c r="Q139" s="4"/>
-      <c r="R139" s="4"/>
-      <c r="S139" s="4"/>
-      <c r="T139" s="4"/>
-      <c r="U139" s="4"/>
-      <c r="V139" s="4"/>
-      <c r="W139" s="4"/>
-      <c r="X139" s="4"/>
-      <c r="Y139" s="4"/>
-      <c r="Z139" s="4"/>
-      <c r="AA139" s="4"/>
-      <c r="AB139" s="4"/>
-      <c r="AC139" s="4"/>
-      <c r="AD139" s="4"/>
-      <c r="AE139" s="4"/>
-      <c r="AF139" s="4"/>
-    </row>
-    <row r="140" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
+      <c r="M139" s="9"/>
+      <c r="N139" s="9"/>
+      <c r="O139" s="9"/>
+      <c r="P139" s="9"/>
+      <c r="Q139" s="9"/>
+      <c r="R139" s="9"/>
+      <c r="S139" s="9"/>
+      <c r="T139" s="9"/>
+      <c r="U139" s="9"/>
+      <c r="V139" s="9"/>
+      <c r="W139" s="9"/>
+      <c r="X139" s="9"/>
+      <c r="Y139" s="9"/>
+      <c r="Z139" s="9"/>
+      <c r="AA139" s="9"/>
+      <c r="AB139" s="9"/>
+      <c r="AC139" s="9"/>
+      <c r="AD139" s="9"/>
+      <c r="AE139" s="9"/>
+      <c r="AF139" s="9"/>
+    </row>
+    <row r="140" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="9"/>
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
       <c r="E140" s="10" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>254</v>
+        <v>183</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H140" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I140" s="4"/>
-      <c r="J140" s="4"/>
-      <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
-      <c r="M140" s="4"/>
-      <c r="N140" s="4"/>
-      <c r="O140" s="4"/>
-      <c r="P140" s="4"/>
-      <c r="Q140" s="4"/>
-      <c r="R140" s="4"/>
-      <c r="S140" s="4"/>
-      <c r="T140" s="4"/>
-      <c r="U140" s="4"/>
-      <c r="V140" s="4"/>
-      <c r="W140" s="4"/>
-      <c r="X140" s="4"/>
-      <c r="Y140" s="4"/>
-      <c r="Z140" s="4"/>
-      <c r="AA140" s="4"/>
-      <c r="AB140" s="4"/>
-      <c r="AC140" s="4"/>
-      <c r="AD140" s="4"/>
-      <c r="AE140" s="4"/>
-      <c r="AF140" s="4"/>
-    </row>
-    <row r="141" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
+      <c r="M140" s="9"/>
+      <c r="N140" s="9"/>
+      <c r="O140" s="9"/>
+      <c r="P140" s="9"/>
+      <c r="Q140" s="9"/>
+      <c r="R140" s="9"/>
+      <c r="S140" s="9"/>
+      <c r="T140" s="9"/>
+      <c r="U140" s="9"/>
+      <c r="V140" s="9"/>
+      <c r="W140" s="9"/>
+      <c r="X140" s="9"/>
+      <c r="Y140" s="9"/>
+      <c r="Z140" s="9"/>
+      <c r="AA140" s="9"/>
+      <c r="AB140" s="9"/>
+      <c r="AC140" s="9"/>
+      <c r="AD140" s="9"/>
+      <c r="AE140" s="9"/>
+      <c r="AF140" s="9"/>
+    </row>
+    <row r="141" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="9"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
       <c r="E141" s="10" t="s">
-        <v>251</v>
+        <v>188</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="G141" s="11" t="s">
         <v>16</v>
@@ -7043,218 +7189,254 @@
       <c r="H141" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
-      <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
-      <c r="M141" s="4"/>
-      <c r="N141" s="4"/>
-      <c r="O141" s="4"/>
-      <c r="P141" s="4"/>
-      <c r="Q141" s="4"/>
-      <c r="R141" s="4"/>
-      <c r="S141" s="4"/>
-      <c r="T141" s="4"/>
-      <c r="U141" s="4"/>
-      <c r="V141" s="4"/>
-      <c r="W141" s="4"/>
-      <c r="X141" s="4"/>
-      <c r="Y141" s="4"/>
-      <c r="Z141" s="4"/>
-      <c r="AA141" s="4"/>
-      <c r="AB141" s="4"/>
-      <c r="AC141" s="4"/>
-      <c r="AD141" s="4"/>
-      <c r="AE141" s="4"/>
-      <c r="AF141" s="4"/>
-    </row>
-    <row r="142" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
-      <c r="I142" s="4"/>
-      <c r="J142" s="4"/>
-      <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4"/>
-      <c r="N142" s="4"/>
-      <c r="O142" s="4"/>
-      <c r="P142" s="4"/>
-      <c r="Q142" s="4"/>
-      <c r="R142" s="4"/>
-      <c r="S142" s="4"/>
-      <c r="T142" s="4"/>
-      <c r="U142" s="4"/>
-      <c r="V142" s="4"/>
-      <c r="W142" s="4"/>
-      <c r="X142" s="4"/>
-      <c r="Y142" s="4"/>
-      <c r="Z142" s="4"/>
-      <c r="AA142" s="4"/>
-      <c r="AB142" s="4"/>
-      <c r="AC142" s="4"/>
-      <c r="AD142" s="4"/>
-      <c r="AE142" s="4"/>
-      <c r="AF142" s="4"/>
-    </row>
-    <row r="143" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
-      <c r="I143" s="4"/>
-      <c r="J143" s="4"/>
-      <c r="K143" s="4"/>
-      <c r="L143" s="4"/>
-      <c r="M143" s="4"/>
-      <c r="N143" s="4"/>
-      <c r="O143" s="4"/>
-      <c r="P143" s="4"/>
-      <c r="Q143" s="4"/>
-      <c r="R143" s="4"/>
-      <c r="S143" s="4"/>
-      <c r="T143" s="4"/>
-      <c r="U143" s="4"/>
-      <c r="V143" s="4"/>
-      <c r="W143" s="4"/>
-      <c r="X143" s="4"/>
-      <c r="Y143" s="4"/>
-      <c r="Z143" s="4"/>
-      <c r="AA143" s="4"/>
-      <c r="AB143" s="4"/>
-      <c r="AC143" s="4"/>
-      <c r="AD143" s="4"/>
-      <c r="AE143" s="4"/>
-      <c r="AF143" s="4"/>
-    </row>
-    <row r="144" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F144" s="7"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
-      <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
-      <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4"/>
-      <c r="N144" s="4"/>
-      <c r="O144" s="4"/>
-      <c r="P144" s="4"/>
-      <c r="Q144" s="4"/>
-      <c r="R144" s="4"/>
-      <c r="S144" s="4"/>
-      <c r="T144" s="4"/>
-      <c r="U144" s="4"/>
-      <c r="V144" s="4"/>
-      <c r="W144" s="4"/>
-      <c r="X144" s="4"/>
-      <c r="Y144" s="4"/>
-      <c r="Z144" s="4"/>
-      <c r="AA144" s="4"/>
-      <c r="AB144" s="4"/>
-      <c r="AC144" s="4"/>
-      <c r="AD144" s="4"/>
-      <c r="AE144" s="4"/>
-      <c r="AF144" s="4"/>
-    </row>
-    <row r="145" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F145" s="7"/>
-      <c r="G145" s="4"/>
-      <c r="H145" s="4"/>
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
-      <c r="K145" s="4"/>
-      <c r="L145" s="4"/>
-      <c r="M145" s="4"/>
-      <c r="N145" s="4"/>
-      <c r="O145" s="4"/>
-      <c r="P145" s="4"/>
-      <c r="Q145" s="4"/>
-      <c r="R145" s="4"/>
-      <c r="S145" s="4"/>
-      <c r="T145" s="4"/>
-      <c r="U145" s="4"/>
-      <c r="V145" s="4"/>
-      <c r="W145" s="4"/>
-      <c r="X145" s="4"/>
-      <c r="Y145" s="4"/>
-      <c r="Z145" s="4"/>
-      <c r="AA145" s="4"/>
-      <c r="AB145" s="4"/>
-      <c r="AC145" s="4"/>
-      <c r="AD145" s="4"/>
-      <c r="AE145" s="4"/>
-      <c r="AF145" s="4"/>
-    </row>
-    <row r="146" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F146" s="7"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
-      <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
-      <c r="K146" s="4"/>
-      <c r="L146" s="4"/>
-      <c r="M146" s="4"/>
-      <c r="N146" s="4"/>
-      <c r="O146" s="4"/>
-      <c r="P146" s="4"/>
-      <c r="Q146" s="4"/>
-      <c r="R146" s="4"/>
-      <c r="S146" s="4"/>
-      <c r="T146" s="4"/>
-      <c r="U146" s="4"/>
-      <c r="V146" s="4"/>
-      <c r="W146" s="4"/>
-      <c r="X146" s="4"/>
-      <c r="Y146" s="4"/>
-      <c r="Z146" s="4"/>
-      <c r="AA146" s="4"/>
-      <c r="AB146" s="4"/>
-      <c r="AC146" s="4"/>
-      <c r="AD146" s="4"/>
-      <c r="AE146" s="4"/>
-      <c r="AF146" s="4"/>
-    </row>
-    <row r="147" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
+      <c r="M141" s="9"/>
+      <c r="N141" s="9"/>
+      <c r="O141" s="9"/>
+      <c r="P141" s="9"/>
+      <c r="Q141" s="9"/>
+      <c r="R141" s="9"/>
+      <c r="S141" s="9"/>
+      <c r="T141" s="9"/>
+      <c r="U141" s="9"/>
+      <c r="V141" s="9"/>
+      <c r="W141" s="9"/>
+      <c r="X141" s="9"/>
+      <c r="Y141" s="9"/>
+      <c r="Z141" s="9"/>
+      <c r="AA141" s="9"/>
+      <c r="AB141" s="9"/>
+      <c r="AC141" s="9"/>
+      <c r="AD141" s="9"/>
+      <c r="AE141" s="9"/>
+      <c r="AF141" s="9"/>
+    </row>
+    <row r="142" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="9"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H142" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="9"/>
+      <c r="M142" s="9"/>
+      <c r="N142" s="9"/>
+      <c r="O142" s="9"/>
+      <c r="P142" s="9"/>
+      <c r="Q142" s="9"/>
+      <c r="R142" s="9"/>
+      <c r="S142" s="9"/>
+      <c r="T142" s="9"/>
+      <c r="U142" s="9"/>
+      <c r="V142" s="9"/>
+      <c r="W142" s="9"/>
+      <c r="X142" s="9"/>
+      <c r="Y142" s="9"/>
+      <c r="Z142" s="9"/>
+      <c r="AA142" s="9"/>
+      <c r="AB142" s="9"/>
+      <c r="AC142" s="9"/>
+      <c r="AD142" s="9"/>
+      <c r="AE142" s="9"/>
+      <c r="AF142" s="9"/>
+    </row>
+    <row r="143" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="9"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H143" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
+      <c r="N143" s="9"/>
+      <c r="O143" s="9"/>
+      <c r="P143" s="9"/>
+      <c r="Q143" s="9"/>
+      <c r="R143" s="9"/>
+      <c r="S143" s="9"/>
+      <c r="T143" s="9"/>
+      <c r="U143" s="9"/>
+      <c r="V143" s="9"/>
+      <c r="W143" s="9"/>
+      <c r="X143" s="9"/>
+      <c r="Y143" s="9"/>
+      <c r="Z143" s="9"/>
+      <c r="AA143" s="9"/>
+      <c r="AB143" s="9"/>
+      <c r="AC143" s="9"/>
+      <c r="AD143" s="9"/>
+      <c r="AE143" s="9"/>
+      <c r="AF143" s="9"/>
+    </row>
+    <row r="144" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="9"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H144" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c r="L144" s="9"/>
+      <c r="M144" s="9"/>
+      <c r="N144" s="9"/>
+      <c r="O144" s="9"/>
+      <c r="P144" s="9"/>
+      <c r="Q144" s="9"/>
+      <c r="R144" s="9"/>
+      <c r="S144" s="9"/>
+      <c r="T144" s="9"/>
+      <c r="U144" s="9"/>
+      <c r="V144" s="9"/>
+      <c r="W144" s="9"/>
+      <c r="X144" s="9"/>
+      <c r="Y144" s="9"/>
+      <c r="Z144" s="9"/>
+      <c r="AA144" s="9"/>
+      <c r="AB144" s="9"/>
+      <c r="AC144" s="9"/>
+      <c r="AD144" s="9"/>
+      <c r="AE144" s="9"/>
+      <c r="AF144" s="9"/>
+    </row>
+    <row r="145" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="9"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H145" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9"/>
+      <c r="M145" s="9"/>
+      <c r="N145" s="9"/>
+      <c r="O145" s="9"/>
+      <c r="P145" s="9"/>
+      <c r="Q145" s="9"/>
+      <c r="R145" s="9"/>
+      <c r="S145" s="9"/>
+      <c r="T145" s="9"/>
+      <c r="U145" s="9"/>
+      <c r="V145" s="9"/>
+      <c r="W145" s="9"/>
+      <c r="X145" s="9"/>
+      <c r="Y145" s="9"/>
+      <c r="Z145" s="9"/>
+      <c r="AA145" s="9"/>
+      <c r="AB145" s="9"/>
+      <c r="AC145" s="9"/>
+      <c r="AD145" s="9"/>
+      <c r="AE145" s="9"/>
+      <c r="AF145" s="9"/>
+    </row>
+    <row r="146" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="9"/>
+      <c r="B146" s="9"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="9"/>
+      <c r="M146" s="9"/>
+      <c r="N146" s="9"/>
+      <c r="O146" s="9"/>
+      <c r="P146" s="9"/>
+      <c r="Q146" s="9"/>
+      <c r="R146" s="9"/>
+      <c r="S146" s="9"/>
+      <c r="T146" s="9"/>
+      <c r="U146" s="9"/>
+      <c r="V146" s="9"/>
+      <c r="W146" s="9"/>
+      <c r="X146" s="9"/>
+      <c r="Y146" s="9"/>
+      <c r="Z146" s="9"/>
+      <c r="AA146" s="9"/>
+      <c r="AB146" s="9"/>
+      <c r="AC146" s="9"/>
+      <c r="AD146" s="9"/>
+      <c r="AE146" s="9"/>
+      <c r="AF146" s="9"/>
+    </row>
+    <row r="147" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
-      <c r="E147" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F147" s="7"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
+      <c r="E147" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
@@ -7280,15 +7462,23 @@
       <c r="AE147" s="4"/>
       <c r="AF147" s="4"/>
     </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
+      <c r="E148" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G148" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H148" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
@@ -7314,15 +7504,23 @@
       <c r="AE148" s="4"/>
       <c r="AF148" s="4"/>
     </row>
-    <row r="149" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
+      <c r="E149" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F149" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H149" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
@@ -7348,15 +7546,23 @@
       <c r="AE149" s="4"/>
       <c r="AF149" s="4"/>
     </row>
-    <row r="150" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
+      <c r="E150" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F150" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G150" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H150" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
@@ -7382,15 +7588,23 @@
       <c r="AE150" s="4"/>
       <c r="AF150" s="4"/>
     </row>
-    <row r="151" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
+      <c r="E151" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F151" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="G151" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H151" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
@@ -7416,15 +7630,23 @@
       <c r="AE151" s="4"/>
       <c r="AF151" s="4"/>
     </row>
-    <row r="152" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
+      <c r="E152" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F152" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H152" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
@@ -7450,15 +7672,23 @@
       <c r="AE152" s="4"/>
       <c r="AF152" s="4"/>
     </row>
-    <row r="153" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
+      <c r="E153" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F153" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H153" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
       <c r="K153" s="4"/>
@@ -7484,15 +7714,23 @@
       <c r="AE153" s="4"/>
       <c r="AF153" s="4"/>
     </row>
-    <row r="154" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
-      <c r="H154" s="4"/>
+      <c r="E154" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H154" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
       <c r="K154" s="4"/>
@@ -7518,15 +7756,23 @@
       <c r="AE154" s="4"/>
       <c r="AF154" s="4"/>
     </row>
-    <row r="155" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-      <c r="H155" s="4"/>
+      <c r="E155" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H155" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
       <c r="K155" s="4"/>
@@ -7552,15 +7798,23 @@
       <c r="AE155" s="4"/>
       <c r="AF155" s="4"/>
     </row>
-    <row r="156" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="4"/>
+      <c r="E156" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H156" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
@@ -7586,15 +7840,23 @@
       <c r="AE156" s="4"/>
       <c r="AF156" s="4"/>
     </row>
-    <row r="157" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
-      <c r="H157" s="4"/>
+      <c r="E157" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H157" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
@@ -7620,15 +7882,23 @@
       <c r="AE157" s="4"/>
       <c r="AF157" s="4"/>
     </row>
-    <row r="158" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
-      <c r="H158" s="4"/>
+      <c r="E158" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F158" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="G158" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H158" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
@@ -7654,15 +7924,23 @@
       <c r="AE158" s="4"/>
       <c r="AF158" s="4"/>
     </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
-      <c r="H159" s="4"/>
+      <c r="E159" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F159" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G159" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H159" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
       <c r="K159" s="4"/>
@@ -7688,15 +7966,23 @@
       <c r="AE159" s="4"/>
       <c r="AF159" s="4"/>
     </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
-      <c r="G160" s="4"/>
-      <c r="H160" s="4"/>
+      <c r="E160" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F160" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G160" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H160" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
@@ -7722,15 +8008,23 @@
       <c r="AE160" s="4"/>
       <c r="AF160" s="4"/>
     </row>
-    <row r="161" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
-      <c r="H161" s="4"/>
+      <c r="E161" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F161" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G161" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H161" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
       <c r="K161" s="4"/>
@@ -7756,15 +8050,23 @@
       <c r="AE161" s="4"/>
       <c r="AF161" s="4"/>
     </row>
-    <row r="162" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
-      <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
-      <c r="H162" s="4"/>
+      <c r="E162" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F162" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G162" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H162" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
@@ -7790,15 +8092,23 @@
       <c r="AE162" s="4"/>
       <c r="AF162" s="4"/>
     </row>
-    <row r="163" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="4"/>
-      <c r="G163" s="4"/>
-      <c r="H163" s="4"/>
+      <c r="E163" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F163" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G163" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H163" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
       <c r="K163" s="4"/>
@@ -7824,15 +8134,23 @@
       <c r="AE163" s="4"/>
       <c r="AF163" s="4"/>
     </row>
-    <row r="164" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
-      <c r="G164" s="4"/>
-      <c r="H164" s="4"/>
+      <c r="E164" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H164" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
       <c r="K164" s="4"/>
@@ -7926,13 +8244,15 @@
       <c r="AE166" s="4"/>
       <c r="AF166" s="4"/>
     </row>
-    <row r="167" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
-      <c r="E167" s="4"/>
-      <c r="F167" s="4"/>
+      <c r="E167" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F167" s="7"/>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
@@ -7960,13 +8280,15 @@
       <c r="AE167" s="4"/>
       <c r="AF167" s="4"/>
     </row>
-    <row r="168" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
+      <c r="E168" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F168" s="7"/>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
@@ -7994,13 +8316,15 @@
       <c r="AE168" s="4"/>
       <c r="AF168" s="4"/>
     </row>
-    <row r="169" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
-      <c r="E169" s="4"/>
-      <c r="F169" s="4"/>
+      <c r="E169" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F169" s="7"/>
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
       <c r="I169" s="4"/>
@@ -8028,13 +8352,15 @@
       <c r="AE169" s="4"/>
       <c r="AF169" s="4"/>
     </row>
-    <row r="170" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
-      <c r="E170" s="4"/>
-      <c r="F170" s="4"/>
+      <c r="E170" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F170" s="7"/>
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
@@ -10544,6 +10870,788 @@
       <c r="AE243" s="4"/>
       <c r="AF243" s="4"/>
     </row>
+    <row r="244" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A244" s="4"/>
+      <c r="B244" s="4"/>
+      <c r="C244" s="4"/>
+      <c r="D244" s="4"/>
+      <c r="E244" s="4"/>
+      <c r="F244" s="4"/>
+      <c r="G244" s="4"/>
+      <c r="H244" s="4"/>
+      <c r="I244" s="4"/>
+      <c r="J244" s="4"/>
+      <c r="K244" s="4"/>
+      <c r="L244" s="4"/>
+      <c r="M244" s="4"/>
+      <c r="N244" s="4"/>
+      <c r="O244" s="4"/>
+      <c r="P244" s="4"/>
+      <c r="Q244" s="4"/>
+      <c r="R244" s="4"/>
+      <c r="S244" s="4"/>
+      <c r="T244" s="4"/>
+      <c r="U244" s="4"/>
+      <c r="V244" s="4"/>
+      <c r="W244" s="4"/>
+      <c r="X244" s="4"/>
+      <c r="Y244" s="4"/>
+      <c r="Z244" s="4"/>
+      <c r="AA244" s="4"/>
+      <c r="AB244" s="4"/>
+      <c r="AC244" s="4"/>
+      <c r="AD244" s="4"/>
+      <c r="AE244" s="4"/>
+      <c r="AF244" s="4"/>
+    </row>
+    <row r="245" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A245" s="4"/>
+      <c r="B245" s="4"/>
+      <c r="C245" s="4"/>
+      <c r="D245" s="4"/>
+      <c r="E245" s="4"/>
+      <c r="F245" s="4"/>
+      <c r="G245" s="4"/>
+      <c r="H245" s="4"/>
+      <c r="I245" s="4"/>
+      <c r="J245" s="4"/>
+      <c r="K245" s="4"/>
+      <c r="L245" s="4"/>
+      <c r="M245" s="4"/>
+      <c r="N245" s="4"/>
+      <c r="O245" s="4"/>
+      <c r="P245" s="4"/>
+      <c r="Q245" s="4"/>
+      <c r="R245" s="4"/>
+      <c r="S245" s="4"/>
+      <c r="T245" s="4"/>
+      <c r="U245" s="4"/>
+      <c r="V245" s="4"/>
+      <c r="W245" s="4"/>
+      <c r="X245" s="4"/>
+      <c r="Y245" s="4"/>
+      <c r="Z245" s="4"/>
+      <c r="AA245" s="4"/>
+      <c r="AB245" s="4"/>
+      <c r="AC245" s="4"/>
+      <c r="AD245" s="4"/>
+      <c r="AE245" s="4"/>
+      <c r="AF245" s="4"/>
+    </row>
+    <row r="246" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A246" s="4"/>
+      <c r="B246" s="4"/>
+      <c r="C246" s="4"/>
+      <c r="D246" s="4"/>
+      <c r="E246" s="4"/>
+      <c r="F246" s="4"/>
+      <c r="G246" s="4"/>
+      <c r="H246" s="4"/>
+      <c r="I246" s="4"/>
+      <c r="J246" s="4"/>
+      <c r="K246" s="4"/>
+      <c r="L246" s="4"/>
+      <c r="M246" s="4"/>
+      <c r="N246" s="4"/>
+      <c r="O246" s="4"/>
+      <c r="P246" s="4"/>
+      <c r="Q246" s="4"/>
+      <c r="R246" s="4"/>
+      <c r="S246" s="4"/>
+      <c r="T246" s="4"/>
+      <c r="U246" s="4"/>
+      <c r="V246" s="4"/>
+      <c r="W246" s="4"/>
+      <c r="X246" s="4"/>
+      <c r="Y246" s="4"/>
+      <c r="Z246" s="4"/>
+      <c r="AA246" s="4"/>
+      <c r="AB246" s="4"/>
+      <c r="AC246" s="4"/>
+      <c r="AD246" s="4"/>
+      <c r="AE246" s="4"/>
+      <c r="AF246" s="4"/>
+    </row>
+    <row r="247" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A247" s="4"/>
+      <c r="B247" s="4"/>
+      <c r="C247" s="4"/>
+      <c r="D247" s="4"/>
+      <c r="E247" s="4"/>
+      <c r="F247" s="4"/>
+      <c r="G247" s="4"/>
+      <c r="H247" s="4"/>
+      <c r="I247" s="4"/>
+      <c r="J247" s="4"/>
+      <c r="K247" s="4"/>
+      <c r="L247" s="4"/>
+      <c r="M247" s="4"/>
+      <c r="N247" s="4"/>
+      <c r="O247" s="4"/>
+      <c r="P247" s="4"/>
+      <c r="Q247" s="4"/>
+      <c r="R247" s="4"/>
+      <c r="S247" s="4"/>
+      <c r="T247" s="4"/>
+      <c r="U247" s="4"/>
+      <c r="V247" s="4"/>
+      <c r="W247" s="4"/>
+      <c r="X247" s="4"/>
+      <c r="Y247" s="4"/>
+      <c r="Z247" s="4"/>
+      <c r="AA247" s="4"/>
+      <c r="AB247" s="4"/>
+      <c r="AC247" s="4"/>
+      <c r="AD247" s="4"/>
+      <c r="AE247" s="4"/>
+      <c r="AF247" s="4"/>
+    </row>
+    <row r="248" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A248" s="4"/>
+      <c r="B248" s="4"/>
+      <c r="C248" s="4"/>
+      <c r="D248" s="4"/>
+      <c r="E248" s="4"/>
+      <c r="F248" s="4"/>
+      <c r="G248" s="4"/>
+      <c r="H248" s="4"/>
+      <c r="I248" s="4"/>
+      <c r="J248" s="4"/>
+      <c r="K248" s="4"/>
+      <c r="L248" s="4"/>
+      <c r="M248" s="4"/>
+      <c r="N248" s="4"/>
+      <c r="O248" s="4"/>
+      <c r="P248" s="4"/>
+      <c r="Q248" s="4"/>
+      <c r="R248" s="4"/>
+      <c r="S248" s="4"/>
+      <c r="T248" s="4"/>
+      <c r="U248" s="4"/>
+      <c r="V248" s="4"/>
+      <c r="W248" s="4"/>
+      <c r="X248" s="4"/>
+      <c r="Y248" s="4"/>
+      <c r="Z248" s="4"/>
+      <c r="AA248" s="4"/>
+      <c r="AB248" s="4"/>
+      <c r="AC248" s="4"/>
+      <c r="AD248" s="4"/>
+      <c r="AE248" s="4"/>
+      <c r="AF248" s="4"/>
+    </row>
+    <row r="249" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A249" s="4"/>
+      <c r="B249" s="4"/>
+      <c r="C249" s="4"/>
+      <c r="D249" s="4"/>
+      <c r="E249" s="4"/>
+      <c r="F249" s="4"/>
+      <c r="G249" s="4"/>
+      <c r="H249" s="4"/>
+      <c r="I249" s="4"/>
+      <c r="J249" s="4"/>
+      <c r="K249" s="4"/>
+      <c r="L249" s="4"/>
+      <c r="M249" s="4"/>
+      <c r="N249" s="4"/>
+      <c r="O249" s="4"/>
+      <c r="P249" s="4"/>
+      <c r="Q249" s="4"/>
+      <c r="R249" s="4"/>
+      <c r="S249" s="4"/>
+      <c r="T249" s="4"/>
+      <c r="U249" s="4"/>
+      <c r="V249" s="4"/>
+      <c r="W249" s="4"/>
+      <c r="X249" s="4"/>
+      <c r="Y249" s="4"/>
+      <c r="Z249" s="4"/>
+      <c r="AA249" s="4"/>
+      <c r="AB249" s="4"/>
+      <c r="AC249" s="4"/>
+      <c r="AD249" s="4"/>
+      <c r="AE249" s="4"/>
+      <c r="AF249" s="4"/>
+    </row>
+    <row r="250" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A250" s="4"/>
+      <c r="B250" s="4"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="4"/>
+      <c r="E250" s="4"/>
+      <c r="F250" s="4"/>
+      <c r="G250" s="4"/>
+      <c r="H250" s="4"/>
+      <c r="I250" s="4"/>
+      <c r="J250" s="4"/>
+      <c r="K250" s="4"/>
+      <c r="L250" s="4"/>
+      <c r="M250" s="4"/>
+      <c r="N250" s="4"/>
+      <c r="O250" s="4"/>
+      <c r="P250" s="4"/>
+      <c r="Q250" s="4"/>
+      <c r="R250" s="4"/>
+      <c r="S250" s="4"/>
+      <c r="T250" s="4"/>
+      <c r="U250" s="4"/>
+      <c r="V250" s="4"/>
+      <c r="W250" s="4"/>
+      <c r="X250" s="4"/>
+      <c r="Y250" s="4"/>
+      <c r="Z250" s="4"/>
+      <c r="AA250" s="4"/>
+      <c r="AB250" s="4"/>
+      <c r="AC250" s="4"/>
+      <c r="AD250" s="4"/>
+      <c r="AE250" s="4"/>
+      <c r="AF250" s="4"/>
+    </row>
+    <row r="251" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A251" s="4"/>
+      <c r="B251" s="4"/>
+      <c r="C251" s="4"/>
+      <c r="D251" s="4"/>
+      <c r="E251" s="4"/>
+      <c r="F251" s="4"/>
+      <c r="G251" s="4"/>
+      <c r="H251" s="4"/>
+      <c r="I251" s="4"/>
+      <c r="J251" s="4"/>
+      <c r="K251" s="4"/>
+      <c r="L251" s="4"/>
+      <c r="M251" s="4"/>
+      <c r="N251" s="4"/>
+      <c r="O251" s="4"/>
+      <c r="P251" s="4"/>
+      <c r="Q251" s="4"/>
+      <c r="R251" s="4"/>
+      <c r="S251" s="4"/>
+      <c r="T251" s="4"/>
+      <c r="U251" s="4"/>
+      <c r="V251" s="4"/>
+      <c r="W251" s="4"/>
+      <c r="X251" s="4"/>
+      <c r="Y251" s="4"/>
+      <c r="Z251" s="4"/>
+      <c r="AA251" s="4"/>
+      <c r="AB251" s="4"/>
+      <c r="AC251" s="4"/>
+      <c r="AD251" s="4"/>
+      <c r="AE251" s="4"/>
+      <c r="AF251" s="4"/>
+    </row>
+    <row r="252" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A252" s="4"/>
+      <c r="B252" s="4"/>
+      <c r="C252" s="4"/>
+      <c r="D252" s="4"/>
+      <c r="E252" s="4"/>
+      <c r="F252" s="4"/>
+      <c r="G252" s="4"/>
+      <c r="H252" s="4"/>
+      <c r="I252" s="4"/>
+      <c r="J252" s="4"/>
+      <c r="K252" s="4"/>
+      <c r="L252" s="4"/>
+      <c r="M252" s="4"/>
+      <c r="N252" s="4"/>
+      <c r="O252" s="4"/>
+      <c r="P252" s="4"/>
+      <c r="Q252" s="4"/>
+      <c r="R252" s="4"/>
+      <c r="S252" s="4"/>
+      <c r="T252" s="4"/>
+      <c r="U252" s="4"/>
+      <c r="V252" s="4"/>
+      <c r="W252" s="4"/>
+      <c r="X252" s="4"/>
+      <c r="Y252" s="4"/>
+      <c r="Z252" s="4"/>
+      <c r="AA252" s="4"/>
+      <c r="AB252" s="4"/>
+      <c r="AC252" s="4"/>
+      <c r="AD252" s="4"/>
+      <c r="AE252" s="4"/>
+      <c r="AF252" s="4"/>
+    </row>
+    <row r="253" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A253" s="4"/>
+      <c r="B253" s="4"/>
+      <c r="C253" s="4"/>
+      <c r="D253" s="4"/>
+      <c r="E253" s="4"/>
+      <c r="F253" s="4"/>
+      <c r="G253" s="4"/>
+      <c r="H253" s="4"/>
+      <c r="I253" s="4"/>
+      <c r="J253" s="4"/>
+      <c r="K253" s="4"/>
+      <c r="L253" s="4"/>
+      <c r="M253" s="4"/>
+      <c r="N253" s="4"/>
+      <c r="O253" s="4"/>
+      <c r="P253" s="4"/>
+      <c r="Q253" s="4"/>
+      <c r="R253" s="4"/>
+      <c r="S253" s="4"/>
+      <c r="T253" s="4"/>
+      <c r="U253" s="4"/>
+      <c r="V253" s="4"/>
+      <c r="W253" s="4"/>
+      <c r="X253" s="4"/>
+      <c r="Y253" s="4"/>
+      <c r="Z253" s="4"/>
+      <c r="AA253" s="4"/>
+      <c r="AB253" s="4"/>
+      <c r="AC253" s="4"/>
+      <c r="AD253" s="4"/>
+      <c r="AE253" s="4"/>
+      <c r="AF253" s="4"/>
+    </row>
+    <row r="254" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A254" s="4"/>
+      <c r="B254" s="4"/>
+      <c r="C254" s="4"/>
+      <c r="D254" s="4"/>
+      <c r="E254" s="4"/>
+      <c r="F254" s="4"/>
+      <c r="G254" s="4"/>
+      <c r="H254" s="4"/>
+      <c r="I254" s="4"/>
+      <c r="J254" s="4"/>
+      <c r="K254" s="4"/>
+      <c r="L254" s="4"/>
+      <c r="M254" s="4"/>
+      <c r="N254" s="4"/>
+      <c r="O254" s="4"/>
+      <c r="P254" s="4"/>
+      <c r="Q254" s="4"/>
+      <c r="R254" s="4"/>
+      <c r="S254" s="4"/>
+      <c r="T254" s="4"/>
+      <c r="U254" s="4"/>
+      <c r="V254" s="4"/>
+      <c r="W254" s="4"/>
+      <c r="X254" s="4"/>
+      <c r="Y254" s="4"/>
+      <c r="Z254" s="4"/>
+      <c r="AA254" s="4"/>
+      <c r="AB254" s="4"/>
+      <c r="AC254" s="4"/>
+      <c r="AD254" s="4"/>
+      <c r="AE254" s="4"/>
+      <c r="AF254" s="4"/>
+    </row>
+    <row r="255" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A255" s="4"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="4"/>
+      <c r="D255" s="4"/>
+      <c r="E255" s="4"/>
+      <c r="F255" s="4"/>
+      <c r="G255" s="4"/>
+      <c r="H255" s="4"/>
+      <c r="I255" s="4"/>
+      <c r="J255" s="4"/>
+      <c r="K255" s="4"/>
+      <c r="L255" s="4"/>
+      <c r="M255" s="4"/>
+      <c r="N255" s="4"/>
+      <c r="O255" s="4"/>
+      <c r="P255" s="4"/>
+      <c r="Q255" s="4"/>
+      <c r="R255" s="4"/>
+      <c r="S255" s="4"/>
+      <c r="T255" s="4"/>
+      <c r="U255" s="4"/>
+      <c r="V255" s="4"/>
+      <c r="W255" s="4"/>
+      <c r="X255" s="4"/>
+      <c r="Y255" s="4"/>
+      <c r="Z255" s="4"/>
+      <c r="AA255" s="4"/>
+      <c r="AB255" s="4"/>
+      <c r="AC255" s="4"/>
+      <c r="AD255" s="4"/>
+      <c r="AE255" s="4"/>
+      <c r="AF255" s="4"/>
+    </row>
+    <row r="256" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A256" s="4"/>
+      <c r="B256" s="4"/>
+      <c r="C256" s="4"/>
+      <c r="D256" s="4"/>
+      <c r="E256" s="4"/>
+      <c r="F256" s="4"/>
+      <c r="G256" s="4"/>
+      <c r="H256" s="4"/>
+      <c r="I256" s="4"/>
+      <c r="J256" s="4"/>
+      <c r="K256" s="4"/>
+      <c r="L256" s="4"/>
+      <c r="M256" s="4"/>
+      <c r="N256" s="4"/>
+      <c r="O256" s="4"/>
+      <c r="P256" s="4"/>
+      <c r="Q256" s="4"/>
+      <c r="R256" s="4"/>
+      <c r="S256" s="4"/>
+      <c r="T256" s="4"/>
+      <c r="U256" s="4"/>
+      <c r="V256" s="4"/>
+      <c r="W256" s="4"/>
+      <c r="X256" s="4"/>
+      <c r="Y256" s="4"/>
+      <c r="Z256" s="4"/>
+      <c r="AA256" s="4"/>
+      <c r="AB256" s="4"/>
+      <c r="AC256" s="4"/>
+      <c r="AD256" s="4"/>
+      <c r="AE256" s="4"/>
+      <c r="AF256" s="4"/>
+    </row>
+    <row r="257" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A257" s="4"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="4"/>
+      <c r="E257" s="4"/>
+      <c r="F257" s="4"/>
+      <c r="G257" s="4"/>
+      <c r="H257" s="4"/>
+      <c r="I257" s="4"/>
+      <c r="J257" s="4"/>
+      <c r="K257" s="4"/>
+      <c r="L257" s="4"/>
+      <c r="M257" s="4"/>
+      <c r="N257" s="4"/>
+      <c r="O257" s="4"/>
+      <c r="P257" s="4"/>
+      <c r="Q257" s="4"/>
+      <c r="R257" s="4"/>
+      <c r="S257" s="4"/>
+      <c r="T257" s="4"/>
+      <c r="U257" s="4"/>
+      <c r="V257" s="4"/>
+      <c r="W257" s="4"/>
+      <c r="X257" s="4"/>
+      <c r="Y257" s="4"/>
+      <c r="Z257" s="4"/>
+      <c r="AA257" s="4"/>
+      <c r="AB257" s="4"/>
+      <c r="AC257" s="4"/>
+      <c r="AD257" s="4"/>
+      <c r="AE257" s="4"/>
+      <c r="AF257" s="4"/>
+    </row>
+    <row r="258" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A258" s="4"/>
+      <c r="B258" s="4"/>
+      <c r="C258" s="4"/>
+      <c r="D258" s="4"/>
+      <c r="E258" s="4"/>
+      <c r="F258" s="4"/>
+      <c r="G258" s="4"/>
+      <c r="H258" s="4"/>
+      <c r="I258" s="4"/>
+      <c r="J258" s="4"/>
+      <c r="K258" s="4"/>
+      <c r="L258" s="4"/>
+      <c r="M258" s="4"/>
+      <c r="N258" s="4"/>
+      <c r="O258" s="4"/>
+      <c r="P258" s="4"/>
+      <c r="Q258" s="4"/>
+      <c r="R258" s="4"/>
+      <c r="S258" s="4"/>
+      <c r="T258" s="4"/>
+      <c r="U258" s="4"/>
+      <c r="V258" s="4"/>
+      <c r="W258" s="4"/>
+      <c r="X258" s="4"/>
+      <c r="Y258" s="4"/>
+      <c r="Z258" s="4"/>
+      <c r="AA258" s="4"/>
+      <c r="AB258" s="4"/>
+      <c r="AC258" s="4"/>
+      <c r="AD258" s="4"/>
+      <c r="AE258" s="4"/>
+      <c r="AF258" s="4"/>
+    </row>
+    <row r="259" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A259" s="4"/>
+      <c r="B259" s="4"/>
+      <c r="C259" s="4"/>
+      <c r="D259" s="4"/>
+      <c r="E259" s="4"/>
+      <c r="F259" s="4"/>
+      <c r="G259" s="4"/>
+      <c r="H259" s="4"/>
+      <c r="I259" s="4"/>
+      <c r="J259" s="4"/>
+      <c r="K259" s="4"/>
+      <c r="L259" s="4"/>
+      <c r="M259" s="4"/>
+      <c r="N259" s="4"/>
+      <c r="O259" s="4"/>
+      <c r="P259" s="4"/>
+      <c r="Q259" s="4"/>
+      <c r="R259" s="4"/>
+      <c r="S259" s="4"/>
+      <c r="T259" s="4"/>
+      <c r="U259" s="4"/>
+      <c r="V259" s="4"/>
+      <c r="W259" s="4"/>
+      <c r="X259" s="4"/>
+      <c r="Y259" s="4"/>
+      <c r="Z259" s="4"/>
+      <c r="AA259" s="4"/>
+      <c r="AB259" s="4"/>
+      <c r="AC259" s="4"/>
+      <c r="AD259" s="4"/>
+      <c r="AE259" s="4"/>
+      <c r="AF259" s="4"/>
+    </row>
+    <row r="260" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A260" s="4"/>
+      <c r="B260" s="4"/>
+      <c r="C260" s="4"/>
+      <c r="D260" s="4"/>
+      <c r="E260" s="4"/>
+      <c r="F260" s="4"/>
+      <c r="G260" s="4"/>
+      <c r="H260" s="4"/>
+      <c r="I260" s="4"/>
+      <c r="J260" s="4"/>
+      <c r="K260" s="4"/>
+      <c r="L260" s="4"/>
+      <c r="M260" s="4"/>
+      <c r="N260" s="4"/>
+      <c r="O260" s="4"/>
+      <c r="P260" s="4"/>
+      <c r="Q260" s="4"/>
+      <c r="R260" s="4"/>
+      <c r="S260" s="4"/>
+      <c r="T260" s="4"/>
+      <c r="U260" s="4"/>
+      <c r="V260" s="4"/>
+      <c r="W260" s="4"/>
+      <c r="X260" s="4"/>
+      <c r="Y260" s="4"/>
+      <c r="Z260" s="4"/>
+      <c r="AA260" s="4"/>
+      <c r="AB260" s="4"/>
+      <c r="AC260" s="4"/>
+      <c r="AD260" s="4"/>
+      <c r="AE260" s="4"/>
+      <c r="AF260" s="4"/>
+    </row>
+    <row r="261" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A261" s="4"/>
+      <c r="B261" s="4"/>
+      <c r="C261" s="4"/>
+      <c r="D261" s="4"/>
+      <c r="E261" s="4"/>
+      <c r="F261" s="4"/>
+      <c r="G261" s="4"/>
+      <c r="H261" s="4"/>
+      <c r="I261" s="4"/>
+      <c r="J261" s="4"/>
+      <c r="K261" s="4"/>
+      <c r="L261" s="4"/>
+      <c r="M261" s="4"/>
+      <c r="N261" s="4"/>
+      <c r="O261" s="4"/>
+      <c r="P261" s="4"/>
+      <c r="Q261" s="4"/>
+      <c r="R261" s="4"/>
+      <c r="S261" s="4"/>
+      <c r="T261" s="4"/>
+      <c r="U261" s="4"/>
+      <c r="V261" s="4"/>
+      <c r="W261" s="4"/>
+      <c r="X261" s="4"/>
+      <c r="Y261" s="4"/>
+      <c r="Z261" s="4"/>
+      <c r="AA261" s="4"/>
+      <c r="AB261" s="4"/>
+      <c r="AC261" s="4"/>
+      <c r="AD261" s="4"/>
+      <c r="AE261" s="4"/>
+      <c r="AF261" s="4"/>
+    </row>
+    <row r="262" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A262" s="4"/>
+      <c r="B262" s="4"/>
+      <c r="C262" s="4"/>
+      <c r="D262" s="4"/>
+      <c r="E262" s="4"/>
+      <c r="F262" s="4"/>
+      <c r="G262" s="4"/>
+      <c r="H262" s="4"/>
+      <c r="I262" s="4"/>
+      <c r="J262" s="4"/>
+      <c r="K262" s="4"/>
+      <c r="L262" s="4"/>
+      <c r="M262" s="4"/>
+      <c r="N262" s="4"/>
+      <c r="O262" s="4"/>
+      <c r="P262" s="4"/>
+      <c r="Q262" s="4"/>
+      <c r="R262" s="4"/>
+      <c r="S262" s="4"/>
+      <c r="T262" s="4"/>
+      <c r="U262" s="4"/>
+      <c r="V262" s="4"/>
+      <c r="W262" s="4"/>
+      <c r="X262" s="4"/>
+      <c r="Y262" s="4"/>
+      <c r="Z262" s="4"/>
+      <c r="AA262" s="4"/>
+      <c r="AB262" s="4"/>
+      <c r="AC262" s="4"/>
+      <c r="AD262" s="4"/>
+      <c r="AE262" s="4"/>
+      <c r="AF262" s="4"/>
+    </row>
+    <row r="263" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A263" s="4"/>
+      <c r="B263" s="4"/>
+      <c r="C263" s="4"/>
+      <c r="D263" s="4"/>
+      <c r="E263" s="4"/>
+      <c r="F263" s="4"/>
+      <c r="G263" s="4"/>
+      <c r="H263" s="4"/>
+      <c r="I263" s="4"/>
+      <c r="J263" s="4"/>
+      <c r="K263" s="4"/>
+      <c r="L263" s="4"/>
+      <c r="M263" s="4"/>
+      <c r="N263" s="4"/>
+      <c r="O263" s="4"/>
+      <c r="P263" s="4"/>
+      <c r="Q263" s="4"/>
+      <c r="R263" s="4"/>
+      <c r="S263" s="4"/>
+      <c r="T263" s="4"/>
+      <c r="U263" s="4"/>
+      <c r="V263" s="4"/>
+      <c r="W263" s="4"/>
+      <c r="X263" s="4"/>
+      <c r="Y263" s="4"/>
+      <c r="Z263" s="4"/>
+      <c r="AA263" s="4"/>
+      <c r="AB263" s="4"/>
+      <c r="AC263" s="4"/>
+      <c r="AD263" s="4"/>
+      <c r="AE263" s="4"/>
+      <c r="AF263" s="4"/>
+    </row>
+    <row r="264" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A264" s="4"/>
+      <c r="B264" s="4"/>
+      <c r="C264" s="4"/>
+      <c r="D264" s="4"/>
+      <c r="E264" s="4"/>
+      <c r="F264" s="4"/>
+      <c r="G264" s="4"/>
+      <c r="H264" s="4"/>
+      <c r="I264" s="4"/>
+      <c r="J264" s="4"/>
+      <c r="K264" s="4"/>
+      <c r="L264" s="4"/>
+      <c r="M264" s="4"/>
+      <c r="N264" s="4"/>
+      <c r="O264" s="4"/>
+      <c r="P264" s="4"/>
+      <c r="Q264" s="4"/>
+      <c r="R264" s="4"/>
+      <c r="S264" s="4"/>
+      <c r="T264" s="4"/>
+      <c r="U264" s="4"/>
+      <c r="V264" s="4"/>
+      <c r="W264" s="4"/>
+      <c r="X264" s="4"/>
+      <c r="Y264" s="4"/>
+      <c r="Z264" s="4"/>
+      <c r="AA264" s="4"/>
+      <c r="AB264" s="4"/>
+      <c r="AC264" s="4"/>
+      <c r="AD264" s="4"/>
+      <c r="AE264" s="4"/>
+      <c r="AF264" s="4"/>
+    </row>
+    <row r="265" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A265" s="4"/>
+      <c r="B265" s="4"/>
+      <c r="C265" s="4"/>
+      <c r="D265" s="4"/>
+      <c r="E265" s="4"/>
+      <c r="F265" s="4"/>
+      <c r="G265" s="4"/>
+      <c r="H265" s="4"/>
+      <c r="I265" s="4"/>
+      <c r="J265" s="4"/>
+      <c r="K265" s="4"/>
+      <c r="L265" s="4"/>
+      <c r="M265" s="4"/>
+      <c r="N265" s="4"/>
+      <c r="O265" s="4"/>
+      <c r="P265" s="4"/>
+      <c r="Q265" s="4"/>
+      <c r="R265" s="4"/>
+      <c r="S265" s="4"/>
+      <c r="T265" s="4"/>
+      <c r="U265" s="4"/>
+      <c r="V265" s="4"/>
+      <c r="W265" s="4"/>
+      <c r="X265" s="4"/>
+      <c r="Y265" s="4"/>
+      <c r="Z265" s="4"/>
+      <c r="AA265" s="4"/>
+      <c r="AB265" s="4"/>
+      <c r="AC265" s="4"/>
+      <c r="AD265" s="4"/>
+      <c r="AE265" s="4"/>
+      <c r="AF265" s="4"/>
+    </row>
+    <row r="266" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A266" s="4"/>
+      <c r="B266" s="4"/>
+      <c r="C266" s="4"/>
+      <c r="D266" s="4"/>
+      <c r="E266" s="4"/>
+      <c r="F266" s="4"/>
+      <c r="G266" s="4"/>
+      <c r="H266" s="4"/>
+      <c r="I266" s="4"/>
+      <c r="J266" s="4"/>
+      <c r="K266" s="4"/>
+      <c r="L266" s="4"/>
+      <c r="M266" s="4"/>
+      <c r="N266" s="4"/>
+      <c r="O266" s="4"/>
+      <c r="P266" s="4"/>
+      <c r="Q266" s="4"/>
+      <c r="R266" s="4"/>
+      <c r="S266" s="4"/>
+      <c r="T266" s="4"/>
+      <c r="U266" s="4"/>
+      <c r="V266" s="4"/>
+      <c r="W266" s="4"/>
+      <c r="X266" s="4"/>
+      <c r="Y266" s="4"/>
+      <c r="Z266" s="4"/>
+      <c r="AA266" s="4"/>
+      <c r="AB266" s="4"/>
+      <c r="AC266" s="4"/>
+      <c r="AD266" s="4"/>
+      <c r="AE266" s="4"/>
+      <c r="AF266" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E8:E9"/>
@@ -10554,10 +11662,10 @@
   <hyperlinks>
     <hyperlink ref="E8" location="_ftn1" display="_ftn1"/>
     <hyperlink ref="F8" location="_ftn2" display="_ftn2"/>
-    <hyperlink ref="E147" location="_ftnref4" display="_ftnref4"/>
-    <hyperlink ref="E146" location="_ftnref3" display="_ftnref3"/>
-    <hyperlink ref="E145" location="_ftnref2" display="_ftnref2"/>
-    <hyperlink ref="E144" location="_ftnref1" display="_ftnref1"/>
+    <hyperlink ref="E170" location="_ftnref4" display="_ftnref4"/>
+    <hyperlink ref="E169" location="_ftnref3" display="_ftnref3"/>
+    <hyperlink ref="E168" location="_ftnref2" display="_ftnref2"/>
+    <hyperlink ref="E167" location="_ftnref1" display="_ftnref1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>

--- a/Requerimientos funcionales/Requerimientos Funcionales.xlsx
+++ b/Requerimientos funcionales/Requerimientos Funcionales.xlsx
@@ -10,10 +10,10 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_ftn1" localSheetId="0">Hoja1!$B$147</definedName>
-    <definedName name="_ftn2" localSheetId="0">Hoja1!$B$148</definedName>
-    <definedName name="_ftn3" localSheetId="0">Hoja1!$B$155</definedName>
-    <definedName name="_ftn4" localSheetId="0">Hoja1!$B$157</definedName>
+    <definedName name="_ftn1" localSheetId="0">Hoja1!$B$148</definedName>
+    <definedName name="_ftn2" localSheetId="0">Hoja1!$B$149</definedName>
+    <definedName name="_ftn3" localSheetId="0">Hoja1!$B$156</definedName>
+    <definedName name="_ftn4" localSheetId="0">Hoja1!$B$158</definedName>
     <definedName name="_ftnref1" localSheetId="0">Hoja1!$B$7</definedName>
     <definedName name="_ftnref2" localSheetId="0">Hoja1!$C$7</definedName>
   </definedNames>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="319">
   <si>
     <t>Especificación de Requerimientos Funcionales</t>
   </si>
@@ -183,9 +183,6 @@
     <t>Registrar productos</t>
   </si>
   <si>
-    <t>Ingresar el tipo de Rol: se debe indicar si el usuario es administrador o vendedor, el dueño es el que puede confirmar la solicitud como administrador.</t>
-  </si>
-  <si>
     <t>RF-CP 3.1</t>
   </si>
   <si>
@@ -1009,6 +1006,15 @@
   </si>
   <si>
     <t>El sistema debe indicar que los datos se han ingresado correctamente</t>
+  </si>
+  <si>
+    <t>RF-GU 1.11</t>
+  </si>
+  <si>
+    <t>El sistema debe guardar los datos del usuario</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar las opciones para seleccionar el tipo de usuario: Administrador o Empleado</t>
   </si>
 </sst>
 </file>
@@ -1521,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF266"/>
+  <dimension ref="A1:AF267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F159" sqref="F159"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1779,7 +1785,7 @@
         <v>21</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>9</v>
@@ -1821,7 +1827,7 @@
         <v>22</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>16</v>
@@ -1863,7 +1869,7 @@
         <v>23</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>9</v>
@@ -1905,7 +1911,7 @@
         <v>24</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>9</v>
@@ -1947,7 +1953,7 @@
         <v>25</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>41</v>
+        <v>318</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>9</v>
@@ -2070,7 +2076,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>30</v>
@@ -2112,10 +2118,10 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>17</v>
@@ -2154,10 +2160,10 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>9</v>
@@ -2190,100 +2196,100 @@
       <c r="AE21" s="9"/>
       <c r="AF21" s="9"/>
     </row>
-    <row r="22" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="13" t="s">
+    <row r="22" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+    </row>
+    <row r="23" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-    </row>
-    <row r="23" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-    </row>
-    <row r="24" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+    </row>
+    <row r="24" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="10" t="s">
-        <v>253</v>
+        <v>33</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>221</v>
+        <v>34</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>9</v>
@@ -2316,13 +2322,13 @@
       <c r="AE24" s="9"/>
       <c r="AF24" s="9"/>
     </row>
-    <row r="25" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>220</v>
@@ -2364,10 +2370,10 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="10" t="s">
-        <v>35</v>
+        <v>253</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>9</v>
@@ -2400,16 +2406,16 @@
       <c r="AE26" s="9"/>
       <c r="AF26" s="9"/>
     </row>
-    <row r="27" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>9</v>
@@ -2442,22 +2448,22 @@
       <c r="AE27" s="9"/>
       <c r="AF27" s="9"/>
     </row>
-    <row r="28" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="10" t="s">
-        <v>265</v>
+        <v>36</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2484,22 +2490,22 @@
       <c r="AE28" s="9"/>
       <c r="AF28" s="9"/>
     </row>
-    <row r="29" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2526,61 +2532,61 @@
       <c r="AE29" s="9"/>
       <c r="AF29" s="9"/>
     </row>
-    <row r="30" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
-      <c r="AD30" s="4"/>
-      <c r="AE30" s="4"/>
-      <c r="AF30" s="4"/>
+    <row r="30" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
     </row>
     <row r="31" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -2611,17 +2617,17 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="10" t="s">
+      <c r="E32" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="10" t="s">
-        <v>11</v>
+      <c r="H32" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -2654,16 +2660,16 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>255</v>
+        <v>38</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -2690,7 +2696,7 @@
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
     </row>
-    <row r="34" spans="1:32" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2698,14 +2704,14 @@
       <c r="E34" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>223</v>
+      <c r="F34" s="11" t="s">
+        <v>254</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -2732,16 +2738,16 @@
       <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
     </row>
-    <row r="35" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>9</v>
@@ -2774,22 +2780,22 @@
       <c r="AE35" s="4"/>
       <c r="AF35" s="4"/>
     </row>
-    <row r="36" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>275</v>
+        <v>44</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -2816,22 +2822,22 @@
       <c r="AE36" s="4"/>
       <c r="AF36" s="4"/>
     </row>
-    <row r="37" spans="1:32" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="10" t="s">
-        <v>47</v>
+        <v>224</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>222</v>
+        <v>274</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -2858,21 +2864,21 @@
       <c r="AE37" s="4"/>
       <c r="AF37" s="4"/>
     </row>
-    <row r="38" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="10" t="s">
-        <v>269</v>
+        <v>46</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="10" t="s">
         <v>11</v>
       </c>
       <c r="I38" s="4"/>
@@ -2909,13 +2915,13 @@
         <v>268</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -2948,13 +2954,13 @@
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>226</v>
+        <v>47</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>10</v>
@@ -2990,10 +2996,10 @@
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>16</v>
@@ -3032,13 +3038,13 @@
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>66</v>
+        <v>226</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H42" s="11" t="s">
         <v>10</v>
@@ -3074,15 +3080,15 @@
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="G43" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I43" s="4"/>
@@ -3116,13 +3122,17 @@
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
+        <v>227</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -3148,23 +3158,19 @@
       <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>
     </row>
-    <row r="45" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>10</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -3196,10 +3202,10 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="10" t="s">
-        <v>49</v>
+        <v>275</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>9</v>
@@ -3232,21 +3238,21 @@
       <c r="AE46" s="4"/>
       <c r="AF46" s="4"/>
     </row>
-    <row r="47" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G47" s="8" t="s">
+      <c r="E47" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="G47" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H47" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I47" s="4"/>
@@ -3274,58 +3280,58 @@
       <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
     </row>
-    <row r="48" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G48" s="11" t="s">
+    <row r="48" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="9"/>
-      <c r="AB48" s="9"/>
-      <c r="AC48" s="9"/>
-      <c r="AD48" s="9"/>
-      <c r="AE48" s="9"/>
-      <c r="AF48" s="9"/>
-    </row>
-    <row r="49" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="4"/>
+      <c r="AE48" s="4"/>
+      <c r="AF48" s="4"/>
+    </row>
+    <row r="49" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>9</v>
@@ -3364,10 +3370,10 @@
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="E50" s="10" t="s">
-        <v>229</v>
+        <v>53</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>277</v>
+        <v>54</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>9</v>
@@ -3400,100 +3406,100 @@
       <c r="AE50" s="9"/>
       <c r="AF50" s="9"/>
     </row>
-    <row r="51" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F51" s="8" t="s">
+    <row r="51" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="9"/>
+      <c r="AC51" s="9"/>
+      <c r="AD51" s="9"/>
+      <c r="AE51" s="9"/>
+      <c r="AF51" s="9"/>
+    </row>
+    <row r="52" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="F52" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H52" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="4"/>
-      <c r="Z51" s="4"/>
-      <c r="AA51" s="4"/>
-      <c r="AB51" s="4"/>
-      <c r="AC51" s="4"/>
-      <c r="AD51" s="4"/>
-      <c r="AE51" s="4"/>
-      <c r="AF51" s="4"/>
-    </row>
-    <row r="52" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
-      <c r="AA52" s="9"/>
-      <c r="AB52" s="9"/>
-      <c r="AC52" s="9"/>
-      <c r="AD52" s="9"/>
-      <c r="AE52" s="9"/>
-      <c r="AF52" s="9"/>
-    </row>
-    <row r="53" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="4"/>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="4"/>
+    </row>
+    <row r="53" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="10" t="s">
-        <v>280</v>
+        <v>57</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>9</v>
@@ -3532,10 +3538,10 @@
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="10" t="s">
-        <v>59</v>
+        <v>279</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="G54" s="11" t="s">
         <v>9</v>
@@ -3568,16 +3574,16 @@
       <c r="AE54" s="9"/>
       <c r="AF54" s="9"/>
     </row>
-    <row r="55" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="10" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>231</v>
+        <v>59</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>9</v>
@@ -3610,22 +3616,22 @@
       <c r="AE55" s="9"/>
       <c r="AF55" s="9"/>
     </row>
-    <row r="56" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="10" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3652,21 +3658,21 @@
       <c r="AE56" s="9"/>
       <c r="AF56" s="9"/>
     </row>
-    <row r="57" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G57" s="8" t="s">
+      <c r="E57" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="G57" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H57" s="8" t="s">
+      <c r="H57" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I57" s="9"/>
@@ -3699,17 +3705,17 @@
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
-      <c r="E58" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G58" s="10" t="s">
+      <c r="E58" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G58" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H58" s="10" t="s">
-        <v>11</v>
+      <c r="H58" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3736,22 +3742,22 @@
       <c r="AE58" s="9"/>
       <c r="AF58" s="9"/>
     </row>
-    <row r="59" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G59" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G59" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H59" s="11" t="s">
-        <v>10</v>
+      <c r="H59" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3784,10 +3790,10 @@
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>9</v>
@@ -3820,16 +3826,16 @@
       <c r="AE60" s="9"/>
       <c r="AF60" s="9"/>
     </row>
-    <row r="61" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G61" s="11" t="s">
         <v>9</v>
@@ -3862,22 +3868,22 @@
       <c r="AE61" s="9"/>
       <c r="AF61" s="9"/>
     </row>
-    <row r="62" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>257</v>
+        <v>63</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3910,16 +3916,16 @@
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3946,61 +3952,61 @@
       <c r="AE63" s="9"/>
       <c r="AF63" s="9"/>
     </row>
-    <row r="64" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="4"/>
-      <c r="U64" s="4"/>
-      <c r="V64" s="4"/>
-      <c r="W64" s="4"/>
-      <c r="X64" s="4"/>
-      <c r="Y64" s="4"/>
-      <c r="Z64" s="4"/>
-      <c r="AA64" s="4"/>
-      <c r="AB64" s="4"/>
-      <c r="AC64" s="4"/>
-      <c r="AD64" s="4"/>
-      <c r="AE64" s="4"/>
-      <c r="AF64" s="4"/>
+    <row r="64" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="9"/>
+      <c r="Y64" s="9"/>
+      <c r="Z64" s="9"/>
+      <c r="AA64" s="9"/>
+      <c r="AB64" s="9"/>
+      <c r="AC64" s="9"/>
+      <c r="AD64" s="9"/>
+      <c r="AE64" s="9"/>
+      <c r="AF64" s="9"/>
     </row>
     <row r="65" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="E65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
@@ -4026,21 +4032,21 @@
       <c r="AE65" s="4"/>
       <c r="AF65" s="4"/>
     </row>
-    <row r="66" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G66" s="11" t="s">
+      <c r="E66" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G66" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H66" s="11" t="s">
+      <c r="H66" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I66" s="4"/>
@@ -4068,16 +4074,16 @@
       <c r="AE66" s="4"/>
       <c r="AF66" s="4"/>
     </row>
-    <row r="67" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>9</v>
@@ -4110,19 +4116,19 @@
       <c r="AE67" s="4"/>
       <c r="AF67" s="4"/>
     </row>
-    <row r="68" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H68" s="11" t="s">
         <v>10</v>
@@ -4158,13 +4164,13 @@
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>283</v>
+        <v>86</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H69" s="11" t="s">
         <v>10</v>
@@ -4194,16 +4200,16 @@
       <c r="AE69" s="4"/>
       <c r="AF69" s="4"/>
     </row>
-    <row r="70" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>86</v>
+        <v>282</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>9</v>
@@ -4242,13 +4248,13 @@
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="10" t="s">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>285</v>
+        <v>85</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H71" s="11" t="s">
         <v>10</v>
@@ -4284,13 +4290,13 @@
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="10" t="s">
-        <v>84</v>
+        <v>283</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H72" s="11" t="s">
         <v>10</v>
@@ -4325,17 +4331,17 @@
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>11</v>
+      <c r="E73" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
@@ -4362,58 +4368,58 @@
       <c r="AE73" s="4"/>
       <c r="AF73" s="4"/>
     </row>
-    <row r="74" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G74" s="11" t="s">
+    <row r="74" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G74" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H74" s="11" t="s">
+      <c r="H74" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="9"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="9"/>
-      <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
-      <c r="X74" s="9"/>
-      <c r="Y74" s="9"/>
-      <c r="Z74" s="9"/>
-      <c r="AA74" s="9"/>
-      <c r="AB74" s="9"/>
-      <c r="AC74" s="9"/>
-      <c r="AD74" s="9"/>
-      <c r="AE74" s="9"/>
-      <c r="AF74" s="9"/>
-    </row>
-    <row r="75" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4"/>
+      <c r="AA74" s="4"/>
+      <c r="AB74" s="4"/>
+      <c r="AC74" s="4"/>
+      <c r="AD74" s="4"/>
+      <c r="AE74" s="4"/>
+      <c r="AF74" s="4"/>
+    </row>
+    <row r="75" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G75" s="11" t="s">
         <v>16</v>
@@ -4452,13 +4458,13 @@
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="10" t="s">
-        <v>286</v>
+        <v>91</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>287</v>
+        <v>90</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H76" s="11" t="s">
         <v>11</v>
@@ -4488,100 +4494,100 @@
       <c r="AE76" s="9"/>
       <c r="AF76" s="9"/>
     </row>
-    <row r="77" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G77" s="8" t="s">
+    <row r="77" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="9"/>
+      <c r="Y77" s="9"/>
+      <c r="Z77" s="9"/>
+      <c r="AA77" s="9"/>
+      <c r="AB77" s="9"/>
+      <c r="AC77" s="9"/>
+      <c r="AD77" s="9"/>
+      <c r="AE77" s="9"/>
+      <c r="AF77" s="9"/>
+    </row>
+    <row r="78" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G78" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H77" s="8" t="s">
+      <c r="H78" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-      <c r="S77" s="4"/>
-      <c r="T77" s="4"/>
-      <c r="U77" s="4"/>
-      <c r="V77" s="4"/>
-      <c r="W77" s="4"/>
-      <c r="X77" s="4"/>
-      <c r="Y77" s="4"/>
-      <c r="Z77" s="4"/>
-      <c r="AA77" s="4"/>
-      <c r="AB77" s="4"/>
-      <c r="AC77" s="4"/>
-      <c r="AD77" s="4"/>
-      <c r="AE77" s="4"/>
-      <c r="AF77" s="4"/>
-    </row>
-    <row r="78" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="9"/>
-      <c r="S78" s="9"/>
-      <c r="T78" s="9"/>
-      <c r="U78" s="9"/>
-      <c r="V78" s="9"/>
-      <c r="W78" s="9"/>
-      <c r="X78" s="9"/>
-      <c r="Y78" s="9"/>
-      <c r="Z78" s="9"/>
-      <c r="AA78" s="9"/>
-      <c r="AB78" s="9"/>
-      <c r="AC78" s="9"/>
-      <c r="AD78" s="9"/>
-      <c r="AE78" s="9"/>
-      <c r="AF78" s="9"/>
-    </row>
-    <row r="79" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4"/>
+      <c r="AA78" s="4"/>
+      <c r="AB78" s="4"/>
+      <c r="AC78" s="4"/>
+      <c r="AD78" s="4"/>
+      <c r="AE78" s="4"/>
+      <c r="AF78" s="4"/>
+    </row>
+    <row r="79" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="10" t="s">
-        <v>288</v>
+        <v>93</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>289</v>
+        <v>95</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>16</v>
@@ -4614,89 +4620,89 @@
       <c r="AE79" s="9"/>
       <c r="AF79" s="9"/>
     </row>
-    <row r="80" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="13" t="s">
+    <row r="80" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
+      <c r="W80" s="9"/>
+      <c r="X80" s="9"/>
+      <c r="Y80" s="9"/>
+      <c r="Z80" s="9"/>
+      <c r="AA80" s="9"/>
+      <c r="AB80" s="9"/>
+      <c r="AC80" s="9"/>
+      <c r="AD80" s="9"/>
+      <c r="AE80" s="9"/>
+      <c r="AF80" s="9"/>
+    </row>
+    <row r="81" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F81" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F80" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G80" s="8" t="s">
+      <c r="G81" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H80" s="8" t="s">
+      <c r="H81" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
-      <c r="S80" s="4"/>
-      <c r="T80" s="4"/>
-      <c r="U80" s="4"/>
-      <c r="V80" s="4"/>
-      <c r="W80" s="4"/>
-      <c r="X80" s="4"/>
-      <c r="Y80" s="4"/>
-      <c r="Z80" s="4"/>
-      <c r="AA80" s="4"/>
-      <c r="AB80" s="4"/>
-      <c r="AC80" s="4"/>
-      <c r="AD80" s="4"/>
-      <c r="AE80" s="4"/>
-      <c r="AF80" s="4"/>
-    </row>
-    <row r="81" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
-      <c r="M81" s="9"/>
-      <c r="N81" s="9"/>
-      <c r="O81" s="9"/>
-      <c r="P81" s="9"/>
-      <c r="Q81" s="9"/>
-      <c r="R81" s="9"/>
-      <c r="S81" s="9"/>
-      <c r="T81" s="9"/>
-      <c r="U81" s="9"/>
-      <c r="V81" s="9"/>
-      <c r="W81" s="9"/>
-      <c r="X81" s="9"/>
-      <c r="Y81" s="9"/>
-      <c r="Z81" s="9"/>
-      <c r="AA81" s="9"/>
-      <c r="AB81" s="9"/>
-      <c r="AC81" s="9"/>
-      <c r="AD81" s="9"/>
-      <c r="AE81" s="9"/>
-      <c r="AF81" s="9"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="4"/>
+      <c r="AA81" s="4"/>
+      <c r="AB81" s="4"/>
+      <c r="AC81" s="4"/>
+      <c r="AD81" s="4"/>
+      <c r="AE81" s="4"/>
+      <c r="AF81" s="4"/>
     </row>
     <row r="82" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
@@ -4704,16 +4710,16 @@
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="10" t="s">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>291</v>
+        <v>100</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4740,22 +4746,22 @@
       <c r="AE82" s="9"/>
       <c r="AF82" s="9"/>
     </row>
-    <row r="83" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="10" t="s">
-        <v>100</v>
+        <v>289</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>102</v>
+        <v>290</v>
       </c>
       <c r="G83" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4782,22 +4788,22 @@
       <c r="AE83" s="9"/>
       <c r="AF83" s="9"/>
     </row>
-    <row r="84" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="10" t="s">
-        <v>292</v>
+        <v>99</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>293</v>
+        <v>101</v>
       </c>
       <c r="G84" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4824,106 +4830,106 @@
       <c r="AE84" s="9"/>
       <c r="AF84" s="9"/>
     </row>
-    <row r="85" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G85" s="8" t="s">
+    <row r="85" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="G85" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H85" s="8" t="s">
+      <c r="H85" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="4"/>
-      <c r="S85" s="4"/>
-      <c r="T85" s="4"/>
-      <c r="U85" s="4"/>
-      <c r="V85" s="4"/>
-      <c r="W85" s="4"/>
-      <c r="X85" s="4"/>
-      <c r="Y85" s="4"/>
-      <c r="Z85" s="4"/>
-      <c r="AA85" s="4"/>
-      <c r="AB85" s="4"/>
-      <c r="AC85" s="4"/>
-      <c r="AD85" s="4"/>
-      <c r="AE85" s="4"/>
-      <c r="AF85" s="4"/>
-    </row>
-    <row r="86" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="9"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G86" s="11" t="s">
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
+      <c r="U85" s="9"/>
+      <c r="V85" s="9"/>
+      <c r="W85" s="9"/>
+      <c r="X85" s="9"/>
+      <c r="Y85" s="9"/>
+      <c r="Z85" s="9"/>
+      <c r="AA85" s="9"/>
+      <c r="AB85" s="9"/>
+      <c r="AC85" s="9"/>
+      <c r="AD85" s="9"/>
+      <c r="AE85" s="9"/>
+      <c r="AF85" s="9"/>
+    </row>
+    <row r="86" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G86" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H86" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="9"/>
-      <c r="O86" s="9"/>
-      <c r="P86" s="9"/>
-      <c r="Q86" s="9"/>
-      <c r="R86" s="9"/>
-      <c r="S86" s="9"/>
-      <c r="T86" s="9"/>
-      <c r="U86" s="9"/>
-      <c r="V86" s="9"/>
-      <c r="W86" s="9"/>
-      <c r="X86" s="9"/>
-      <c r="Y86" s="9"/>
-      <c r="Z86" s="9"/>
-      <c r="AA86" s="9"/>
-      <c r="AB86" s="9"/>
-      <c r="AC86" s="9"/>
-      <c r="AD86" s="9"/>
-      <c r="AE86" s="9"/>
-      <c r="AF86" s="9"/>
-    </row>
-    <row r="87" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H86" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+      <c r="S86" s="4"/>
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="4"/>
+      <c r="X86" s="4"/>
+      <c r="Y86" s="4"/>
+      <c r="Z86" s="4"/>
+      <c r="AA86" s="4"/>
+      <c r="AB86" s="4"/>
+      <c r="AC86" s="4"/>
+      <c r="AD86" s="4"/>
+      <c r="AE86" s="4"/>
+      <c r="AF86" s="4"/>
+    </row>
+    <row r="87" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="10" t="s">
-        <v>294</v>
+        <v>103</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>295</v>
+        <v>106</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4950,16 +4956,16 @@
       <c r="AE87" s="9"/>
       <c r="AF87" s="9"/>
     </row>
-    <row r="88" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="10" t="s">
-        <v>105</v>
+        <v>293</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>108</v>
+        <v>294</v>
       </c>
       <c r="G88" s="11" t="s">
         <v>9</v>
@@ -4998,10 +5004,10 @@
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="10" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>296</v>
+        <v>107</v>
       </c>
       <c r="G89" s="11" t="s">
         <v>9</v>
@@ -5040,10 +5046,10 @@
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>119</v>
+        <v>295</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>9</v>
@@ -5076,63 +5082,63 @@
       <c r="AE90" s="9"/>
       <c r="AF90" s="9"/>
     </row>
-    <row r="91" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G91" s="8" t="s">
+    <row r="91" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G91" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H91" s="8" t="s">
+      <c r="H91" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
-      <c r="Q91" s="4"/>
-      <c r="R91" s="4"/>
-      <c r="S91" s="4"/>
-      <c r="T91" s="4"/>
-      <c r="U91" s="4"/>
-      <c r="V91" s="4"/>
-      <c r="W91" s="4"/>
-      <c r="X91" s="4"/>
-      <c r="Y91" s="4"/>
-      <c r="Z91" s="4"/>
-      <c r="AA91" s="4"/>
-      <c r="AB91" s="4"/>
-      <c r="AC91" s="4"/>
-      <c r="AD91" s="4"/>
-      <c r="AE91" s="4"/>
-      <c r="AF91" s="4"/>
-    </row>
-    <row r="92" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+      <c r="U91" s="9"/>
+      <c r="V91" s="9"/>
+      <c r="W91" s="9"/>
+      <c r="X91" s="9"/>
+      <c r="Y91" s="9"/>
+      <c r="Z91" s="9"/>
+      <c r="AA91" s="9"/>
+      <c r="AB91" s="9"/>
+      <c r="AC91" s="9"/>
+      <c r="AD91" s="9"/>
+      <c r="AE91" s="9"/>
+      <c r="AF91" s="9"/>
+    </row>
+    <row r="92" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="G92" s="11" t="s">
+      <c r="E92" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G92" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H92" s="11" t="s">
+      <c r="H92" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I92" s="4"/>
@@ -5166,10 +5172,10 @@
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>9</v>
@@ -5208,10 +5214,10 @@
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>9</v>
@@ -5244,16 +5250,16 @@
       <c r="AE94" s="4"/>
       <c r="AF94" s="4"/>
     </row>
-    <row r="95" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>9</v>
@@ -5292,13 +5298,13 @@
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="10" t="s">
-        <v>205</v>
+        <v>116</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H96" s="11" t="s">
         <v>10</v>
@@ -5328,19 +5334,19 @@
       <c r="AE96" s="4"/>
       <c r="AF96" s="4"/>
     </row>
-    <row r="97" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="10" t="s">
-        <v>297</v>
+        <v>204</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>261</v>
+        <v>203</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H97" s="11" t="s">
         <v>10</v>
@@ -5370,19 +5376,23 @@
       <c r="AE97" s="4"/>
       <c r="AF97" s="4"/>
     </row>
-    <row r="98" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
+      <c r="E98" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
@@ -5413,18 +5423,14 @@
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H99" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="E99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
@@ -5455,16 +5461,16 @@
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="G100" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H100" s="11" t="s">
+      <c r="E100" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="8" t="s">
         <v>11</v>
       </c>
       <c r="I100" s="4"/>
@@ -5492,61 +5498,61 @@
       <c r="AE100" s="4"/>
       <c r="AF100" s="4"/>
     </row>
-    <row r="101" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
+    <row r="101" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
       <c r="E101" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H101" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I101" s="9"/>
-      <c r="J101" s="9"/>
-      <c r="K101" s="9"/>
-      <c r="L101" s="9"/>
-      <c r="M101" s="9"/>
-      <c r="N101" s="9"/>
-      <c r="O101" s="9"/>
-      <c r="P101" s="9"/>
-      <c r="Q101" s="9"/>
-      <c r="R101" s="9"/>
-      <c r="S101" s="9"/>
-      <c r="T101" s="9"/>
-      <c r="U101" s="9"/>
-      <c r="V101" s="9"/>
-      <c r="W101" s="9"/>
-      <c r="X101" s="9"/>
-      <c r="Y101" s="9"/>
-      <c r="Z101" s="9"/>
-      <c r="AA101" s="9"/>
-      <c r="AB101" s="9"/>
-      <c r="AC101" s="9"/>
-      <c r="AD101" s="9"/>
-      <c r="AE101" s="9"/>
-      <c r="AF101" s="9"/>
-    </row>
-    <row r="102" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4"/>
+      <c r="S101" s="4"/>
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="4"/>
+      <c r="W101" s="4"/>
+      <c r="X101" s="4"/>
+      <c r="Y101" s="4"/>
+      <c r="Z101" s="4"/>
+      <c r="AA101" s="4"/>
+      <c r="AB101" s="4"/>
+      <c r="AC101" s="4"/>
+      <c r="AD101" s="4"/>
+      <c r="AE101" s="4"/>
+      <c r="AF101" s="4"/>
+    </row>
+    <row r="102" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="10" t="s">
-        <v>298</v>
+        <v>128</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>299</v>
+        <v>125</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H102" s="11" t="s">
         <v>11</v>
@@ -5576,89 +5582,89 @@
       <c r="AE102" s="9"/>
       <c r="AF102" s="9"/>
     </row>
-    <row r="103" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="13" t="s">
+    <row r="103" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="9"/>
+      <c r="S103" s="9"/>
+      <c r="T103" s="9"/>
+      <c r="U103" s="9"/>
+      <c r="V103" s="9"/>
+      <c r="W103" s="9"/>
+      <c r="X103" s="9"/>
+      <c r="Y103" s="9"/>
+      <c r="Z103" s="9"/>
+      <c r="AA103" s="9"/>
+      <c r="AB103" s="9"/>
+      <c r="AC103" s="9"/>
+      <c r="AD103" s="9"/>
+      <c r="AE103" s="9"/>
+      <c r="AF103" s="9"/>
+    </row>
+    <row r="104" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F104" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F103" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="G103" s="8" t="s">
+      <c r="G104" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H103" s="8" t="s">
+      <c r="H104" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
-      <c r="M103" s="4"/>
-      <c r="N103" s="4"/>
-      <c r="O103" s="4"/>
-      <c r="P103" s="4"/>
-      <c r="Q103" s="4"/>
-      <c r="R103" s="4"/>
-      <c r="S103" s="4"/>
-      <c r="T103" s="4"/>
-      <c r="U103" s="4"/>
-      <c r="V103" s="4"/>
-      <c r="W103" s="4"/>
-      <c r="X103" s="4"/>
-      <c r="Y103" s="4"/>
-      <c r="Z103" s="4"/>
-      <c r="AA103" s="4"/>
-      <c r="AB103" s="4"/>
-      <c r="AC103" s="4"/>
-      <c r="AD103" s="4"/>
-      <c r="AE103" s="4"/>
-      <c r="AF103" s="4"/>
-    </row>
-    <row r="104" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="9"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F104" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="G104" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H104" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I104" s="9"/>
-      <c r="J104" s="9"/>
-      <c r="K104" s="9"/>
-      <c r="L104" s="9"/>
-      <c r="M104" s="9"/>
-      <c r="N104" s="9"/>
-      <c r="O104" s="9"/>
-      <c r="P104" s="9"/>
-      <c r="Q104" s="9"/>
-      <c r="R104" s="9"/>
-      <c r="S104" s="9"/>
-      <c r="T104" s="9"/>
-      <c r="U104" s="9"/>
-      <c r="V104" s="9"/>
-      <c r="W104" s="9"/>
-      <c r="X104" s="9"/>
-      <c r="Y104" s="9"/>
-      <c r="Z104" s="9"/>
-      <c r="AA104" s="9"/>
-      <c r="AB104" s="9"/>
-      <c r="AC104" s="9"/>
-      <c r="AD104" s="9"/>
-      <c r="AE104" s="9"/>
-      <c r="AF104" s="9"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="4"/>
+      <c r="S104" s="4"/>
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+      <c r="V104" s="4"/>
+      <c r="W104" s="4"/>
+      <c r="X104" s="4"/>
+      <c r="Y104" s="4"/>
+      <c r="Z104" s="4"/>
+      <c r="AA104" s="4"/>
+      <c r="AB104" s="4"/>
+      <c r="AC104" s="4"/>
+      <c r="AD104" s="4"/>
+      <c r="AE104" s="4"/>
+      <c r="AF104" s="4"/>
     </row>
     <row r="105" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9"/>
@@ -5666,10 +5672,10 @@
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
       <c r="E105" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>9</v>
@@ -5708,13 +5714,13 @@
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H106" s="11" t="s">
         <v>10</v>
@@ -5744,19 +5750,19 @@
       <c r="AE106" s="9"/>
       <c r="AF106" s="9"/>
     </row>
-    <row r="107" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="10" t="s">
-        <v>300</v>
+        <v>133</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>261</v>
+        <v>136</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H107" s="11" t="s">
         <v>10</v>
@@ -5786,89 +5792,89 @@
       <c r="AE107" s="9"/>
       <c r="AF107" s="9"/>
     </row>
-    <row r="108" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="G108" s="8" t="s">
+    <row r="108" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="G108" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H108" s="8" t="s">
+      <c r="H108" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
-      <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
-      <c r="M108" s="4"/>
-      <c r="N108" s="4"/>
-      <c r="O108" s="4"/>
-      <c r="P108" s="4"/>
-      <c r="Q108" s="4"/>
-      <c r="R108" s="4"/>
-      <c r="S108" s="4"/>
-      <c r="T108" s="4"/>
-      <c r="U108" s="4"/>
-      <c r="V108" s="4"/>
-      <c r="W108" s="4"/>
-      <c r="X108" s="4"/>
-      <c r="Y108" s="4"/>
-      <c r="Z108" s="4"/>
-      <c r="AA108" s="4"/>
-      <c r="AB108" s="4"/>
-      <c r="AC108" s="4"/>
-      <c r="AD108" s="4"/>
-      <c r="AE108" s="4"/>
-      <c r="AF108" s="4"/>
-    </row>
-    <row r="109" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="9"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G109" s="11" t="s">
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="9"/>
+      <c r="R108" s="9"/>
+      <c r="S108" s="9"/>
+      <c r="T108" s="9"/>
+      <c r="U108" s="9"/>
+      <c r="V108" s="9"/>
+      <c r="W108" s="9"/>
+      <c r="X108" s="9"/>
+      <c r="Y108" s="9"/>
+      <c r="Z108" s="9"/>
+      <c r="AA108" s="9"/>
+      <c r="AB108" s="9"/>
+      <c r="AC108" s="9"/>
+      <c r="AD108" s="9"/>
+      <c r="AE108" s="9"/>
+      <c r="AF108" s="9"/>
+    </row>
+    <row r="109" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="G109" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H109" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I109" s="9"/>
-      <c r="J109" s="9"/>
-      <c r="K109" s="9"/>
-      <c r="L109" s="9"/>
-      <c r="M109" s="9"/>
-      <c r="N109" s="9"/>
-      <c r="O109" s="9"/>
-      <c r="P109" s="9"/>
-      <c r="Q109" s="9"/>
-      <c r="R109" s="9"/>
-      <c r="S109" s="9"/>
-      <c r="T109" s="9"/>
-      <c r="U109" s="9"/>
-      <c r="V109" s="9"/>
-      <c r="W109" s="9"/>
-      <c r="X109" s="9"/>
-      <c r="Y109" s="9"/>
-      <c r="Z109" s="9"/>
-      <c r="AA109" s="9"/>
-      <c r="AB109" s="9"/>
-      <c r="AC109" s="9"/>
-      <c r="AD109" s="9"/>
-      <c r="AE109" s="9"/>
-      <c r="AF109" s="9"/>
+      <c r="H109" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
+      <c r="R109" s="4"/>
+      <c r="S109" s="4"/>
+      <c r="T109" s="4"/>
+      <c r="U109" s="4"/>
+      <c r="V109" s="4"/>
+      <c r="W109" s="4"/>
+      <c r="X109" s="4"/>
+      <c r="Y109" s="4"/>
+      <c r="Z109" s="4"/>
+      <c r="AA109" s="4"/>
+      <c r="AB109" s="4"/>
+      <c r="AC109" s="4"/>
+      <c r="AD109" s="4"/>
+      <c r="AE109" s="4"/>
+      <c r="AF109" s="4"/>
     </row>
     <row r="110" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9"/>
@@ -5876,16 +5882,16 @@
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="10" t="s">
-        <v>301</v>
+        <v>139</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>302</v>
+        <v>138</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5912,16 +5918,16 @@
       <c r="AE110" s="9"/>
       <c r="AF110" s="9"/>
     </row>
-    <row r="111" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="10" t="s">
-        <v>142</v>
+        <v>300</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>143</v>
+        <v>301</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>9</v>
@@ -5954,19 +5960,19 @@
       <c r="AE111" s="9"/>
       <c r="AF111" s="9"/>
     </row>
-    <row r="112" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H112" s="11" t="s">
         <v>10</v>
@@ -5996,19 +6002,19 @@
       <c r="AE112" s="9"/>
       <c r="AF112" s="9"/>
     </row>
-    <row r="113" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H113" s="11" t="s">
         <v>10</v>
@@ -6047,7 +6053,7 @@
         <v>146</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>304</v>
+        <v>147</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>16</v>
@@ -6080,22 +6086,22 @@
       <c r="AE114" s="9"/>
       <c r="AF114" s="9"/>
     </row>
-    <row r="115" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -6122,22 +6128,22 @@
       <c r="AE115" s="9"/>
       <c r="AF115" s="9"/>
     </row>
-    <row r="116" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F116" s="11" t="s">
         <v>305</v>
-      </c>
-      <c r="F116" s="11" t="s">
-        <v>307</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -6164,100 +6170,100 @@
       <c r="AE116" s="9"/>
       <c r="AF116" s="9"/>
     </row>
-    <row r="117" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G117" s="8" t="s">
+    <row r="117" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="9"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="G117" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H117" s="8" t="s">
+      <c r="H117" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
-      <c r="M117" s="4"/>
-      <c r="N117" s="4"/>
-      <c r="O117" s="4"/>
-      <c r="P117" s="4"/>
-      <c r="Q117" s="4"/>
-      <c r="R117" s="4"/>
-      <c r="S117" s="4"/>
-      <c r="T117" s="4"/>
-      <c r="U117" s="4"/>
-      <c r="V117" s="4"/>
-      <c r="W117" s="4"/>
-      <c r="X117" s="4"/>
-      <c r="Y117" s="4"/>
-      <c r="Z117" s="4"/>
-      <c r="AA117" s="4"/>
-      <c r="AB117" s="4"/>
-      <c r="AC117" s="4"/>
-      <c r="AD117" s="4"/>
-      <c r="AE117" s="4"/>
-      <c r="AF117" s="4"/>
-    </row>
-    <row r="118" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="9"/>
-      <c r="B118" s="9"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F118" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="G118" s="11" t="s">
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+      <c r="O117" s="9"/>
+      <c r="P117" s="9"/>
+      <c r="Q117" s="9"/>
+      <c r="R117" s="9"/>
+      <c r="S117" s="9"/>
+      <c r="T117" s="9"/>
+      <c r="U117" s="9"/>
+      <c r="V117" s="9"/>
+      <c r="W117" s="9"/>
+      <c r="X117" s="9"/>
+      <c r="Y117" s="9"/>
+      <c r="Z117" s="9"/>
+      <c r="AA117" s="9"/>
+      <c r="AB117" s="9"/>
+      <c r="AC117" s="9"/>
+      <c r="AD117" s="9"/>
+      <c r="AE117" s="9"/>
+      <c r="AF117" s="9"/>
+    </row>
+    <row r="118" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G118" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H118" s="11" t="s">
+      <c r="H118" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I118" s="9"/>
-      <c r="J118" s="9"/>
-      <c r="K118" s="9"/>
-      <c r="L118" s="9"/>
-      <c r="M118" s="9"/>
-      <c r="N118" s="9"/>
-      <c r="O118" s="9"/>
-      <c r="P118" s="9"/>
-      <c r="Q118" s="9"/>
-      <c r="R118" s="9"/>
-      <c r="S118" s="9"/>
-      <c r="T118" s="9"/>
-      <c r="U118" s="9"/>
-      <c r="V118" s="9"/>
-      <c r="W118" s="9"/>
-      <c r="X118" s="9"/>
-      <c r="Y118" s="9"/>
-      <c r="Z118" s="9"/>
-      <c r="AA118" s="9"/>
-      <c r="AB118" s="9"/>
-      <c r="AC118" s="9"/>
-      <c r="AD118" s="9"/>
-      <c r="AE118" s="9"/>
-      <c r="AF118" s="9"/>
-    </row>
-    <row r="119" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
+      <c r="R118" s="4"/>
+      <c r="S118" s="4"/>
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="4"/>
+      <c r="W118" s="4"/>
+      <c r="X118" s="4"/>
+      <c r="Y118" s="4"/>
+      <c r="Z118" s="4"/>
+      <c r="AA118" s="4"/>
+      <c r="AB118" s="4"/>
+      <c r="AC118" s="4"/>
+      <c r="AD118" s="4"/>
+      <c r="AE118" s="4"/>
+      <c r="AF118" s="4"/>
+    </row>
+    <row r="119" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>152</v>
+        <v>307</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>9</v>
@@ -6290,16 +6296,16 @@
       <c r="AE119" s="9"/>
       <c r="AF119" s="9"/>
     </row>
-    <row r="120" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>9</v>
@@ -6332,16 +6338,16 @@
       <c r="AE120" s="9"/>
       <c r="AF120" s="9"/>
     </row>
-    <row r="121" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="10" t="s">
-        <v>309</v>
+        <v>152</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>310</v>
+        <v>153</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>9</v>
@@ -6374,89 +6380,89 @@
       <c r="AE121" s="9"/>
       <c r="AF121" s="9"/>
     </row>
-    <row r="122" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G122" s="8" t="s">
+    <row r="122" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="9"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="G122" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H122" s="8" t="s">
+      <c r="H122" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-      <c r="M122" s="4"/>
-      <c r="N122" s="4"/>
-      <c r="O122" s="4"/>
-      <c r="P122" s="4"/>
-      <c r="Q122" s="4"/>
-      <c r="R122" s="4"/>
-      <c r="S122" s="4"/>
-      <c r="T122" s="4"/>
-      <c r="U122" s="4"/>
-      <c r="V122" s="4"/>
-      <c r="W122" s="4"/>
-      <c r="X122" s="4"/>
-      <c r="Y122" s="4"/>
-      <c r="Z122" s="4"/>
-      <c r="AA122" s="4"/>
-      <c r="AB122" s="4"/>
-      <c r="AC122" s="4"/>
-      <c r="AD122" s="4"/>
-      <c r="AE122" s="4"/>
-      <c r="AF122" s="4"/>
-    </row>
-    <row r="123" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="9"/>
-      <c r="B123" s="9"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="G123" s="11" t="s">
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="9"/>
+      <c r="O122" s="9"/>
+      <c r="P122" s="9"/>
+      <c r="Q122" s="9"/>
+      <c r="R122" s="9"/>
+      <c r="S122" s="9"/>
+      <c r="T122" s="9"/>
+      <c r="U122" s="9"/>
+      <c r="V122" s="9"/>
+      <c r="W122" s="9"/>
+      <c r="X122" s="9"/>
+      <c r="Y122" s="9"/>
+      <c r="Z122" s="9"/>
+      <c r="AA122" s="9"/>
+      <c r="AB122" s="9"/>
+      <c r="AC122" s="9"/>
+      <c r="AD122" s="9"/>
+      <c r="AE122" s="9"/>
+      <c r="AF122" s="9"/>
+    </row>
+    <row r="123" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G123" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H123" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I123" s="9"/>
-      <c r="J123" s="9"/>
-      <c r="K123" s="9"/>
-      <c r="L123" s="9"/>
-      <c r="M123" s="9"/>
-      <c r="N123" s="9"/>
-      <c r="O123" s="9"/>
-      <c r="P123" s="9"/>
-      <c r="Q123" s="9"/>
-      <c r="R123" s="9"/>
-      <c r="S123" s="9"/>
-      <c r="T123" s="9"/>
-      <c r="U123" s="9"/>
-      <c r="V123" s="9"/>
-      <c r="W123" s="9"/>
-      <c r="X123" s="9"/>
-      <c r="Y123" s="9"/>
-      <c r="Z123" s="9"/>
-      <c r="AA123" s="9"/>
-      <c r="AB123" s="9"/>
-      <c r="AC123" s="9"/>
-      <c r="AD123" s="9"/>
-      <c r="AE123" s="9"/>
-      <c r="AF123" s="9"/>
+      <c r="H123" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
+      <c r="R123" s="4"/>
+      <c r="S123" s="4"/>
+      <c r="T123" s="4"/>
+      <c r="U123" s="4"/>
+      <c r="V123" s="4"/>
+      <c r="W123" s="4"/>
+      <c r="X123" s="4"/>
+      <c r="Y123" s="4"/>
+      <c r="Z123" s="4"/>
+      <c r="AA123" s="4"/>
+      <c r="AB123" s="4"/>
+      <c r="AC123" s="4"/>
+      <c r="AD123" s="4"/>
+      <c r="AE123" s="4"/>
+      <c r="AF123" s="4"/>
     </row>
     <row r="124" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9"/>
@@ -6464,16 +6470,16 @@
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="10" t="s">
-        <v>311</v>
+        <v>158</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>312</v>
+        <v>155</v>
       </c>
       <c r="G124" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -6506,16 +6512,16 @@
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="10" t="s">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H125" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -6542,22 +6548,22 @@
       <c r="AE125" s="9"/>
       <c r="AF125" s="9"/>
     </row>
-    <row r="126" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="10" t="s">
-        <v>313</v>
+        <v>159</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>314</v>
+        <v>156</v>
       </c>
       <c r="G126" s="11" t="s">
         <v>9</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -6584,21 +6590,21 @@
       <c r="AE126" s="9"/>
       <c r="AF126" s="9"/>
     </row>
-    <row r="127" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
-      <c r="E127" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G127" s="8" t="s">
+      <c r="E127" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="G127" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H127" s="8" t="s">
+      <c r="H127" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I127" s="9"/>
@@ -6631,16 +6637,16 @@
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
-      <c r="E128" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="F128" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="G128" s="11" t="s">
+      <c r="E128" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G128" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H128" s="11" t="s">
+      <c r="H128" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I128" s="9"/>
@@ -6674,10 +6680,10 @@
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>9</v>
@@ -6716,10 +6722,10 @@
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="10" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>9</v>
@@ -6758,13 +6764,13 @@
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H131" s="11" t="s">
         <v>10</v>
@@ -6800,13 +6806,13 @@
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H132" s="11" t="s">
         <v>10</v>
@@ -6842,10 +6848,10 @@
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>16</v>
@@ -6884,13 +6890,13 @@
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H134" s="11" t="s">
         <v>10</v>
@@ -6926,10 +6932,10 @@
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G135" s="11" t="s">
         <v>9</v>
@@ -6968,10 +6974,10 @@
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G136" s="11" t="s">
         <v>9</v>
@@ -7010,10 +7016,10 @@
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="E137" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>9</v>
@@ -7052,10 +7058,10 @@
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="10" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F138" s="11" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G138" s="11" t="s">
         <v>9</v>
@@ -7094,10 +7100,10 @@
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>9</v>
@@ -7136,10 +7142,10 @@
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G140" s="11" t="s">
         <v>9</v>
@@ -7178,13 +7184,13 @@
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H141" s="11" t="s">
         <v>10</v>
@@ -7219,16 +7225,16 @@
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
-      <c r="E142" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G142" s="8" t="s">
+      <c r="E142" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G142" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H142" s="8" t="s">
+      <c r="H142" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I142" s="9"/>
@@ -7256,21 +7262,21 @@
       <c r="AE142" s="9"/>
       <c r="AF142" s="9"/>
     </row>
-    <row r="143" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:32" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
-      <c r="E143" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="F143" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="G143" s="11" t="s">
+      <c r="E143" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G143" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H143" s="11" t="s">
+      <c r="H143" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I143" s="9"/>
@@ -7304,16 +7310,16 @@
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G144" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H144" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -7340,16 +7346,16 @@
       <c r="AE144" s="9"/>
       <c r="AF144" s="9"/>
     </row>
-    <row r="145" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9"/>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F145" s="11" t="s">
         <v>197</v>
-      </c>
-      <c r="F145" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="G145" s="11" t="s">
         <v>16</v>
@@ -7382,16 +7388,16 @@
       <c r="AE145" s="9"/>
       <c r="AF145" s="9"/>
     </row>
-    <row r="146" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:32" s="12" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G146" s="11" t="s">
         <v>16</v>
@@ -7424,61 +7430,61 @@
       <c r="AE146" s="9"/>
       <c r="AF146" s="9"/>
     </row>
-    <row r="147" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="4"/>
-      <c r="J147" s="4"/>
-      <c r="K147" s="4"/>
-      <c r="L147" s="4"/>
-      <c r="M147" s="4"/>
-      <c r="N147" s="4"/>
-      <c r="O147" s="4"/>
-      <c r="P147" s="4"/>
-      <c r="Q147" s="4"/>
-      <c r="R147" s="4"/>
-      <c r="S147" s="4"/>
-      <c r="T147" s="4"/>
-      <c r="U147" s="4"/>
-      <c r="V147" s="4"/>
-      <c r="W147" s="4"/>
-      <c r="X147" s="4"/>
-      <c r="Y147" s="4"/>
-      <c r="Z147" s="4"/>
-      <c r="AA147" s="4"/>
-      <c r="AB147" s="4"/>
-      <c r="AC147" s="4"/>
-      <c r="AD147" s="4"/>
-      <c r="AE147" s="4"/>
-      <c r="AF147" s="4"/>
+    <row r="147" spans="1:32" s="12" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="9"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H147" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c r="L147" s="9"/>
+      <c r="M147" s="9"/>
+      <c r="N147" s="9"/>
+      <c r="O147" s="9"/>
+      <c r="P147" s="9"/>
+      <c r="Q147" s="9"/>
+      <c r="R147" s="9"/>
+      <c r="S147" s="9"/>
+      <c r="T147" s="9"/>
+      <c r="U147" s="9"/>
+      <c r="V147" s="9"/>
+      <c r="W147" s="9"/>
+      <c r="X147" s="9"/>
+      <c r="Y147" s="9"/>
+      <c r="Z147" s="9"/>
+      <c r="AA147" s="9"/>
+      <c r="AB147" s="9"/>
+      <c r="AC147" s="9"/>
+      <c r="AD147" s="9"/>
+      <c r="AE147" s="9"/>
+      <c r="AF147" s="9"/>
     </row>
     <row r="148" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="F148" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="G148" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H148" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="E148" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
@@ -7509,16 +7515,16 @@
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
-      <c r="E149" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="F149" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="G149" s="11" t="s">
+      <c r="E149" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G149" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H149" s="11" t="s">
+      <c r="H149" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I149" s="4"/>
@@ -7552,10 +7558,10 @@
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="10" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G150" s="11" t="s">
         <v>16</v>
@@ -7594,10 +7600,10 @@
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G151" s="11" t="s">
         <v>16</v>
@@ -7636,13 +7642,13 @@
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>207</v>
+        <v>259</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H152" s="11" t="s">
         <v>10</v>
@@ -7678,10 +7684,10 @@
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F153" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G153" s="11" t="s">
         <v>17</v>
@@ -7720,10 +7726,10 @@
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F154" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G154" s="11" t="s">
         <v>17</v>
@@ -7756,19 +7762,19 @@
       <c r="AE154" s="4"/>
       <c r="AF154" s="4"/>
     </row>
-    <row r="155" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G155" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H155" s="11" t="s">
         <v>10</v>
@@ -7798,19 +7804,19 @@
       <c r="AE155" s="4"/>
       <c r="AF155" s="4"/>
     </row>
-    <row r="156" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="10" t="s">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="F156" s="11" t="s">
-        <v>316</v>
+        <v>209</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H156" s="11" t="s">
         <v>10</v>
@@ -7845,16 +7851,16 @@
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
-      <c r="E157" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="F157" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="G157" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H157" s="8" t="s">
+      <c r="E157" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H157" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I157" s="4"/>
@@ -7882,21 +7888,21 @@
       <c r="AE157" s="4"/>
       <c r="AF157" s="4"/>
     </row>
-    <row r="158" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
-      <c r="E158" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="F158" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="G158" s="11" t="s">
+      <c r="E158" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="G158" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H158" s="11" t="s">
+      <c r="H158" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I158" s="4"/>
@@ -7930,10 +7936,10 @@
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F159" s="11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G159" s="11" t="s">
         <v>16</v>
@@ -7966,16 +7972,16 @@
       <c r="AE159" s="4"/>
       <c r="AF159" s="4"/>
     </row>
-    <row r="160" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="F160" s="11" t="s">
         <v>238</v>
-      </c>
-      <c r="F160" s="11" t="s">
-        <v>240</v>
       </c>
       <c r="G160" s="11" t="s">
         <v>16</v>
@@ -8008,16 +8014,16 @@
       <c r="AE160" s="4"/>
       <c r="AF160" s="4"/>
     </row>
-    <row r="161" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F161" s="11" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G161" s="11" t="s">
         <v>16</v>
@@ -8050,13 +8056,13 @@
       <c r="AE161" s="4"/>
       <c r="AF161" s="4"/>
     </row>
-    <row r="162" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F162" s="11" t="s">
         <v>243</v>
@@ -8101,7 +8107,7 @@
         <v>241</v>
       </c>
       <c r="F163" s="11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G163" s="11" t="s">
         <v>16</v>
@@ -8134,16 +8140,16 @@
       <c r="AE163" s="4"/>
       <c r="AF163" s="4"/>
     </row>
-    <row r="164" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F164" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G164" s="11" t="s">
         <v>16</v>
@@ -8176,15 +8182,23 @@
       <c r="AE164" s="4"/>
       <c r="AF164" s="4"/>
     </row>
-    <row r="165" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:32" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
-      <c r="F165" s="4"/>
-      <c r="G165" s="4"/>
-      <c r="H165" s="4"/>
+      <c r="E165" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F165" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G165" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H165" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
       <c r="K165" s="4"/>
@@ -8244,15 +8258,13 @@
       <c r="AE166" s="4"/>
       <c r="AF166" s="4"/>
     </row>
-    <row r="167" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
-      <c r="E167" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F167" s="7"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
@@ -8286,7 +8298,7 @@
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F168" s="7"/>
       <c r="G168" s="4"/>
@@ -8322,7 +8334,7 @@
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F169" s="7"/>
       <c r="G169" s="4"/>
@@ -8358,7 +8370,7 @@
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F170" s="7"/>
       <c r="G170" s="4"/>
@@ -8388,13 +8400,15 @@
       <c r="AE170" s="4"/>
       <c r="AF170" s="4"/>
     </row>
-    <row r="171" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
-      <c r="E171" s="4"/>
-      <c r="F171" s="4"/>
+      <c r="E171" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F171" s="7"/>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
@@ -11652,6 +11666,40 @@
       <c r="AE266" s="4"/>
       <c r="AF266" s="4"/>
     </row>
+    <row r="267" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A267" s="4"/>
+      <c r="B267" s="4"/>
+      <c r="C267" s="4"/>
+      <c r="D267" s="4"/>
+      <c r="E267" s="4"/>
+      <c r="F267" s="4"/>
+      <c r="G267" s="4"/>
+      <c r="H267" s="4"/>
+      <c r="I267" s="4"/>
+      <c r="J267" s="4"/>
+      <c r="K267" s="4"/>
+      <c r="L267" s="4"/>
+      <c r="M267" s="4"/>
+      <c r="N267" s="4"/>
+      <c r="O267" s="4"/>
+      <c r="P267" s="4"/>
+      <c r="Q267" s="4"/>
+      <c r="R267" s="4"/>
+      <c r="S267" s="4"/>
+      <c r="T267" s="4"/>
+      <c r="U267" s="4"/>
+      <c r="V267" s="4"/>
+      <c r="W267" s="4"/>
+      <c r="X267" s="4"/>
+      <c r="Y267" s="4"/>
+      <c r="Z267" s="4"/>
+      <c r="AA267" s="4"/>
+      <c r="AB267" s="4"/>
+      <c r="AC267" s="4"/>
+      <c r="AD267" s="4"/>
+      <c r="AE267" s="4"/>
+      <c r="AF267" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E8:E9"/>
@@ -11662,10 +11710,10 @@
   <hyperlinks>
     <hyperlink ref="E8" location="_ftn1" display="_ftn1"/>
     <hyperlink ref="F8" location="_ftn2" display="_ftn2"/>
-    <hyperlink ref="E170" location="_ftnref4" display="_ftnref4"/>
-    <hyperlink ref="E169" location="_ftnref3" display="_ftnref3"/>
-    <hyperlink ref="E168" location="_ftnref2" display="_ftnref2"/>
-    <hyperlink ref="E167" location="_ftnref1" display="_ftnref1"/>
+    <hyperlink ref="E171" location="_ftnref4" display="_ftnref4"/>
+    <hyperlink ref="E170" location="_ftnref3" display="_ftnref3"/>
+    <hyperlink ref="E169" location="_ftnref2" display="_ftnref2"/>
+    <hyperlink ref="E168" location="_ftnref1" display="_ftnref1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
